--- a/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
+++ b/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user43\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D000B59-3B55-44FB-8125-7DAADD2FF75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368EFB0B-7DA0-469C-9546-53A820D4F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小工程" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="40">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -144,29 +144,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>詳細画面JSP作成</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>変更画面JSP作成</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンコウガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
@@ -207,12 +184,94 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>削除画面JSP作成</t>
+    <t>各画面レビュー</t>
+    <rPh sb="0" eb="3">
+      <t>カクガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レビュー取り組み</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>各画面再レビュー</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>再レビュー後取り込み</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>詳細画面JSP、Servlet作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>変更画面JSP、Servlet作成</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除画面JSP、Servlet作成</t>
     <rPh sb="0" eb="4">
       <t>サクジョガメン</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="15" eb="17">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レビュー後取り込み</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -843,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1054,17 +1113,35 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1084,18 +1161,6 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,11 +1176,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,19 +1415,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ996"/>
+  <dimension ref="A1:AZ1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q45" sqref="Q45"/>
+      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
@@ -1462,58 +1545,58 @@
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="79" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="74">
+      <c r="G3" s="80">
         <v>45629</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="74">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="80">
         <v>45630</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="74">
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="80">
         <v>45631</v>
       </c>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="76"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="82"/>
       <c r="AQ3" s="52"/>
       <c r="AR3" s="52"/>
       <c r="AS3" s="52"/>
@@ -1526,56 +1609,56 @@
       <c r="AZ3" s="52"/>
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="84" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="79"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="85"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
@@ -1588,84 +1671,84 @@
       <c r="AZ4" s="10"/>
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="70">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="75">
         <v>3</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70">
+      <c r="H5" s="76"/>
+      <c r="I5" s="75">
         <v>4</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="70">
+      <c r="J5" s="76"/>
+      <c r="K5" s="75">
         <v>5</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="70">
+      <c r="L5" s="76"/>
+      <c r="M5" s="75">
         <v>6</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="70">
+      <c r="N5" s="76"/>
+      <c r="O5" s="75">
         <v>7</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="70">
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75">
         <v>8</v>
       </c>
-      <c r="R5" s="71"/>
-      <c r="S5" s="70">
+      <c r="R5" s="76"/>
+      <c r="S5" s="75">
         <v>9</v>
       </c>
-      <c r="T5" s="71"/>
-      <c r="U5" s="70">
+      <c r="T5" s="76"/>
+      <c r="U5" s="75">
         <v>10</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="70">
+      <c r="V5" s="76"/>
+      <c r="W5" s="75">
         <v>11</v>
       </c>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="70">
+      <c r="X5" s="76"/>
+      <c r="Y5" s="75">
         <v>12</v>
       </c>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="70">
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="75">
         <v>13</v>
       </c>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="70">
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="75">
         <v>14</v>
       </c>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="70">
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="75">
         <v>15</v>
       </c>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="70">
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="75">
         <v>16</v>
       </c>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="70">
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="75">
         <v>17</v>
       </c>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="70">
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="75">
         <v>18</v>
       </c>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="70">
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="75">
         <v>19</v>
       </c>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="70">
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="75">
         <v>20</v>
       </c>
-      <c r="AP5" s="71"/>
+      <c r="AP5" s="76"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
@@ -1678,84 +1761,84 @@
       <c r="AZ5" s="10"/>
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="70" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="70" t="s">
+      <c r="J6" s="76"/>
+      <c r="K6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="70" t="s">
+      <c r="L6" s="76"/>
+      <c r="M6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="70" t="s">
+      <c r="N6" s="76"/>
+      <c r="O6" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="70" t="s">
+      <c r="P6" s="76"/>
+      <c r="Q6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="71"/>
-      <c r="S6" s="70" t="s">
+      <c r="R6" s="76"/>
+      <c r="S6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="70" t="s">
+      <c r="T6" s="76"/>
+      <c r="U6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="70" t="s">
+      <c r="V6" s="76"/>
+      <c r="W6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="70" t="s">
+      <c r="X6" s="76"/>
+      <c r="Y6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="70" t="s">
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="70" t="s">
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="70" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="70" t="s">
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="70" t="s">
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="70" t="s">
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="70" t="s">
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="70" t="s">
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="71"/>
+      <c r="AP6" s="76"/>
     </row>
     <row r="7" spans="1:52" ht="12" customHeight="1">
       <c r="A7" s="13" t="s">
@@ -1814,7 +1897,7 @@
       <c r="AZ7" s="20"/>
     </row>
     <row r="8" spans="1:52" ht="12" customHeight="1">
-      <c r="A8" s="80">
+      <c r="A8" s="70">
         <v>1</v>
       </c>
       <c r="B8" s="72"/>
@@ -1874,11 +1957,11 @@
       <c r="AZ8" s="27"/>
     </row>
     <row r="9" spans="1:52" ht="12" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="28" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +2013,7 @@
       <c r="AZ9" s="32"/>
     </row>
     <row r="10" spans="1:52" ht="12" customHeight="1">
-      <c r="A10" s="80">
+      <c r="A10" s="70">
         <v>2</v>
       </c>
       <c r="B10" s="72"/>
@@ -1990,11 +2073,11 @@
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" ht="12" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="37" t="s">
         <v>14</v>
       </c>
@@ -2046,7 +2129,7 @@
       <c r="AZ11" s="41"/>
     </row>
     <row r="12" spans="1:52" ht="12" customHeight="1">
-      <c r="A12" s="80">
+      <c r="A12" s="70">
         <v>3</v>
       </c>
       <c r="B12" s="72"/>
@@ -2106,11 +2189,11 @@
       <c r="AZ12" s="27"/>
     </row>
     <row r="13" spans="1:52" ht="12" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="42" t="s">
         <v>14</v>
       </c>
@@ -2162,7 +2245,7 @@
       <c r="AZ13" s="32"/>
     </row>
     <row r="14" spans="1:52" ht="12" customHeight="1">
-      <c r="A14" s="80">
+      <c r="A14" s="70">
         <v>4</v>
       </c>
       <c r="B14" s="72"/>
@@ -2222,11 +2305,11 @@
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" ht="12" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="37" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2361,7 @@
       <c r="AZ15" s="41"/>
     </row>
     <row r="16" spans="1:52" ht="12" customHeight="1">
-      <c r="A16" s="80">
+      <c r="A16" s="70">
         <v>5</v>
       </c>
       <c r="B16" s="72"/>
@@ -2338,11 +2421,11 @@
       <c r="AZ16" s="27"/>
     </row>
     <row r="17" spans="1:52" ht="12" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="42" t="s">
         <v>14</v>
       </c>
@@ -2394,7 +2477,7 @@
       <c r="AZ17" s="46"/>
     </row>
     <row r="18" spans="1:52" ht="12" customHeight="1">
-      <c r="A18" s="80">
+      <c r="A18" s="70">
         <v>6</v>
       </c>
       <c r="B18" s="72"/>
@@ -2454,11 +2537,11 @@
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" ht="12" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,7 +2593,7 @@
       <c r="AZ19" s="46"/>
     </row>
     <row r="20" spans="1:52" ht="12" customHeight="1">
-      <c r="A20" s="80">
+      <c r="A20" s="70">
         <v>7</v>
       </c>
       <c r="B20" s="72"/>
@@ -2570,11 +2653,11 @@
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" ht="12" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="28" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +2709,7 @@
       <c r="AZ21" s="46"/>
     </row>
     <row r="22" spans="1:52" ht="12" customHeight="1">
-      <c r="A22" s="80">
+      <c r="A22" s="70">
         <v>8</v>
       </c>
       <c r="B22" s="72"/>
@@ -2686,11 +2769,11 @@
       <c r="AZ22" s="27"/>
     </row>
     <row r="23" spans="1:52" ht="12" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2881,7 @@
       <c r="AZ24" s="20"/>
     </row>
     <row r="25" spans="1:52" ht="12" customHeight="1">
-      <c r="A25" s="80">
+      <c r="A25" s="70">
         <v>1</v>
       </c>
       <c r="B25" s="72" t="s">
@@ -2860,11 +2943,11 @@
       <c r="AZ25" s="27"/>
     </row>
     <row r="26" spans="1:52" ht="12" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="28" t="s">
         <v>14</v>
       </c>
@@ -2916,7 +2999,7 @@
       <c r="AZ26" s="32"/>
     </row>
     <row r="27" spans="1:52" ht="12" customHeight="1">
-      <c r="A27" s="80">
+      <c r="A27" s="70">
         <v>2</v>
       </c>
       <c r="B27" s="72" t="s">
@@ -2978,11 +3061,11 @@
       <c r="AZ27" s="11"/>
     </row>
     <row r="28" spans="1:52" ht="12" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="37" t="s">
         <v>14</v>
       </c>
@@ -3034,7 +3117,7 @@
       <c r="AZ28" s="41"/>
     </row>
     <row r="29" spans="1:52" ht="12" customHeight="1">
-      <c r="A29" s="80">
+      <c r="A29" s="70">
         <v>3</v>
       </c>
       <c r="B29" s="72" t="s">
@@ -3096,11 +3179,11 @@
       <c r="AZ29" s="27"/>
     </row>
     <row r="30" spans="1:52" ht="12" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="42" t="s">
         <v>14</v>
       </c>
@@ -3152,7 +3235,7 @@
       <c r="AZ30" s="32"/>
     </row>
     <row r="31" spans="1:52" ht="12" customHeight="1">
-      <c r="A31" s="80">
+      <c r="A31" s="70">
         <v>4</v>
       </c>
       <c r="B31" s="72" t="s">
@@ -3215,10 +3298,10 @@
     </row>
     <row r="32" spans="1:52" ht="12" customHeight="1">
       <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="37" t="s">
         <v>14</v>
       </c>
@@ -3270,7 +3353,7 @@
       <c r="AZ32" s="41"/>
     </row>
     <row r="33" spans="1:52" ht="12" customHeight="1">
-      <c r="A33" s="80">
+      <c r="A33" s="70">
         <v>5</v>
       </c>
       <c r="B33" s="72" t="s">
@@ -3332,11 +3415,11 @@
       <c r="AZ33" s="27"/>
     </row>
     <row r="34" spans="1:52" ht="12" customHeight="1">
-      <c r="A34" s="89"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="42" t="s">
         <v>14</v>
       </c>
@@ -3388,7 +3471,7 @@
       <c r="AZ34" s="46"/>
     </row>
     <row r="35" spans="1:52" ht="12" customHeight="1">
-      <c r="A35" s="80">
+      <c r="A35" s="70">
         <v>6</v>
       </c>
       <c r="B35" s="72" t="s">
@@ -3450,11 +3533,11 @@
       <c r="AZ35" s="11"/>
     </row>
     <row r="36" spans="1:52" ht="12" customHeight="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="37" t="s">
         <v>14</v>
       </c>
@@ -3506,335 +3589,335 @@
       <c r="AZ36" s="12"/>
     </row>
     <row r="37" spans="1:52" ht="12" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>16</v>
+      <c r="A37" s="70">
+        <v>7</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
-      <c r="AO37" s="16"/>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="20"/>
-      <c r="AX37" s="20"/>
-      <c r="AY37" s="20"/>
-      <c r="AZ37" s="20"/>
+      <c r="B37" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="72"/>
+      <c r="F37" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="11"/>
+      <c r="AZ37" s="11"/>
     </row>
     <row r="38" spans="1:52" ht="12" customHeight="1">
-      <c r="A38" s="80">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="48"/>
+      <c r="AO38" s="48"/>
+      <c r="AP38" s="48"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+    </row>
+    <row r="39" spans="1:52" ht="12" customHeight="1">
+      <c r="A39" s="70">
+        <v>8</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="72"/>
+      <c r="F39" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="24"/>
+      <c r="AH39" s="24"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="24"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+    </row>
+    <row r="40" spans="1:52" ht="12" customHeight="1">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="48"/>
+      <c r="AL40" s="48"/>
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="48"/>
+      <c r="AO40" s="48"/>
+      <c r="AP40" s="48"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+    </row>
+    <row r="41" spans="1:52" ht="12" customHeight="1">
+      <c r="A41" s="70">
         <v>1</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>27</v>
+      <c r="B41" s="72" t="s">
+        <v>34</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72" t="s">
+      <c r="C41" s="72"/>
+      <c r="D41" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="21" t="s">
+      <c r="E41" s="72"/>
+      <c r="F41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
-      <c r="AQ38" s="27"/>
-      <c r="AR38" s="27"/>
-      <c r="AS38" s="27"/>
-      <c r="AT38" s="27"/>
-      <c r="AU38" s="27"/>
-      <c r="AV38" s="27"/>
-      <c r="AW38" s="27"/>
-      <c r="AX38" s="27"/>
-      <c r="AY38" s="27"/>
-      <c r="AZ38" s="27"/>
-    </row>
-    <row r="39" spans="1:52" ht="12" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="28" t="s">
+      <c r="G41" s="93"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="24"/>
+      <c r="AH41" s="24"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="24"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="27"/>
+      <c r="AR41" s="27"/>
+      <c r="AS41" s="27"/>
+      <c r="AT41" s="27"/>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="27"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="27"/>
+      <c r="AZ41" s="27"/>
+    </row>
+    <row r="42" spans="1:52" ht="12" customHeight="1">
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="30"/>
-      <c r="AI39" s="30"/>
-      <c r="AJ39" s="30"/>
-      <c r="AK39" s="30"/>
-      <c r="AL39" s="30"/>
-      <c r="AM39" s="30"/>
-      <c r="AN39" s="30"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="30"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="32"/>
-      <c r="AS39" s="32"/>
-      <c r="AT39" s="32"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="32"/>
-      <c r="AW39" s="32"/>
-      <c r="AX39" s="32"/>
-      <c r="AY39" s="32"/>
-      <c r="AZ39" s="32"/>
-    </row>
-    <row r="40" spans="1:52" ht="12" customHeight="1">
-      <c r="A40" s="80">
-        <v>2</v>
-      </c>
-      <c r="B40" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="61"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="11"/>
-      <c r="AR40" s="11"/>
-      <c r="AS40" s="11"/>
-      <c r="AT40" s="11"/>
-      <c r="AU40" s="11"/>
-      <c r="AV40" s="11"/>
-      <c r="AW40" s="11"/>
-      <c r="AX40" s="11"/>
-      <c r="AY40" s="11"/>
-      <c r="AZ40" s="11"/>
-    </row>
-    <row r="41" spans="1:52" ht="12" customHeight="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39"/>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39"/>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39"/>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41"/>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41"/>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
-    </row>
-    <row r="42" spans="1:52" ht="12" customHeight="1">
-      <c r="A42" s="80">
-        <v>3</v>
-      </c>
-      <c r="B42" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="60"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="24"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="24"/>
       <c r="AF42" s="24"/>
@@ -3848,111 +3931,111 @@
       <c r="AN42" s="24"/>
       <c r="AO42" s="24"/>
       <c r="AP42" s="24"/>
-      <c r="AQ42" s="27"/>
-      <c r="AR42" s="27"/>
-      <c r="AS42" s="27"/>
-      <c r="AT42" s="27"/>
-      <c r="AU42" s="27"/>
-      <c r="AV42" s="27"/>
-      <c r="AW42" s="27"/>
-      <c r="AX42" s="27"/>
-      <c r="AY42" s="27"/>
-      <c r="AZ42" s="27"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
     </row>
     <row r="43" spans="1:52" ht="12" customHeight="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="42" t="s">
+      <c r="A43" s="70">
+        <v>1</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="72"/>
+      <c r="F43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="93"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="24"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="27"/>
+      <c r="AR43" s="27"/>
+      <c r="AS43" s="27"/>
+      <c r="AT43" s="27"/>
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="27"/>
+      <c r="AW43" s="27"/>
+      <c r="AX43" s="27"/>
+      <c r="AY43" s="27"/>
+      <c r="AZ43" s="27"/>
+    </row>
+    <row r="44" spans="1:52" ht="12" customHeight="1">
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="32"/>
-      <c r="AR43" s="32"/>
-      <c r="AS43" s="32"/>
-      <c r="AT43" s="32"/>
-      <c r="AU43" s="32"/>
-      <c r="AV43" s="32"/>
-      <c r="AW43" s="32"/>
-      <c r="AX43" s="32"/>
-      <c r="AY43" s="32"/>
-      <c r="AZ43" s="32"/>
-    </row>
-    <row r="44" spans="1:52" ht="12" customHeight="1">
-      <c r="A44" s="80">
-        <v>4</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="24"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
       <c r="AD44" s="24"/>
       <c r="AE44" s="24"/>
       <c r="AF44" s="24"/>
@@ -3966,2718 +4049,2778 @@
       <c r="AN44" s="24"/>
       <c r="AO44" s="24"/>
       <c r="AP44" s="24"/>
-      <c r="AQ44" s="27"/>
-      <c r="AR44" s="27"/>
-      <c r="AS44" s="27"/>
-      <c r="AT44" s="27"/>
-      <c r="AU44" s="27"/>
-      <c r="AV44" s="27"/>
-      <c r="AW44" s="27"/>
-      <c r="AX44" s="27"/>
-      <c r="AY44" s="27"/>
-      <c r="AZ44" s="27"/>
+      <c r="AQ44" s="32"/>
+      <c r="AR44" s="32"/>
+      <c r="AS44" s="32"/>
+      <c r="AT44" s="32"/>
+      <c r="AU44" s="32"/>
+      <c r="AV44" s="32"/>
+      <c r="AW44" s="32"/>
+      <c r="AX44" s="32"/>
+      <c r="AY44" s="32"/>
+      <c r="AZ44" s="32"/>
     </row>
     <row r="45" spans="1:52" ht="12" customHeight="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="42" t="s">
+      <c r="A45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="16"/>
+      <c r="AP45" s="16"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="20"/>
+      <c r="AT45" s="20"/>
+      <c r="AU45" s="20"/>
+      <c r="AV45" s="20"/>
+      <c r="AW45" s="20"/>
+      <c r="AX45" s="20"/>
+      <c r="AY45" s="20"/>
+      <c r="AZ45" s="20"/>
+    </row>
+    <row r="46" spans="1:52" ht="12" customHeight="1">
+      <c r="A46" s="70">
+        <v>1</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="72"/>
+      <c r="F46" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="24"/>
+      <c r="AH46" s="24"/>
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="27"/>
+      <c r="AR46" s="27"/>
+      <c r="AS46" s="27"/>
+      <c r="AT46" s="27"/>
+      <c r="AU46" s="27"/>
+      <c r="AV46" s="27"/>
+      <c r="AW46" s="27"/>
+      <c r="AX46" s="27"/>
+      <c r="AY46" s="27"/>
+      <c r="AZ46" s="27"/>
+    </row>
+    <row r="47" spans="1:52" ht="12" customHeight="1">
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-      <c r="AM45" s="30"/>
-      <c r="AN45" s="30"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="46"/>
-      <c r="AR45" s="46"/>
-      <c r="AS45" s="46"/>
-      <c r="AT45" s="46"/>
-      <c r="AU45" s="46"/>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-    </row>
-    <row r="46" spans="1:52" ht="12" customHeight="1">
-      <c r="A46" s="13" t="s">
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30"/>
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32"/>
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32"/>
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="32"/>
+    </row>
+    <row r="48" spans="1:52" ht="12" customHeight="1">
+      <c r="A48" s="70">
+        <v>2</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="34"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="34"/>
+      <c r="AP48" s="34"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+    </row>
+    <row r="49" spans="1:52" ht="12" customHeight="1">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="41"/>
+      <c r="AR49" s="41"/>
+      <c r="AS49" s="41"/>
+      <c r="AT49" s="41"/>
+      <c r="AU49" s="41"/>
+      <c r="AV49" s="41"/>
+      <c r="AW49" s="41"/>
+      <c r="AX49" s="41"/>
+      <c r="AY49" s="41"/>
+      <c r="AZ49" s="41"/>
+    </row>
+    <row r="50" spans="1:52" ht="12" customHeight="1">
+      <c r="A50" s="70">
+        <v>3</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="72"/>
+      <c r="F50" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="69"/>
+      <c r="X50" s="69"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="69"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="24"/>
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="24"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="24"/>
+      <c r="AP50" s="24"/>
+      <c r="AQ50" s="27"/>
+      <c r="AR50" s="27"/>
+      <c r="AS50" s="27"/>
+      <c r="AT50" s="27"/>
+      <c r="AU50" s="27"/>
+      <c r="AV50" s="27"/>
+      <c r="AW50" s="27"/>
+      <c r="AX50" s="27"/>
+      <c r="AY50" s="27"/>
+      <c r="AZ50" s="27"/>
+    </row>
+    <row r="51" spans="1:52" ht="12" customHeight="1">
+      <c r="A51" s="71"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="98"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="44"/>
+      <c r="AP51" s="44"/>
+      <c r="AQ51" s="32"/>
+      <c r="AR51" s="32"/>
+      <c r="AS51" s="32"/>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="32"/>
+      <c r="AV51" s="32"/>
+      <c r="AW51" s="32"/>
+      <c r="AX51" s="32"/>
+      <c r="AY51" s="32"/>
+      <c r="AZ51" s="32"/>
+    </row>
+    <row r="52" spans="1:52" ht="12" customHeight="1">
+      <c r="A52" s="70">
+        <v>4</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="72"/>
+      <c r="F52" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="67"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="24"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="24"/>
+      <c r="AL52" s="24"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="24"/>
+      <c r="AQ52" s="27"/>
+      <c r="AR52" s="27"/>
+      <c r="AS52" s="27"/>
+      <c r="AT52" s="27"/>
+      <c r="AU52" s="27"/>
+      <c r="AV52" s="27"/>
+      <c r="AW52" s="27"/>
+      <c r="AX52" s="27"/>
+      <c r="AY52" s="27"/>
+      <c r="AZ52" s="27"/>
+    </row>
+    <row r="53" spans="1:52" ht="12" customHeight="1">
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="95"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="30"/>
+      <c r="AO53" s="30"/>
+      <c r="AP53" s="30"/>
+      <c r="AQ53" s="46"/>
+      <c r="AR53" s="46"/>
+      <c r="AS53" s="46"/>
+      <c r="AT53" s="46"/>
+      <c r="AU53" s="46"/>
+      <c r="AV53" s="46"/>
+      <c r="AW53" s="46"/>
+      <c r="AX53" s="46"/>
+      <c r="AY53" s="46"/>
+      <c r="AZ53" s="46"/>
+    </row>
+    <row r="54" spans="1:52" ht="12" customHeight="1">
+      <c r="A54" s="70">
+        <v>5</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="91"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="60"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="27"/>
+      <c r="AR54" s="27"/>
+      <c r="AS54" s="27"/>
+      <c r="AT54" s="27"/>
+      <c r="AU54" s="27"/>
+      <c r="AV54" s="27"/>
+      <c r="AW54" s="27"/>
+      <c r="AX54" s="27"/>
+      <c r="AY54" s="27"/>
+      <c r="AZ54" s="27"/>
+    </row>
+    <row r="55" spans="1:52" ht="12" customHeight="1">
+      <c r="A55" s="73"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="30"/>
+      <c r="AG55" s="30"/>
+      <c r="AH55" s="30"/>
+      <c r="AI55" s="30"/>
+      <c r="AJ55" s="30"/>
+      <c r="AK55" s="30"/>
+      <c r="AL55" s="30"/>
+      <c r="AM55" s="30"/>
+      <c r="AN55" s="30"/>
+      <c r="AO55" s="30"/>
+      <c r="AP55" s="30"/>
+      <c r="AQ55" s="32"/>
+      <c r="AR55" s="32"/>
+      <c r="AS55" s="32"/>
+      <c r="AT55" s="32"/>
+      <c r="AU55" s="32"/>
+      <c r="AV55" s="32"/>
+      <c r="AW55" s="32"/>
+      <c r="AX55" s="32"/>
+      <c r="AY55" s="32"/>
+      <c r="AZ55" s="32"/>
+    </row>
+    <row r="56" spans="1:52" ht="12" customHeight="1">
+      <c r="A56" s="70">
+        <v>6</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="72"/>
+      <c r="F56" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="97"/>
+      <c r="T56" s="91"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="24"/>
+      <c r="AI56" s="24"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="24"/>
+      <c r="AL56" s="24"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="24"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
+      <c r="AQ56" s="27"/>
+      <c r="AR56" s="27"/>
+      <c r="AS56" s="27"/>
+      <c r="AT56" s="27"/>
+      <c r="AU56" s="27"/>
+      <c r="AV56" s="27"/>
+      <c r="AW56" s="27"/>
+      <c r="AX56" s="27"/>
+      <c r="AY56" s="27"/>
+      <c r="AZ56" s="27"/>
+    </row>
+    <row r="57" spans="1:52" ht="12" customHeight="1">
+      <c r="A57" s="71"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30"/>
+      <c r="AI57" s="30"/>
+      <c r="AJ57" s="30"/>
+      <c r="AK57" s="30"/>
+      <c r="AL57" s="30"/>
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30"/>
+      <c r="AQ57" s="32"/>
+      <c r="AR57" s="32"/>
+      <c r="AS57" s="32"/>
+      <c r="AT57" s="32"/>
+      <c r="AU57" s="32"/>
+      <c r="AV57" s="32"/>
+      <c r="AW57" s="32"/>
+      <c r="AX57" s="32"/>
+      <c r="AY57" s="32"/>
+      <c r="AZ57" s="32"/>
+    </row>
+    <row r="58" spans="1:52" ht="12" customHeight="1">
+      <c r="A58" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="16"/>
-      <c r="AK46" s="16"/>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="16"/>
-      <c r="AN46" s="16"/>
-      <c r="AO46" s="16"/>
-      <c r="AP46" s="16"/>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
-      <c r="AT46" s="20"/>
-      <c r="AU46" s="20"/>
-      <c r="AV46" s="20"/>
-      <c r="AW46" s="20"/>
-      <c r="AX46" s="20"/>
-      <c r="AY46" s="20"/>
-      <c r="AZ46" s="20"/>
-    </row>
-    <row r="47" spans="1:52" ht="12" customHeight="1">
-      <c r="A47" s="80">
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="16"/>
+      <c r="AI58" s="16"/>
+      <c r="AJ58" s="16"/>
+      <c r="AK58" s="16"/>
+      <c r="AL58" s="16"/>
+      <c r="AM58" s="16"/>
+      <c r="AN58" s="16"/>
+      <c r="AO58" s="16"/>
+      <c r="AP58" s="16"/>
+      <c r="AQ58" s="20"/>
+      <c r="AR58" s="20"/>
+      <c r="AS58" s="20"/>
+      <c r="AT58" s="20"/>
+      <c r="AU58" s="20"/>
+      <c r="AV58" s="20"/>
+      <c r="AW58" s="20"/>
+      <c r="AX58" s="20"/>
+      <c r="AY58" s="20"/>
+      <c r="AZ58" s="20"/>
+    </row>
+    <row r="59" spans="1:52" ht="12" customHeight="1">
+      <c r="A59" s="70">
         <v>1</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B59" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
+      <c r="AG59" s="60"/>
+      <c r="AH59" s="60"/>
+      <c r="AI59" s="60"/>
+      <c r="AJ59" s="60"/>
+      <c r="AK59" s="24"/>
+      <c r="AL59" s="24"/>
+      <c r="AM59" s="24"/>
+      <c r="AN59" s="24"/>
+      <c r="AO59" s="24"/>
+      <c r="AP59" s="24"/>
+      <c r="AQ59" s="27"/>
+      <c r="AR59" s="27"/>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="27"/>
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="27"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="27"/>
+      <c r="AY59" s="27"/>
+      <c r="AZ59" s="27"/>
+    </row>
+    <row r="60" spans="1:52" ht="12" customHeight="1">
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="30"/>
+      <c r="AG60" s="30"/>
+      <c r="AH60" s="30"/>
+      <c r="AI60" s="30"/>
+      <c r="AJ60" s="30"/>
+      <c r="AK60" s="30"/>
+      <c r="AL60" s="30"/>
+      <c r="AM60" s="30"/>
+      <c r="AN60" s="30"/>
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="30"/>
+      <c r="AQ60" s="32"/>
+      <c r="AR60" s="32"/>
+      <c r="AS60" s="32"/>
+      <c r="AT60" s="32"/>
+      <c r="AU60" s="32"/>
+      <c r="AV60" s="32"/>
+      <c r="AW60" s="32"/>
+      <c r="AX60" s="32"/>
+      <c r="AY60" s="32"/>
+      <c r="AZ60" s="32"/>
+    </row>
+    <row r="61" spans="1:52" ht="12" customHeight="1">
+      <c r="A61" s="70">
+        <v>2</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="34"/>
+      <c r="AG61" s="53"/>
+      <c r="AH61" s="53"/>
+      <c r="AI61" s="53"/>
+      <c r="AJ61" s="53"/>
+      <c r="AK61" s="34"/>
+      <c r="AL61" s="34"/>
+      <c r="AM61" s="34"/>
+      <c r="AN61" s="34"/>
+      <c r="AO61" s="34"/>
+      <c r="AP61" s="34"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="11"/>
+      <c r="AT61" s="11"/>
+      <c r="AU61" s="11"/>
+      <c r="AV61" s="11"/>
+      <c r="AW61" s="11"/>
+      <c r="AX61" s="11"/>
+      <c r="AY61" s="11"/>
+      <c r="AZ61" s="11"/>
+    </row>
+    <row r="62" spans="1:52" ht="12" customHeight="1">
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
+      <c r="AB62" s="39"/>
+      <c r="AC62" s="39"/>
+      <c r="AD62" s="39"/>
+      <c r="AE62" s="39"/>
+      <c r="AF62" s="39"/>
+      <c r="AG62" s="39"/>
+      <c r="AH62" s="39"/>
+      <c r="AI62" s="39"/>
+      <c r="AJ62" s="39"/>
+      <c r="AK62" s="39"/>
+      <c r="AL62" s="39"/>
+      <c r="AM62" s="39"/>
+      <c r="AN62" s="39"/>
+      <c r="AO62" s="39"/>
+      <c r="AP62" s="39"/>
+      <c r="AQ62" s="41"/>
+      <c r="AR62" s="41"/>
+      <c r="AS62" s="41"/>
+      <c r="AT62" s="41"/>
+      <c r="AU62" s="41"/>
+      <c r="AV62" s="41"/>
+      <c r="AW62" s="41"/>
+      <c r="AX62" s="41"/>
+      <c r="AY62" s="41"/>
+      <c r="AZ62" s="41"/>
+    </row>
+    <row r="63" spans="1:52" ht="12" customHeight="1">
+      <c r="A63" s="70">
+        <v>3</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="26"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
+      <c r="AI63" s="24"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="67"/>
+      <c r="AL63" s="60"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
+      <c r="AQ63" s="27"/>
+      <c r="AR63" s="27"/>
+      <c r="AS63" s="27"/>
+      <c r="AT63" s="27"/>
+      <c r="AU63" s="27"/>
+      <c r="AV63" s="27"/>
+      <c r="AW63" s="27"/>
+      <c r="AX63" s="27"/>
+      <c r="AY63" s="27"/>
+      <c r="AZ63" s="27"/>
+    </row>
+    <row r="64" spans="1:52" ht="12" customHeight="1">
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="43"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
+      <c r="AI64" s="44"/>
+      <c r="AJ64" s="44"/>
+      <c r="AK64" s="44"/>
+      <c r="AL64" s="44"/>
+      <c r="AM64" s="44"/>
+      <c r="AN64" s="44"/>
+      <c r="AO64" s="44"/>
+      <c r="AP64" s="44"/>
+      <c r="AQ64" s="32"/>
+      <c r="AR64" s="32"/>
+      <c r="AS64" s="32"/>
+      <c r="AT64" s="32"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="32"/>
+      <c r="AW64" s="32"/>
+      <c r="AX64" s="32"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="32"/>
+    </row>
+    <row r="65" spans="1:52" ht="12" customHeight="1">
+      <c r="A65" s="70">
+        <v>4</v>
+      </c>
+      <c r="B65" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="21" t="s">
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="60"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="60"/>
-      <c r="AJ47" s="60"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
-      <c r="AS47" s="27"/>
-      <c r="AT47" s="27"/>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="27"/>
-      <c r="AW47" s="27"/>
-      <c r="AX47" s="27"/>
-      <c r="AY47" s="27"/>
-      <c r="AZ47" s="27"/>
-    </row>
-    <row r="48" spans="1:52" ht="12" customHeight="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="28" t="s">
+      <c r="G65" s="55"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="34"/>
+      <c r="AH65" s="34"/>
+      <c r="AI65" s="34"/>
+      <c r="AJ65" s="34"/>
+      <c r="AK65" s="34"/>
+      <c r="AL65" s="53"/>
+      <c r="AM65" s="53"/>
+      <c r="AN65" s="53"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
+      <c r="AQ65" s="11"/>
+      <c r="AR65" s="11"/>
+      <c r="AS65" s="11"/>
+      <c r="AT65" s="11"/>
+      <c r="AU65" s="11"/>
+      <c r="AV65" s="11"/>
+      <c r="AW65" s="11"/>
+      <c r="AX65" s="11"/>
+      <c r="AY65" s="11"/>
+      <c r="AZ65" s="11"/>
+    </row>
+    <row r="66" spans="1:52" ht="12" customHeight="1">
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
-      <c r="AM48" s="30"/>
-      <c r="AN48" s="30"/>
-      <c r="AO48" s="30"/>
-      <c r="AP48" s="30"/>
-      <c r="AQ48" s="32"/>
-      <c r="AR48" s="32"/>
-      <c r="AS48" s="32"/>
-      <c r="AT48" s="32"/>
-      <c r="AU48" s="32"/>
-      <c r="AV48" s="32"/>
-      <c r="AW48" s="32"/>
-      <c r="AX48" s="32"/>
-      <c r="AY48" s="32"/>
-      <c r="AZ48" s="32"/>
-    </row>
-    <row r="49" spans="1:52" ht="12" customHeight="1">
-      <c r="A49" s="80">
+      <c r="G66" s="57"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="39"/>
+      <c r="AI66" s="39"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="39"/>
+      <c r="AL66" s="39"/>
+      <c r="AM66" s="39"/>
+      <c r="AN66" s="39"/>
+      <c r="AO66" s="39"/>
+      <c r="AP66" s="39"/>
+      <c r="AQ66" s="41"/>
+      <c r="AR66" s="41"/>
+      <c r="AS66" s="41"/>
+      <c r="AT66" s="41"/>
+      <c r="AU66" s="41"/>
+      <c r="AV66" s="41"/>
+      <c r="AW66" s="41"/>
+      <c r="AX66" s="41"/>
+      <c r="AY66" s="41"/>
+      <c r="AZ66" s="41"/>
+    </row>
+    <row r="67" spans="1:52" ht="12" customHeight="1">
+      <c r="A67" s="70">
+        <v>5</v>
+      </c>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="26"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
+      <c r="AQ67" s="27"/>
+      <c r="AR67" s="27"/>
+      <c r="AS67" s="27"/>
+      <c r="AT67" s="27"/>
+      <c r="AU67" s="27"/>
+      <c r="AV67" s="27"/>
+      <c r="AW67" s="27"/>
+      <c r="AX67" s="27"/>
+      <c r="AY67" s="27"/>
+      <c r="AZ67" s="27"/>
+    </row>
+    <row r="68" spans="1:52" ht="12" customHeight="1">
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
+      <c r="AF68" s="30"/>
+      <c r="AG68" s="30"/>
+      <c r="AH68" s="30"/>
+      <c r="AI68" s="30"/>
+      <c r="AJ68" s="30"/>
+      <c r="AK68" s="30"/>
+      <c r="AL68" s="30"/>
+      <c r="AM68" s="30"/>
+      <c r="AN68" s="30"/>
+      <c r="AO68" s="30"/>
+      <c r="AP68" s="30"/>
+      <c r="AQ68" s="46"/>
+      <c r="AR68" s="46"/>
+      <c r="AS68" s="46"/>
+      <c r="AT68" s="46"/>
+      <c r="AU68" s="46"/>
+      <c r="AV68" s="46"/>
+      <c r="AW68" s="46"/>
+      <c r="AX68" s="46"/>
+      <c r="AY68" s="46"/>
+      <c r="AZ68" s="46"/>
+    </row>
+    <row r="69" spans="1:52" ht="12" customHeight="1">
+      <c r="A69" s="70">
+        <v>6</v>
+      </c>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
+      <c r="AD69" s="34"/>
+      <c r="AE69" s="34"/>
+      <c r="AF69" s="34"/>
+      <c r="AG69" s="34"/>
+      <c r="AH69" s="34"/>
+      <c r="AI69" s="34"/>
+      <c r="AJ69" s="34"/>
+      <c r="AK69" s="34"/>
+      <c r="AL69" s="34"/>
+      <c r="AM69" s="34"/>
+      <c r="AN69" s="34"/>
+      <c r="AO69" s="34"/>
+      <c r="AP69" s="34"/>
+      <c r="AQ69" s="11"/>
+      <c r="AR69" s="11"/>
+      <c r="AS69" s="11"/>
+      <c r="AT69" s="11"/>
+      <c r="AU69" s="11"/>
+      <c r="AV69" s="11"/>
+      <c r="AW69" s="11"/>
+      <c r="AX69" s="11"/>
+      <c r="AY69" s="11"/>
+      <c r="AZ69" s="11"/>
+    </row>
+    <row r="70" spans="1:52" ht="12" customHeight="1">
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="47"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="48"/>
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="48"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
+      <c r="AM70" s="48"/>
+      <c r="AN70" s="48"/>
+      <c r="AO70" s="48"/>
+      <c r="AP70" s="48"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="12"/>
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+    </row>
+    <row r="71" spans="1:52" ht="12" customHeight="1">
+      <c r="A71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="20"/>
+      <c r="AI71" s="20"/>
+      <c r="AJ71" s="20"/>
+      <c r="AK71" s="20"/>
+      <c r="AL71" s="20"/>
+      <c r="AM71" s="20"/>
+      <c r="AN71" s="20"/>
+      <c r="AO71" s="20"/>
+      <c r="AP71" s="20"/>
+      <c r="AQ71" s="20"/>
+      <c r="AR71" s="20"/>
+      <c r="AS71" s="20"/>
+      <c r="AT71" s="20"/>
+      <c r="AU71" s="20"/>
+      <c r="AV71" s="20"/>
+      <c r="AW71" s="20"/>
+      <c r="AX71" s="20"/>
+      <c r="AY71" s="20"/>
+      <c r="AZ71" s="20"/>
+    </row>
+    <row r="72" spans="1:52" ht="12" customHeight="1">
+      <c r="A72" s="70">
+        <v>1</v>
+      </c>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="26"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="27"/>
+      <c r="AR72" s="27"/>
+      <c r="AS72" s="27"/>
+      <c r="AT72" s="27"/>
+      <c r="AU72" s="27"/>
+      <c r="AV72" s="27"/>
+      <c r="AW72" s="27"/>
+      <c r="AX72" s="27"/>
+      <c r="AY72" s="27"/>
+      <c r="AZ72" s="27"/>
+    </row>
+    <row r="73" spans="1:52" ht="12" customHeight="1">
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="30"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+      <c r="AB73" s="30"/>
+      <c r="AC73" s="30"/>
+      <c r="AD73" s="30"/>
+      <c r="AE73" s="30"/>
+      <c r="AF73" s="30"/>
+      <c r="AG73" s="30"/>
+      <c r="AH73" s="30"/>
+      <c r="AI73" s="30"/>
+      <c r="AJ73" s="30"/>
+      <c r="AK73" s="30"/>
+      <c r="AL73" s="30"/>
+      <c r="AM73" s="30"/>
+      <c r="AN73" s="30"/>
+      <c r="AO73" s="30"/>
+      <c r="AP73" s="30"/>
+      <c r="AQ73" s="32"/>
+      <c r="AR73" s="32"/>
+      <c r="AS73" s="32"/>
+      <c r="AT73" s="32"/>
+      <c r="AU73" s="32"/>
+      <c r="AV73" s="32"/>
+      <c r="AW73" s="32"/>
+      <c r="AX73" s="32"/>
+      <c r="AY73" s="32"/>
+      <c r="AZ73" s="32"/>
+    </row>
+    <row r="74" spans="1:52" ht="12" customHeight="1">
+      <c r="A74" s="70">
         <v>2</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="33" t="s">
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="53"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="53"/>
-      <c r="AJ49" s="53"/>
-      <c r="AK49" s="34"/>
-      <c r="AL49" s="34"/>
-      <c r="AM49" s="34"/>
-      <c r="AN49" s="34"/>
-      <c r="AO49" s="34"/>
-      <c r="AP49" s="34"/>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="11"/>
-      <c r="AS49" s="11"/>
-      <c r="AT49" s="11"/>
-      <c r="AU49" s="11"/>
-      <c r="AV49" s="11"/>
-      <c r="AW49" s="11"/>
-      <c r="AX49" s="11"/>
-      <c r="AY49" s="11"/>
-      <c r="AZ49" s="11"/>
-    </row>
-    <row r="50" spans="1:52" ht="12" customHeight="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="37" t="s">
+      <c r="G74" s="36"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="50"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="34"/>
+      <c r="AD74" s="34"/>
+      <c r="AE74" s="34"/>
+      <c r="AF74" s="34"/>
+      <c r="AG74" s="34"/>
+      <c r="AH74" s="34"/>
+      <c r="AI74" s="34"/>
+      <c r="AJ74" s="34"/>
+      <c r="AK74" s="34"/>
+      <c r="AL74" s="34"/>
+      <c r="AM74" s="34"/>
+      <c r="AN74" s="34"/>
+      <c r="AO74" s="34"/>
+      <c r="AP74" s="34"/>
+      <c r="AQ74" s="11"/>
+      <c r="AR74" s="11"/>
+      <c r="AS74" s="11"/>
+      <c r="AT74" s="11"/>
+      <c r="AU74" s="11"/>
+      <c r="AV74" s="11"/>
+      <c r="AW74" s="11"/>
+      <c r="AX74" s="11"/>
+      <c r="AY74" s="11"/>
+      <c r="AZ74" s="11"/>
+    </row>
+    <row r="75" spans="1:52" ht="12" customHeight="1">
+      <c r="A75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="39"/>
-      <c r="AQ50" s="41"/>
-      <c r="AR50" s="41"/>
-      <c r="AS50" s="41"/>
-      <c r="AT50" s="41"/>
-      <c r="AU50" s="41"/>
-      <c r="AV50" s="41"/>
-      <c r="AW50" s="41"/>
-      <c r="AX50" s="41"/>
-      <c r="AY50" s="41"/>
-      <c r="AZ50" s="41"/>
-    </row>
-    <row r="51" spans="1:52" ht="12" customHeight="1">
-      <c r="A51" s="80">
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="39"/>
+      <c r="AB75" s="39"/>
+      <c r="AC75" s="39"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="39"/>
+      <c r="AG75" s="39"/>
+      <c r="AH75" s="39"/>
+      <c r="AI75" s="39"/>
+      <c r="AJ75" s="39"/>
+      <c r="AK75" s="39"/>
+      <c r="AL75" s="39"/>
+      <c r="AM75" s="39"/>
+      <c r="AN75" s="39"/>
+      <c r="AO75" s="39"/>
+      <c r="AP75" s="39"/>
+      <c r="AQ75" s="41"/>
+      <c r="AR75" s="41"/>
+      <c r="AS75" s="41"/>
+      <c r="AT75" s="41"/>
+      <c r="AU75" s="41"/>
+      <c r="AV75" s="41"/>
+      <c r="AW75" s="41"/>
+      <c r="AX75" s="41"/>
+      <c r="AY75" s="41"/>
+      <c r="AZ75" s="41"/>
+    </row>
+    <row r="76" spans="1:52" ht="12" customHeight="1">
+      <c r="A76" s="70">
         <v>3</v>
       </c>
-      <c r="B51" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="21" t="s">
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="60"/>
-      <c r="AM51" s="24"/>
-      <c r="AN51" s="24"/>
-      <c r="AO51" s="24"/>
-      <c r="AP51" s="24"/>
-      <c r="AQ51" s="27"/>
-      <c r="AR51" s="27"/>
-      <c r="AS51" s="27"/>
-      <c r="AT51" s="27"/>
-      <c r="AU51" s="27"/>
-      <c r="AV51" s="27"/>
-      <c r="AW51" s="27"/>
-      <c r="AX51" s="27"/>
-      <c r="AY51" s="27"/>
-      <c r="AZ51" s="27"/>
-    </row>
-    <row r="52" spans="1:52" ht="12" customHeight="1">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="42" t="s">
+      <c r="G76" s="26"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="24"/>
+      <c r="V76" s="24"/>
+      <c r="W76" s="24"/>
+      <c r="X76" s="24"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="24"/>
+      <c r="AD76" s="24"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="24"/>
+      <c r="AI76" s="24"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="24"/>
+      <c r="AM76" s="24"/>
+      <c r="AN76" s="24"/>
+      <c r="AO76" s="24"/>
+      <c r="AP76" s="24"/>
+      <c r="AQ76" s="27"/>
+      <c r="AR76" s="27"/>
+      <c r="AS76" s="27"/>
+      <c r="AT76" s="27"/>
+      <c r="AU76" s="27"/>
+      <c r="AV76" s="27"/>
+      <c r="AW76" s="27"/>
+      <c r="AX76" s="27"/>
+      <c r="AY76" s="27"/>
+      <c r="AZ76" s="27"/>
+    </row>
+    <row r="77" spans="1:52" ht="12" customHeight="1">
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="44"/>
-      <c r="AD52" s="44"/>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="44"/>
-      <c r="AG52" s="44"/>
-      <c r="AH52" s="44"/>
-      <c r="AI52" s="44"/>
-      <c r="AJ52" s="44"/>
-      <c r="AK52" s="44"/>
-      <c r="AL52" s="44"/>
-      <c r="AM52" s="44"/>
-      <c r="AN52" s="44"/>
-      <c r="AO52" s="44"/>
-      <c r="AP52" s="44"/>
-      <c r="AQ52" s="32"/>
-      <c r="AR52" s="32"/>
-      <c r="AS52" s="32"/>
-      <c r="AT52" s="32"/>
-      <c r="AU52" s="32"/>
-      <c r="AV52" s="32"/>
-      <c r="AW52" s="32"/>
-      <c r="AX52" s="32"/>
-      <c r="AY52" s="32"/>
-      <c r="AZ52" s="32"/>
-    </row>
-    <row r="53" spans="1:52" ht="12" customHeight="1">
-      <c r="A53" s="80">
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="44"/>
+      <c r="AC77" s="44"/>
+      <c r="AD77" s="44"/>
+      <c r="AE77" s="44"/>
+      <c r="AF77" s="44"/>
+      <c r="AG77" s="44"/>
+      <c r="AH77" s="44"/>
+      <c r="AI77" s="44"/>
+      <c r="AJ77" s="44"/>
+      <c r="AK77" s="44"/>
+      <c r="AL77" s="44"/>
+      <c r="AM77" s="44"/>
+      <c r="AN77" s="44"/>
+      <c r="AO77" s="44"/>
+      <c r="AP77" s="44"/>
+      <c r="AQ77" s="32"/>
+      <c r="AR77" s="32"/>
+      <c r="AS77" s="32"/>
+      <c r="AT77" s="32"/>
+      <c r="AU77" s="32"/>
+      <c r="AV77" s="32"/>
+      <c r="AW77" s="32"/>
+      <c r="AX77" s="32"/>
+      <c r="AY77" s="32"/>
+      <c r="AZ77" s="32"/>
+    </row>
+    <row r="78" spans="1:52" ht="12" customHeight="1">
+      <c r="A78" s="70">
         <v>4</v>
       </c>
-      <c r="B53" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="33" t="s">
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="34"/>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="53"/>
-      <c r="AM53" s="53"/>
-      <c r="AN53" s="53"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="34"/>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="11"/>
-      <c r="AS53" s="11"/>
-      <c r="AT53" s="11"/>
-      <c r="AU53" s="11"/>
-      <c r="AV53" s="11"/>
-      <c r="AW53" s="11"/>
-      <c r="AX53" s="11"/>
-      <c r="AY53" s="11"/>
-      <c r="AZ53" s="11"/>
-    </row>
-    <row r="54" spans="1:52" ht="12" customHeight="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="37" t="s">
+      <c r="G78" s="36"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="34"/>
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="34"/>
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="34"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="34"/>
+      <c r="AM78" s="34"/>
+      <c r="AN78" s="34"/>
+      <c r="AO78" s="34"/>
+      <c r="AP78" s="34"/>
+      <c r="AQ78" s="11"/>
+      <c r="AR78" s="11"/>
+      <c r="AS78" s="11"/>
+      <c r="AT78" s="11"/>
+      <c r="AU78" s="11"/>
+      <c r="AV78" s="11"/>
+      <c r="AW78" s="11"/>
+      <c r="AX78" s="11"/>
+      <c r="AY78" s="11"/>
+      <c r="AZ78" s="11"/>
+    </row>
+    <row r="79" spans="1:52" ht="12" customHeight="1">
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="57"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
-      <c r="AP54" s="39"/>
-      <c r="AQ54" s="41"/>
-      <c r="AR54" s="41"/>
-      <c r="AS54" s="41"/>
-      <c r="AT54" s="41"/>
-      <c r="AU54" s="41"/>
-      <c r="AV54" s="41"/>
-      <c r="AW54" s="41"/>
-      <c r="AX54" s="41"/>
-      <c r="AY54" s="41"/>
-      <c r="AZ54" s="41"/>
-    </row>
-    <row r="55" spans="1:52" ht="12" customHeight="1">
-      <c r="A55" s="80">
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+      <c r="AA79" s="39"/>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AH79" s="39"/>
+      <c r="AI79" s="39"/>
+      <c r="AJ79" s="39"/>
+      <c r="AK79" s="39"/>
+      <c r="AL79" s="39"/>
+      <c r="AM79" s="39"/>
+      <c r="AN79" s="39"/>
+      <c r="AO79" s="39"/>
+      <c r="AP79" s="39"/>
+      <c r="AQ79" s="41"/>
+      <c r="AR79" s="41"/>
+      <c r="AS79" s="41"/>
+      <c r="AT79" s="41"/>
+      <c r="AU79" s="41"/>
+      <c r="AV79" s="41"/>
+      <c r="AW79" s="41"/>
+      <c r="AX79" s="41"/>
+      <c r="AY79" s="41"/>
+      <c r="AZ79" s="41"/>
+    </row>
+    <row r="80" spans="1:52" ht="12" customHeight="1">
+      <c r="A80" s="70">
         <v>5</v>
       </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="21" t="s">
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-      <c r="AA55" s="24"/>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="24"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="24"/>
-      <c r="AH55" s="24"/>
-      <c r="AI55" s="24"/>
-      <c r="AJ55" s="24"/>
-      <c r="AK55" s="24"/>
-      <c r="AL55" s="24"/>
-      <c r="AM55" s="24"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="24"/>
-      <c r="AP55" s="24"/>
-      <c r="AQ55" s="27"/>
-      <c r="AR55" s="27"/>
-      <c r="AS55" s="27"/>
-      <c r="AT55" s="27"/>
-      <c r="AU55" s="27"/>
-      <c r="AV55" s="27"/>
-      <c r="AW55" s="27"/>
-      <c r="AX55" s="27"/>
-      <c r="AY55" s="27"/>
-      <c r="AZ55" s="27"/>
-    </row>
-    <row r="56" spans="1:52" ht="12" customHeight="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="42" t="s">
+      <c r="G80" s="26"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="24"/>
+      <c r="V80" s="24"/>
+      <c r="W80" s="24"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="24"/>
+      <c r="AA80" s="24"/>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="23"/>
+      <c r="AE80" s="23"/>
+      <c r="AF80" s="23"/>
+      <c r="AG80" s="23"/>
+      <c r="AH80" s="23"/>
+      <c r="AI80" s="23"/>
+      <c r="AJ80" s="23"/>
+      <c r="AK80" s="23"/>
+      <c r="AL80" s="23"/>
+      <c r="AM80" s="23"/>
+      <c r="AN80" s="23"/>
+      <c r="AO80" s="23"/>
+      <c r="AP80" s="23"/>
+      <c r="AQ80" s="27"/>
+      <c r="AR80" s="27"/>
+      <c r="AS80" s="27"/>
+      <c r="AT80" s="27"/>
+      <c r="AU80" s="27"/>
+      <c r="AV80" s="27"/>
+      <c r="AW80" s="27"/>
+      <c r="AX80" s="27"/>
+      <c r="AY80" s="27"/>
+      <c r="AZ80" s="27"/>
+    </row>
+    <row r="81" spans="1:52" ht="12" customHeight="1">
+      <c r="A81" s="71"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
-      <c r="AG56" s="30"/>
-      <c r="AH56" s="30"/>
-      <c r="AI56" s="30"/>
-      <c r="AJ56" s="30"/>
-      <c r="AK56" s="30"/>
-      <c r="AL56" s="30"/>
-      <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-      <c r="AO56" s="30"/>
-      <c r="AP56" s="30"/>
-      <c r="AQ56" s="46"/>
-      <c r="AR56" s="46"/>
-      <c r="AS56" s="46"/>
-      <c r="AT56" s="46"/>
-      <c r="AU56" s="46"/>
-      <c r="AV56" s="46"/>
-      <c r="AW56" s="46"/>
-      <c r="AX56" s="46"/>
-      <c r="AY56" s="46"/>
-      <c r="AZ56" s="46"/>
-    </row>
-    <row r="57" spans="1:52" ht="12" customHeight="1">
-      <c r="A57" s="80">
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
+      <c r="AE81" s="30"/>
+      <c r="AF81" s="30"/>
+      <c r="AG81" s="30"/>
+      <c r="AH81" s="30"/>
+      <c r="AI81" s="30"/>
+      <c r="AJ81" s="30"/>
+      <c r="AK81" s="30"/>
+      <c r="AL81" s="30"/>
+      <c r="AM81" s="30"/>
+      <c r="AN81" s="30"/>
+      <c r="AO81" s="30"/>
+      <c r="AP81" s="30"/>
+      <c r="AQ81" s="46"/>
+      <c r="AR81" s="46"/>
+      <c r="AS81" s="46"/>
+      <c r="AT81" s="46"/>
+      <c r="AU81" s="46"/>
+      <c r="AV81" s="46"/>
+      <c r="AW81" s="46"/>
+      <c r="AX81" s="46"/>
+      <c r="AY81" s="46"/>
+      <c r="AZ81" s="46"/>
+    </row>
+    <row r="82" spans="1:52" ht="12" customHeight="1">
+      <c r="A82" s="70">
         <v>6</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="33" t="s">
+      <c r="B82" s="72"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="34"/>
-      <c r="AC57" s="34"/>
-      <c r="AD57" s="34"/>
-      <c r="AE57" s="34"/>
-      <c r="AF57" s="34"/>
-      <c r="AG57" s="34"/>
-      <c r="AH57" s="34"/>
-      <c r="AI57" s="34"/>
-      <c r="AJ57" s="34"/>
-      <c r="AK57" s="34"/>
-      <c r="AL57" s="34"/>
-      <c r="AM57" s="34"/>
-      <c r="AN57" s="34"/>
-      <c r="AO57" s="34"/>
-      <c r="AP57" s="34"/>
-      <c r="AQ57" s="11"/>
-      <c r="AR57" s="11"/>
-      <c r="AS57" s="11"/>
-      <c r="AT57" s="11"/>
-      <c r="AU57" s="11"/>
-      <c r="AV57" s="11"/>
-      <c r="AW57" s="11"/>
-      <c r="AX57" s="11"/>
-      <c r="AY57" s="11"/>
-      <c r="AZ57" s="11"/>
-    </row>
-    <row r="58" spans="1:52" ht="12" customHeight="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="37" t="s">
+      <c r="G82" s="36"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="34"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="34"/>
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="34"/>
+      <c r="AG82" s="34"/>
+      <c r="AH82" s="34"/>
+      <c r="AI82" s="34"/>
+      <c r="AJ82" s="34"/>
+      <c r="AK82" s="34"/>
+      <c r="AL82" s="34"/>
+      <c r="AM82" s="34"/>
+      <c r="AN82" s="34"/>
+      <c r="AO82" s="34"/>
+      <c r="AP82" s="34"/>
+      <c r="AQ82" s="11"/>
+      <c r="AR82" s="11"/>
+      <c r="AS82" s="11"/>
+      <c r="AT82" s="11"/>
+      <c r="AU82" s="11"/>
+      <c r="AV82" s="11"/>
+      <c r="AW82" s="11"/>
+      <c r="AX82" s="11"/>
+      <c r="AY82" s="11"/>
+      <c r="AZ82" s="11"/>
+    </row>
+    <row r="83" spans="1:52" ht="12" customHeight="1">
+      <c r="A83" s="71"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="48"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="48"/>
-      <c r="X58" s="48"/>
-      <c r="Y58" s="48"/>
-      <c r="Z58" s="48"/>
-      <c r="AA58" s="48"/>
-      <c r="AB58" s="48"/>
-      <c r="AC58" s="48"/>
-      <c r="AD58" s="48"/>
-      <c r="AE58" s="48"/>
-      <c r="AF58" s="48"/>
-      <c r="AG58" s="48"/>
-      <c r="AH58" s="48"/>
-      <c r="AI58" s="48"/>
-      <c r="AJ58" s="48"/>
-      <c r="AK58" s="48"/>
-      <c r="AL58" s="48"/>
-      <c r="AM58" s="48"/>
-      <c r="AN58" s="48"/>
-      <c r="AO58" s="48"/>
-      <c r="AP58" s="48"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="12"/>
-      <c r="AT58" s="12"/>
-      <c r="AU58" s="12"/>
-      <c r="AV58" s="12"/>
-      <c r="AW58" s="12"/>
-      <c r="AX58" s="12"/>
-      <c r="AY58" s="12"/>
-      <c r="AZ58" s="12"/>
-    </row>
-    <row r="59" spans="1:52" ht="12" customHeight="1">
-      <c r="A59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
-      <c r="AC59" s="16"/>
-      <c r="AD59" s="16"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="20"/>
-      <c r="AH59" s="20"/>
-      <c r="AI59" s="20"/>
-      <c r="AJ59" s="20"/>
-      <c r="AK59" s="20"/>
-      <c r="AL59" s="20"/>
-      <c r="AM59" s="20"/>
-      <c r="AN59" s="20"/>
-      <c r="AO59" s="20"/>
-      <c r="AP59" s="20"/>
-      <c r="AQ59" s="20"/>
-      <c r="AR59" s="20"/>
-      <c r="AS59" s="20"/>
-      <c r="AT59" s="20"/>
-      <c r="AU59" s="20"/>
-      <c r="AV59" s="20"/>
-      <c r="AW59" s="20"/>
-      <c r="AX59" s="20"/>
-      <c r="AY59" s="20"/>
-      <c r="AZ59" s="20"/>
-    </row>
-    <row r="60" spans="1:52" ht="12" customHeight="1">
-      <c r="A60" s="80">
+      <c r="G83" s="47"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="48"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="48"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="48"/>
+      <c r="W83" s="48"/>
+      <c r="X83" s="48"/>
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="48"/>
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="48"/>
+      <c r="AD83" s="48"/>
+      <c r="AE83" s="48"/>
+      <c r="AF83" s="48"/>
+      <c r="AG83" s="48"/>
+      <c r="AH83" s="48"/>
+      <c r="AI83" s="48"/>
+      <c r="AJ83" s="48"/>
+      <c r="AK83" s="48"/>
+      <c r="AL83" s="48"/>
+      <c r="AM83" s="48"/>
+      <c r="AN83" s="48"/>
+      <c r="AO83" s="48"/>
+      <c r="AP83" s="48"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+      <c r="AS83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="12"/>
+      <c r="AW83" s="12"/>
+      <c r="AX83" s="12"/>
+      <c r="AY83" s="12"/>
+      <c r="AZ83" s="12"/>
+    </row>
+    <row r="84" spans="1:52" ht="12" customHeight="1">
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="16"/>
+      <c r="AC84" s="16"/>
+      <c r="AD84" s="16"/>
+      <c r="AE84" s="16"/>
+      <c r="AF84" s="16"/>
+      <c r="AG84" s="16"/>
+      <c r="AH84" s="16"/>
+      <c r="AI84" s="16"/>
+      <c r="AJ84" s="16"/>
+      <c r="AK84" s="16"/>
+      <c r="AL84" s="16"/>
+      <c r="AM84" s="16"/>
+      <c r="AN84" s="16"/>
+      <c r="AO84" s="16"/>
+      <c r="AP84" s="16"/>
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+      <c r="AT84" s="20"/>
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="20"/>
+      <c r="AW84" s="20"/>
+      <c r="AX84" s="20"/>
+      <c r="AY84" s="20"/>
+      <c r="AZ84" s="20"/>
+    </row>
+    <row r="85" spans="1:52" ht="12" customHeight="1">
+      <c r="A85" s="70">
         <v>1</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="21" t="s">
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="24"/>
-      <c r="AE60" s="24"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="24"/>
-      <c r="AJ60" s="24"/>
-      <c r="AK60" s="24"/>
-      <c r="AL60" s="24"/>
-      <c r="AM60" s="24"/>
-      <c r="AN60" s="24"/>
-      <c r="AO60" s="24"/>
-      <c r="AP60" s="24"/>
-      <c r="AQ60" s="27"/>
-      <c r="AR60" s="27"/>
-      <c r="AS60" s="27"/>
-      <c r="AT60" s="27"/>
-      <c r="AU60" s="27"/>
-      <c r="AV60" s="27"/>
-      <c r="AW60" s="27"/>
-      <c r="AX60" s="27"/>
-      <c r="AY60" s="27"/>
-      <c r="AZ60" s="27"/>
-    </row>
-    <row r="61" spans="1:52" ht="12" customHeight="1">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="28" t="s">
+      <c r="G85" s="26"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="24"/>
+      <c r="U85" s="24"/>
+      <c r="V85" s="24"/>
+      <c r="W85" s="24"/>
+      <c r="X85" s="24"/>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="24"/>
+      <c r="AA85" s="24"/>
+      <c r="AB85" s="24"/>
+      <c r="AC85" s="24"/>
+      <c r="AD85" s="24"/>
+      <c r="AE85" s="24"/>
+      <c r="AF85" s="24"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="24"/>
+      <c r="AI85" s="24"/>
+      <c r="AJ85" s="24"/>
+      <c r="AK85" s="24"/>
+      <c r="AL85" s="24"/>
+      <c r="AM85" s="24"/>
+      <c r="AN85" s="24"/>
+      <c r="AO85" s="24"/>
+      <c r="AP85" s="24"/>
+      <c r="AQ85" s="27"/>
+      <c r="AR85" s="27"/>
+      <c r="AS85" s="27"/>
+      <c r="AT85" s="27"/>
+      <c r="AU85" s="27"/>
+      <c r="AV85" s="27"/>
+      <c r="AW85" s="27"/>
+      <c r="AX85" s="27"/>
+      <c r="AY85" s="27"/>
+      <c r="AZ85" s="27"/>
+    </row>
+    <row r="86" spans="1:52" ht="12" customHeight="1">
+      <c r="A86" s="71"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="30"/>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
-      <c r="AE61" s="30"/>
-      <c r="AF61" s="30"/>
-      <c r="AG61" s="30"/>
-      <c r="AH61" s="30"/>
-      <c r="AI61" s="30"/>
-      <c r="AJ61" s="30"/>
-      <c r="AK61" s="30"/>
-      <c r="AL61" s="30"/>
-      <c r="AM61" s="30"/>
-      <c r="AN61" s="30"/>
-      <c r="AO61" s="30"/>
-      <c r="AP61" s="30"/>
-      <c r="AQ61" s="32"/>
-      <c r="AR61" s="32"/>
-      <c r="AS61" s="32"/>
-      <c r="AT61" s="32"/>
-      <c r="AU61" s="32"/>
-      <c r="AV61" s="32"/>
-      <c r="AW61" s="32"/>
-      <c r="AX61" s="32"/>
-      <c r="AY61" s="32"/>
-      <c r="AZ61" s="32"/>
-    </row>
-    <row r="62" spans="1:52" ht="12" customHeight="1">
-      <c r="A62" s="80">
+      <c r="G86" s="29"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
+      <c r="AE86" s="30"/>
+      <c r="AF86" s="30"/>
+      <c r="AG86" s="30"/>
+      <c r="AH86" s="30"/>
+      <c r="AI86" s="30"/>
+      <c r="AJ86" s="30"/>
+      <c r="AK86" s="30"/>
+      <c r="AL86" s="30"/>
+      <c r="AM86" s="30"/>
+      <c r="AN86" s="30"/>
+      <c r="AO86" s="30"/>
+      <c r="AP86" s="30"/>
+      <c r="AQ86" s="32"/>
+      <c r="AR86" s="32"/>
+      <c r="AS86" s="32"/>
+      <c r="AT86" s="32"/>
+      <c r="AU86" s="32"/>
+      <c r="AV86" s="32"/>
+      <c r="AW86" s="32"/>
+      <c r="AX86" s="32"/>
+      <c r="AY86" s="32"/>
+      <c r="AZ86" s="32"/>
+    </row>
+    <row r="87" spans="1:52" ht="12" customHeight="1">
+      <c r="A87" s="70">
         <v>2</v>
       </c>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="33" t="s">
+      <c r="B87" s="72"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="50"/>
-      <c r="AB62" s="50"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="34"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="34"/>
-      <c r="AK62" s="34"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="34"/>
-      <c r="AN62" s="34"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="11"/>
-      <c r="AR62" s="11"/>
-      <c r="AS62" s="11"/>
-      <c r="AT62" s="11"/>
-      <c r="AU62" s="11"/>
-      <c r="AV62" s="11"/>
-      <c r="AW62" s="11"/>
-      <c r="AX62" s="11"/>
-      <c r="AY62" s="11"/>
-      <c r="AZ62" s="11"/>
-    </row>
-    <row r="63" spans="1:52" ht="12" customHeight="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="37" t="s">
+      <c r="G87" s="36"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="34"/>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
+      <c r="AB87" s="34"/>
+      <c r="AC87" s="34"/>
+      <c r="AD87" s="34"/>
+      <c r="AE87" s="34"/>
+      <c r="AF87" s="34"/>
+      <c r="AG87" s="34"/>
+      <c r="AH87" s="34"/>
+      <c r="AI87" s="34"/>
+      <c r="AJ87" s="34"/>
+      <c r="AK87" s="34"/>
+      <c r="AL87" s="34"/>
+      <c r="AM87" s="34"/>
+      <c r="AN87" s="34"/>
+      <c r="AO87" s="34"/>
+      <c r="AP87" s="34"/>
+      <c r="AQ87" s="11"/>
+      <c r="AR87" s="11"/>
+      <c r="AS87" s="11"/>
+      <c r="AT87" s="11"/>
+      <c r="AU87" s="11"/>
+      <c r="AV87" s="11"/>
+      <c r="AW87" s="11"/>
+      <c r="AX87" s="11"/>
+      <c r="AY87" s="11"/>
+      <c r="AZ87" s="11"/>
+    </row>
+    <row r="88" spans="1:52" ht="12" customHeight="1">
+      <c r="A88" s="71"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="39"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
-      <c r="AP63" s="39"/>
-      <c r="AQ63" s="41"/>
-      <c r="AR63" s="41"/>
-      <c r="AS63" s="41"/>
-      <c r="AT63" s="41"/>
-      <c r="AU63" s="41"/>
-      <c r="AV63" s="41"/>
-      <c r="AW63" s="41"/>
-      <c r="AX63" s="41"/>
-      <c r="AY63" s="41"/>
-      <c r="AZ63" s="41"/>
-    </row>
-    <row r="64" spans="1:52" ht="12" customHeight="1">
-      <c r="A64" s="80">
+      <c r="G88" s="38"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="39"/>
+      <c r="AA88" s="39"/>
+      <c r="AB88" s="39"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="39"/>
+      <c r="AE88" s="39"/>
+      <c r="AF88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="39"/>
+      <c r="AJ88" s="39"/>
+      <c r="AK88" s="39"/>
+      <c r="AL88" s="39"/>
+      <c r="AM88" s="39"/>
+      <c r="AN88" s="39"/>
+      <c r="AO88" s="39"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="41"/>
+      <c r="AR88" s="41"/>
+      <c r="AS88" s="41"/>
+      <c r="AT88" s="41"/>
+      <c r="AU88" s="41"/>
+      <c r="AV88" s="41"/>
+      <c r="AW88" s="41"/>
+      <c r="AX88" s="41"/>
+      <c r="AY88" s="41"/>
+      <c r="AZ88" s="41"/>
+    </row>
+    <row r="89" spans="1:52" ht="12" customHeight="1">
+      <c r="A89" s="70">
         <v>3</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="21" t="s">
+      <c r="B89" s="72"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="24"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="24"/>
-      <c r="AL64" s="24"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="24"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="24"/>
-      <c r="AQ64" s="27"/>
-      <c r="AR64" s="27"/>
-      <c r="AS64" s="27"/>
-      <c r="AT64" s="27"/>
-      <c r="AU64" s="27"/>
-      <c r="AV64" s="27"/>
-      <c r="AW64" s="27"/>
-      <c r="AX64" s="27"/>
-      <c r="AY64" s="27"/>
-      <c r="AZ64" s="27"/>
-    </row>
-    <row r="65" spans="1:52" ht="12" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="42" t="s">
+      <c r="G89" s="26"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="24"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="24"/>
+      <c r="AI89" s="24"/>
+      <c r="AJ89" s="24"/>
+      <c r="AK89" s="24"/>
+      <c r="AL89" s="24"/>
+      <c r="AM89" s="24"/>
+      <c r="AN89" s="24"/>
+      <c r="AO89" s="24"/>
+      <c r="AP89" s="24"/>
+      <c r="AQ89" s="27"/>
+      <c r="AR89" s="27"/>
+      <c r="AS89" s="27"/>
+      <c r="AT89" s="27"/>
+      <c r="AU89" s="27"/>
+      <c r="AV89" s="27"/>
+      <c r="AW89" s="27"/>
+      <c r="AX89" s="27"/>
+      <c r="AY89" s="27"/>
+      <c r="AZ89" s="27"/>
+    </row>
+    <row r="90" spans="1:52" ht="12" customHeight="1">
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="45"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="44"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="44"/>
-      <c r="AC65" s="44"/>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="44"/>
-      <c r="AH65" s="44"/>
-      <c r="AI65" s="44"/>
-      <c r="AJ65" s="44"/>
-      <c r="AK65" s="44"/>
-      <c r="AL65" s="44"/>
-      <c r="AM65" s="44"/>
-      <c r="AN65" s="44"/>
-      <c r="AO65" s="44"/>
-      <c r="AP65" s="44"/>
-      <c r="AQ65" s="32"/>
-      <c r="AR65" s="32"/>
-      <c r="AS65" s="32"/>
-      <c r="AT65" s="32"/>
-      <c r="AU65" s="32"/>
-      <c r="AV65" s="32"/>
-      <c r="AW65" s="32"/>
-      <c r="AX65" s="32"/>
-      <c r="AY65" s="32"/>
-      <c r="AZ65" s="32"/>
-    </row>
-    <row r="66" spans="1:52" ht="12" customHeight="1">
-      <c r="A66" s="80">
+      <c r="G90" s="43"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="44"/>
+      <c r="Z90" s="44"/>
+      <c r="AA90" s="44"/>
+      <c r="AB90" s="44"/>
+      <c r="AC90" s="44"/>
+      <c r="AD90" s="44"/>
+      <c r="AE90" s="44"/>
+      <c r="AF90" s="44"/>
+      <c r="AG90" s="44"/>
+      <c r="AH90" s="44"/>
+      <c r="AI90" s="44"/>
+      <c r="AJ90" s="44"/>
+      <c r="AK90" s="44"/>
+      <c r="AL90" s="44"/>
+      <c r="AM90" s="44"/>
+      <c r="AN90" s="44"/>
+      <c r="AO90" s="44"/>
+      <c r="AP90" s="44"/>
+      <c r="AQ90" s="32"/>
+      <c r="AR90" s="32"/>
+      <c r="AS90" s="32"/>
+      <c r="AT90" s="32"/>
+      <c r="AU90" s="32"/>
+      <c r="AV90" s="32"/>
+      <c r="AW90" s="32"/>
+      <c r="AX90" s="32"/>
+      <c r="AY90" s="32"/>
+      <c r="AZ90" s="32"/>
+    </row>
+    <row r="91" spans="1:52" ht="12" customHeight="1">
+      <c r="A91" s="70">
         <v>4</v>
       </c>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="33" t="s">
+      <c r="B91" s="72"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="36"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="34"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="34"/>
-      <c r="AQ66" s="11"/>
-      <c r="AR66" s="11"/>
-      <c r="AS66" s="11"/>
-      <c r="AT66" s="11"/>
-      <c r="AU66" s="11"/>
-      <c r="AV66" s="11"/>
-      <c r="AW66" s="11"/>
-      <c r="AX66" s="11"/>
-      <c r="AY66" s="11"/>
-      <c r="AZ66" s="11"/>
-    </row>
-    <row r="67" spans="1:52" ht="12" customHeight="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="37" t="s">
+      <c r="G91" s="36"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="34"/>
+      <c r="U91" s="34"/>
+      <c r="V91" s="34"/>
+      <c r="W91" s="34"/>
+      <c r="X91" s="34"/>
+      <c r="Y91" s="34"/>
+      <c r="Z91" s="34"/>
+      <c r="AA91" s="34"/>
+      <c r="AB91" s="34"/>
+      <c r="AC91" s="34"/>
+      <c r="AD91" s="34"/>
+      <c r="AE91" s="34"/>
+      <c r="AF91" s="34"/>
+      <c r="AG91" s="34"/>
+      <c r="AH91" s="34"/>
+      <c r="AI91" s="34"/>
+      <c r="AJ91" s="34"/>
+      <c r="AK91" s="34"/>
+      <c r="AL91" s="34"/>
+      <c r="AM91" s="34"/>
+      <c r="AN91" s="34"/>
+      <c r="AO91" s="34"/>
+      <c r="AP91" s="34"/>
+      <c r="AQ91" s="11"/>
+      <c r="AR91" s="11"/>
+      <c r="AS91" s="11"/>
+      <c r="AT91" s="11"/>
+      <c r="AU91" s="11"/>
+      <c r="AV91" s="11"/>
+      <c r="AW91" s="11"/>
+      <c r="AX91" s="11"/>
+      <c r="AY91" s="11"/>
+      <c r="AZ91" s="11"/>
+    </row>
+    <row r="92" spans="1:52" ht="12" customHeight="1">
+      <c r="A92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="39"/>
-      <c r="AH67" s="39"/>
-      <c r="AI67" s="39"/>
-      <c r="AJ67" s="39"/>
-      <c r="AK67" s="39"/>
-      <c r="AL67" s="39"/>
-      <c r="AM67" s="39"/>
-      <c r="AN67" s="39"/>
-      <c r="AO67" s="39"/>
-      <c r="AP67" s="39"/>
-      <c r="AQ67" s="41"/>
-      <c r="AR67" s="41"/>
-      <c r="AS67" s="41"/>
-      <c r="AT67" s="41"/>
-      <c r="AU67" s="41"/>
-      <c r="AV67" s="41"/>
-      <c r="AW67" s="41"/>
-      <c r="AX67" s="41"/>
-      <c r="AY67" s="41"/>
-      <c r="AZ67" s="41"/>
-    </row>
-    <row r="68" spans="1:52" ht="12" customHeight="1">
-      <c r="A68" s="80">
-        <v>5</v>
-      </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="26"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="24"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="24"/>
-      <c r="AA68" s="24"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="23"/>
-      <c r="AD68" s="23"/>
-      <c r="AE68" s="23"/>
-      <c r="AF68" s="23"/>
-      <c r="AG68" s="23"/>
-      <c r="AH68" s="23"/>
-      <c r="AI68" s="23"/>
-      <c r="AJ68" s="23"/>
-      <c r="AK68" s="23"/>
-      <c r="AL68" s="23"/>
-      <c r="AM68" s="23"/>
-      <c r="AN68" s="23"/>
-      <c r="AO68" s="23"/>
-      <c r="AP68" s="23"/>
-      <c r="AQ68" s="27"/>
-      <c r="AR68" s="27"/>
-      <c r="AS68" s="27"/>
-      <c r="AT68" s="27"/>
-      <c r="AU68" s="27"/>
-      <c r="AV68" s="27"/>
-      <c r="AW68" s="27"/>
-      <c r="AX68" s="27"/>
-      <c r="AY68" s="27"/>
-      <c r="AZ68" s="27"/>
-    </row>
-    <row r="69" spans="1:52" ht="12" customHeight="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="30"/>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-      <c r="AG69" s="30"/>
-      <c r="AH69" s="30"/>
-      <c r="AI69" s="30"/>
-      <c r="AJ69" s="30"/>
-      <c r="AK69" s="30"/>
-      <c r="AL69" s="30"/>
-      <c r="AM69" s="30"/>
-      <c r="AN69" s="30"/>
-      <c r="AO69" s="30"/>
-      <c r="AP69" s="30"/>
-      <c r="AQ69" s="46"/>
-      <c r="AR69" s="46"/>
-      <c r="AS69" s="46"/>
-      <c r="AT69" s="46"/>
-      <c r="AU69" s="46"/>
-      <c r="AV69" s="46"/>
-      <c r="AW69" s="46"/>
-      <c r="AX69" s="46"/>
-      <c r="AY69" s="46"/>
-      <c r="AZ69" s="46"/>
-    </row>
-    <row r="70" spans="1:52" ht="12" customHeight="1">
-      <c r="A70" s="80">
-        <v>6</v>
-      </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="34"/>
-      <c r="AC70" s="34"/>
-      <c r="AD70" s="34"/>
-      <c r="AE70" s="34"/>
-      <c r="AF70" s="34"/>
-      <c r="AG70" s="34"/>
-      <c r="AH70" s="34"/>
-      <c r="AI70" s="34"/>
-      <c r="AJ70" s="34"/>
-      <c r="AK70" s="34"/>
-      <c r="AL70" s="34"/>
-      <c r="AM70" s="34"/>
-      <c r="AN70" s="34"/>
-      <c r="AO70" s="34"/>
-      <c r="AP70" s="34"/>
-      <c r="AQ70" s="11"/>
-      <c r="AR70" s="11"/>
-      <c r="AS70" s="11"/>
-      <c r="AT70" s="11"/>
-      <c r="AU70" s="11"/>
-      <c r="AV70" s="11"/>
-      <c r="AW70" s="11"/>
-      <c r="AX70" s="11"/>
-      <c r="AY70" s="11"/>
-      <c r="AZ70" s="11"/>
-    </row>
-    <row r="71" spans="1:52" ht="12" customHeight="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="47"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="48"/>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48"/>
-      <c r="Y71" s="48"/>
-      <c r="Z71" s="48"/>
-      <c r="AA71" s="48"/>
-      <c r="AB71" s="48"/>
-      <c r="AC71" s="48"/>
-      <c r="AD71" s="48"/>
-      <c r="AE71" s="48"/>
-      <c r="AF71" s="48"/>
-      <c r="AG71" s="48"/>
-      <c r="AH71" s="48"/>
-      <c r="AI71" s="48"/>
-      <c r="AJ71" s="48"/>
-      <c r="AK71" s="48"/>
-      <c r="AL71" s="48"/>
-      <c r="AM71" s="48"/>
-      <c r="AN71" s="48"/>
-      <c r="AO71" s="48"/>
-      <c r="AP71" s="48"/>
-      <c r="AQ71" s="12"/>
-      <c r="AR71" s="12"/>
-      <c r="AS71" s="12"/>
-      <c r="AT71" s="12"/>
-      <c r="AU71" s="12"/>
-      <c r="AV71" s="12"/>
-      <c r="AW71" s="12"/>
-      <c r="AX71" s="12"/>
-      <c r="AY71" s="12"/>
-      <c r="AZ71" s="12"/>
-    </row>
-    <row r="72" spans="1:52" ht="12" customHeight="1">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="16"/>
-      <c r="AI72" s="16"/>
-      <c r="AJ72" s="16"/>
-      <c r="AK72" s="16"/>
-      <c r="AL72" s="16"/>
-      <c r="AM72" s="16"/>
-      <c r="AN72" s="16"/>
-      <c r="AO72" s="16"/>
-      <c r="AP72" s="16"/>
-      <c r="AQ72" s="20"/>
-      <c r="AR72" s="20"/>
-      <c r="AS72" s="20"/>
-      <c r="AT72" s="20"/>
-      <c r="AU72" s="20"/>
-      <c r="AV72" s="20"/>
-      <c r="AW72" s="20"/>
-      <c r="AX72" s="20"/>
-      <c r="AY72" s="20"/>
-      <c r="AZ72" s="20"/>
-    </row>
-    <row r="73" spans="1:52" ht="12" customHeight="1">
-      <c r="A73" s="80">
-        <v>1</v>
-      </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="24"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="24"/>
-      <c r="AK73" s="24"/>
-      <c r="AL73" s="24"/>
-      <c r="AM73" s="24"/>
-      <c r="AN73" s="24"/>
-      <c r="AO73" s="24"/>
-      <c r="AP73" s="24"/>
-      <c r="AQ73" s="27"/>
-      <c r="AR73" s="27"/>
-      <c r="AS73" s="27"/>
-      <c r="AT73" s="27"/>
-      <c r="AU73" s="27"/>
-      <c r="AV73" s="27"/>
-      <c r="AW73" s="27"/>
-      <c r="AX73" s="27"/>
-      <c r="AY73" s="27"/>
-      <c r="AZ73" s="27"/>
-    </row>
-    <row r="74" spans="1:52" ht="12" customHeight="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="30"/>
-      <c r="Y74" s="30"/>
-      <c r="Z74" s="30"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-      <c r="AC74" s="30"/>
-      <c r="AD74" s="30"/>
-      <c r="AE74" s="30"/>
-      <c r="AF74" s="30"/>
-      <c r="AG74" s="30"/>
-      <c r="AH74" s="30"/>
-      <c r="AI74" s="30"/>
-      <c r="AJ74" s="30"/>
-      <c r="AK74" s="30"/>
-      <c r="AL74" s="30"/>
-      <c r="AM74" s="30"/>
-      <c r="AN74" s="30"/>
-      <c r="AO74" s="30"/>
-      <c r="AP74" s="30"/>
-      <c r="AQ74" s="32"/>
-      <c r="AR74" s="32"/>
-      <c r="AS74" s="32"/>
-      <c r="AT74" s="32"/>
-      <c r="AU74" s="32"/>
-      <c r="AV74" s="32"/>
-      <c r="AW74" s="32"/>
-      <c r="AX74" s="32"/>
-      <c r="AY74" s="32"/>
-      <c r="AZ74" s="32"/>
-    </row>
-    <row r="75" spans="1:52" ht="12" customHeight="1">
-      <c r="A75" s="80">
-        <v>2</v>
-      </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-      <c r="AD75" s="34"/>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="34"/>
-      <c r="AG75" s="34"/>
-      <c r="AH75" s="34"/>
-      <c r="AI75" s="34"/>
-      <c r="AJ75" s="34"/>
-      <c r="AK75" s="34"/>
-      <c r="AL75" s="34"/>
-      <c r="AM75" s="34"/>
-      <c r="AN75" s="34"/>
-      <c r="AO75" s="34"/>
-      <c r="AP75" s="34"/>
-      <c r="AQ75" s="11"/>
-      <c r="AR75" s="11"/>
-      <c r="AS75" s="11"/>
-      <c r="AT75" s="11"/>
-      <c r="AU75" s="11"/>
-      <c r="AV75" s="11"/>
-      <c r="AW75" s="11"/>
-      <c r="AX75" s="11"/>
-      <c r="AY75" s="11"/>
-      <c r="AZ75" s="11"/>
-    </row>
-    <row r="76" spans="1:52" ht="12" customHeight="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
-      <c r="AA76" s="39"/>
-      <c r="AB76" s="39"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
-      <c r="AM76" s="39"/>
-      <c r="AN76" s="39"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
-      <c r="AQ76" s="41"/>
-      <c r="AR76" s="41"/>
-      <c r="AS76" s="41"/>
-      <c r="AT76" s="41"/>
-      <c r="AU76" s="41"/>
-      <c r="AV76" s="41"/>
-      <c r="AW76" s="41"/>
-      <c r="AX76" s="41"/>
-      <c r="AY76" s="41"/>
-      <c r="AZ76" s="41"/>
-    </row>
-    <row r="77" spans="1:52" ht="12" customHeight="1">
-      <c r="A77" s="80">
-        <v>3</v>
-      </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="26"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="24"/>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="24"/>
-      <c r="AB77" s="24"/>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="24"/>
-      <c r="AE77" s="24"/>
-      <c r="AF77" s="24"/>
-      <c r="AG77" s="24"/>
-      <c r="AH77" s="24"/>
-      <c r="AI77" s="24"/>
-      <c r="AJ77" s="24"/>
-      <c r="AK77" s="24"/>
-      <c r="AL77" s="24"/>
-      <c r="AM77" s="24"/>
-      <c r="AN77" s="24"/>
-      <c r="AO77" s="24"/>
-      <c r="AP77" s="24"/>
-      <c r="AQ77" s="27"/>
-      <c r="AR77" s="27"/>
-      <c r="AS77" s="27"/>
-      <c r="AT77" s="27"/>
-      <c r="AU77" s="27"/>
-      <c r="AV77" s="27"/>
-      <c r="AW77" s="27"/>
-      <c r="AX77" s="27"/>
-      <c r="AY77" s="27"/>
-      <c r="AZ77" s="27"/>
-    </row>
-    <row r="78" spans="1:52" ht="12" customHeight="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="43"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="45"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="44"/>
-      <c r="U78" s="44"/>
-      <c r="V78" s="44"/>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
-      <c r="Y78" s="44"/>
-      <c r="Z78" s="44"/>
-      <c r="AA78" s="44"/>
-      <c r="AB78" s="44"/>
-      <c r="AC78" s="44"/>
-      <c r="AD78" s="44"/>
-      <c r="AE78" s="44"/>
-      <c r="AF78" s="44"/>
-      <c r="AG78" s="44"/>
-      <c r="AH78" s="44"/>
-      <c r="AI78" s="44"/>
-      <c r="AJ78" s="44"/>
-      <c r="AK78" s="44"/>
-      <c r="AL78" s="44"/>
-      <c r="AM78" s="44"/>
-      <c r="AN78" s="44"/>
-      <c r="AO78" s="44"/>
-      <c r="AP78" s="44"/>
-      <c r="AQ78" s="32"/>
-      <c r="AR78" s="32"/>
-      <c r="AS78" s="32"/>
-      <c r="AT78" s="32"/>
-      <c r="AU78" s="32"/>
-      <c r="AV78" s="32"/>
-      <c r="AW78" s="32"/>
-      <c r="AX78" s="32"/>
-      <c r="AY78" s="32"/>
-      <c r="AZ78" s="32"/>
-    </row>
-    <row r="79" spans="1:52" ht="12" customHeight="1">
-      <c r="A79" s="80">
-        <v>4</v>
-      </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="34"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
-      <c r="AB79" s="34"/>
-      <c r="AC79" s="34"/>
-      <c r="AD79" s="34"/>
-      <c r="AE79" s="34"/>
-      <c r="AF79" s="34"/>
-      <c r="AG79" s="34"/>
-      <c r="AH79" s="34"/>
-      <c r="AI79" s="34"/>
-      <c r="AJ79" s="34"/>
-      <c r="AK79" s="34"/>
-      <c r="AL79" s="34"/>
-      <c r="AM79" s="34"/>
-      <c r="AN79" s="34"/>
-      <c r="AO79" s="34"/>
-      <c r="AP79" s="34"/>
-      <c r="AQ79" s="11"/>
-      <c r="AR79" s="11"/>
-      <c r="AS79" s="11"/>
-      <c r="AT79" s="11"/>
-      <c r="AU79" s="11"/>
-      <c r="AV79" s="11"/>
-      <c r="AW79" s="11"/>
-      <c r="AX79" s="11"/>
-      <c r="AY79" s="11"/>
-      <c r="AZ79" s="11"/>
-    </row>
-    <row r="80" spans="1:52" ht="12" customHeight="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="45"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="44"/>
-      <c r="U80" s="44"/>
-      <c r="V80" s="44"/>
-      <c r="W80" s="44"/>
-      <c r="X80" s="44"/>
-      <c r="Y80" s="44"/>
-      <c r="Z80" s="44"/>
-      <c r="AA80" s="44"/>
-      <c r="AB80" s="44"/>
-      <c r="AC80" s="44"/>
-      <c r="AD80" s="44"/>
-      <c r="AE80" s="44"/>
-      <c r="AF80" s="44"/>
-      <c r="AG80" s="44"/>
-      <c r="AH80" s="44"/>
-      <c r="AI80" s="44"/>
-      <c r="AJ80" s="44"/>
-      <c r="AK80" s="44"/>
-      <c r="AL80" s="44"/>
-      <c r="AM80" s="44"/>
-      <c r="AN80" s="44"/>
-      <c r="AO80" s="44"/>
-      <c r="AP80" s="44"/>
-      <c r="AQ80" s="32"/>
-      <c r="AR80" s="32"/>
-      <c r="AS80" s="32"/>
-      <c r="AT80" s="32"/>
-      <c r="AU80" s="32"/>
-      <c r="AV80" s="32"/>
-      <c r="AW80" s="32"/>
-      <c r="AX80" s="32"/>
-      <c r="AY80" s="32"/>
-      <c r="AZ80" s="32"/>
-    </row>
-    <row r="81" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="2"/>
-      <c r="AG81" s="2"/>
-      <c r="AH81" s="2"/>
-      <c r="AI81" s="2"/>
-      <c r="AJ81" s="2"/>
-      <c r="AK81" s="2"/>
-      <c r="AL81" s="2"/>
-      <c r="AM81" s="2"/>
-      <c r="AN81" s="2"/>
-      <c r="AO81" s="2"/>
-      <c r="AP81" s="2"/>
-      <c r="AQ81" s="2"/>
-      <c r="AR81" s="2"/>
-      <c r="AS81" s="2"/>
-      <c r="AT81" s="2"/>
-      <c r="AU81" s="2"/>
-      <c r="AV81" s="2"/>
-      <c r="AW81" s="2"/>
-      <c r="AX81" s="2"/>
-      <c r="AY81" s="2"/>
-      <c r="AZ81" s="2"/>
-    </row>
-    <row r="82" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
-      <c r="AQ82" s="2"/>
-      <c r="AR82" s="2"/>
-      <c r="AS82" s="2"/>
-      <c r="AT82" s="2"/>
-      <c r="AU82" s="2"/>
-      <c r="AV82" s="2"/>
-      <c r="AW82" s="2"/>
-      <c r="AX82" s="2"/>
-      <c r="AY82" s="2"/>
-      <c r="AZ82" s="2"/>
-    </row>
-    <row r="83" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-      <c r="AE83" s="2"/>
-      <c r="AF83" s="2"/>
-      <c r="AG83" s="2"/>
-      <c r="AH83" s="2"/>
-      <c r="AI83" s="2"/>
-      <c r="AJ83" s="2"/>
-      <c r="AK83" s="2"/>
-      <c r="AL83" s="2"/>
-      <c r="AM83" s="2"/>
-      <c r="AN83" s="2"/>
-      <c r="AO83" s="2"/>
-      <c r="AP83" s="2"/>
-      <c r="AQ83" s="2"/>
-      <c r="AR83" s="2"/>
-      <c r="AS83" s="2"/>
-      <c r="AT83" s="2"/>
-      <c r="AU83" s="2"/>
-      <c r="AV83" s="2"/>
-      <c r="AW83" s="2"/>
-      <c r="AX83" s="2"/>
-      <c r="AY83" s="2"/>
-      <c r="AZ83" s="2"/>
-    </row>
-    <row r="84" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A84" s="6"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="2"/>
-      <c r="AG84" s="2"/>
-      <c r="AH84" s="2"/>
-      <c r="AI84" s="2"/>
-      <c r="AJ84" s="2"/>
-      <c r="AK84" s="2"/>
-      <c r="AL84" s="2"/>
-      <c r="AM84" s="2"/>
-      <c r="AN84" s="2"/>
-      <c r="AO84" s="2"/>
-      <c r="AP84" s="2"/>
-      <c r="AQ84" s="2"/>
-      <c r="AR84" s="2"/>
-      <c r="AS84" s="2"/>
-      <c r="AT84" s="2"/>
-      <c r="AU84" s="2"/>
-      <c r="AV84" s="2"/>
-      <c r="AW84" s="2"/>
-      <c r="AX84" s="2"/>
-      <c r="AY84" s="2"/>
-      <c r="AZ84" s="2"/>
-    </row>
-    <row r="85" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-      <c r="AA85" s="2"/>
-      <c r="AB85" s="2"/>
-      <c r="AC85" s="2"/>
-      <c r="AD85" s="2"/>
-      <c r="AE85" s="2"/>
-      <c r="AF85" s="2"/>
-      <c r="AG85" s="2"/>
-      <c r="AH85" s="2"/>
-      <c r="AI85" s="2"/>
-      <c r="AJ85" s="2"/>
-      <c r="AK85" s="2"/>
-      <c r="AL85" s="2"/>
-      <c r="AM85" s="2"/>
-      <c r="AN85" s="2"/>
-      <c r="AO85" s="2"/>
-      <c r="AP85" s="2"/>
-      <c r="AQ85" s="2"/>
-      <c r="AR85" s="2"/>
-      <c r="AS85" s="2"/>
-      <c r="AT85" s="2"/>
-      <c r="AU85" s="2"/>
-      <c r="AV85" s="2"/>
-      <c r="AW85" s="2"/>
-      <c r="AX85" s="2"/>
-      <c r="AY85" s="2"/>
-      <c r="AZ85" s="2"/>
-    </row>
-    <row r="86" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
-      <c r="AB86" s="2"/>
-      <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="2"/>
-      <c r="AG86" s="2"/>
-      <c r="AH86" s="2"/>
-      <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
-      <c r="AK86" s="2"/>
-      <c r="AL86" s="2"/>
-      <c r="AM86" s="2"/>
-      <c r="AN86" s="2"/>
-      <c r="AO86" s="2"/>
-      <c r="AP86" s="2"/>
-      <c r="AQ86" s="2"/>
-      <c r="AR86" s="2"/>
-      <c r="AS86" s="2"/>
-      <c r="AT86" s="2"/>
-      <c r="AU86" s="2"/>
-      <c r="AV86" s="2"/>
-      <c r="AW86" s="2"/>
-      <c r="AX86" s="2"/>
-      <c r="AY86" s="2"/>
-      <c r="AZ86" s="2"/>
-    </row>
-    <row r="87" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-      <c r="AB87" s="2"/>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="2"/>
-      <c r="AF87" s="2"/>
-      <c r="AG87" s="2"/>
-      <c r="AH87" s="2"/>
-      <c r="AI87" s="2"/>
-      <c r="AJ87" s="2"/>
-      <c r="AK87" s="2"/>
-      <c r="AL87" s="2"/>
-      <c r="AM87" s="2"/>
-      <c r="AN87" s="2"/>
-      <c r="AO87" s="2"/>
-      <c r="AP87" s="2"/>
-      <c r="AQ87" s="2"/>
-      <c r="AR87" s="2"/>
-      <c r="AS87" s="2"/>
-      <c r="AT87" s="2"/>
-      <c r="AU87" s="2"/>
-      <c r="AV87" s="2"/>
-      <c r="AW87" s="2"/>
-      <c r="AX87" s="2"/>
-      <c r="AY87" s="2"/>
-      <c r="AZ87" s="2"/>
-    </row>
-    <row r="88" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="2"/>
-      <c r="AF88" s="2"/>
-      <c r="AG88" s="2"/>
-      <c r="AH88" s="2"/>
-      <c r="AI88" s="2"/>
-      <c r="AJ88" s="2"/>
-      <c r="AK88" s="2"/>
-      <c r="AL88" s="2"/>
-      <c r="AM88" s="2"/>
-      <c r="AN88" s="2"/>
-      <c r="AO88" s="2"/>
-      <c r="AP88" s="2"/>
-      <c r="AQ88" s="2"/>
-      <c r="AR88" s="2"/>
-      <c r="AS88" s="2"/>
-      <c r="AT88" s="2"/>
-      <c r="AU88" s="2"/>
-      <c r="AV88" s="2"/>
-      <c r="AW88" s="2"/>
-      <c r="AX88" s="2"/>
-      <c r="AY88" s="2"/>
-      <c r="AZ88" s="2"/>
-    </row>
-    <row r="89" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-      <c r="AE89" s="2"/>
-      <c r="AF89" s="2"/>
-      <c r="AG89" s="2"/>
-      <c r="AH89" s="2"/>
-      <c r="AI89" s="2"/>
-      <c r="AJ89" s="2"/>
-      <c r="AK89" s="2"/>
-      <c r="AL89" s="2"/>
-      <c r="AM89" s="2"/>
-      <c r="AN89" s="2"/>
-      <c r="AO89" s="2"/>
-      <c r="AP89" s="2"/>
-      <c r="AQ89" s="2"/>
-      <c r="AR89" s="2"/>
-      <c r="AS89" s="2"/>
-      <c r="AT89" s="2"/>
-      <c r="AU89" s="2"/>
-      <c r="AV89" s="2"/>
-      <c r="AW89" s="2"/>
-      <c r="AX89" s="2"/>
-      <c r="AY89" s="2"/>
-      <c r="AZ89" s="2"/>
-    </row>
-    <row r="90" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="2"/>
-      <c r="AF90" s="2"/>
-      <c r="AG90" s="2"/>
-      <c r="AH90" s="2"/>
-      <c r="AI90" s="2"/>
-      <c r="AJ90" s="2"/>
-      <c r="AK90" s="2"/>
-      <c r="AL90" s="2"/>
-      <c r="AM90" s="2"/>
-      <c r="AN90" s="2"/>
-      <c r="AO90" s="2"/>
-      <c r="AP90" s="2"/>
-      <c r="AQ90" s="2"/>
-      <c r="AR90" s="2"/>
-      <c r="AS90" s="2"/>
-      <c r="AT90" s="2"/>
-      <c r="AU90" s="2"/>
-      <c r="AV90" s="2"/>
-      <c r="AW90" s="2"/>
-      <c r="AX90" s="2"/>
-      <c r="AY90" s="2"/>
-      <c r="AZ90" s="2"/>
-    </row>
-    <row r="91" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
-      <c r="AB91" s="2"/>
-      <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
-      <c r="AF91" s="2"/>
-      <c r="AG91" s="2"/>
-      <c r="AH91" s="2"/>
-      <c r="AI91" s="2"/>
-      <c r="AJ91" s="2"/>
-      <c r="AK91" s="2"/>
-      <c r="AL91" s="2"/>
-      <c r="AM91" s="2"/>
-      <c r="AN91" s="2"/>
-      <c r="AO91" s="2"/>
-      <c r="AP91" s="2"/>
-      <c r="AQ91" s="2"/>
-      <c r="AR91" s="2"/>
-      <c r="AS91" s="2"/>
-      <c r="AT91" s="2"/>
-      <c r="AU91" s="2"/>
-      <c r="AV91" s="2"/>
-      <c r="AW91" s="2"/>
-      <c r="AX91" s="2"/>
-      <c r="AY91" s="2"/>
-      <c r="AZ91" s="2"/>
-    </row>
-    <row r="92" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
-      <c r="AB92" s="2"/>
-      <c r="AC92" s="2"/>
-      <c r="AD92" s="2"/>
-      <c r="AE92" s="2"/>
-      <c r="AF92" s="2"/>
-      <c r="AG92" s="2"/>
-      <c r="AH92" s="2"/>
-      <c r="AI92" s="2"/>
-      <c r="AJ92" s="2"/>
-      <c r="AK92" s="2"/>
-      <c r="AL92" s="2"/>
-      <c r="AM92" s="2"/>
-      <c r="AN92" s="2"/>
-      <c r="AO92" s="2"/>
-      <c r="AP92" s="2"/>
-      <c r="AQ92" s="2"/>
-      <c r="AR92" s="2"/>
-      <c r="AS92" s="2"/>
-      <c r="AT92" s="2"/>
-      <c r="AU92" s="2"/>
-      <c r="AV92" s="2"/>
-      <c r="AW92" s="2"/>
-      <c r="AX92" s="2"/>
-      <c r="AY92" s="2"/>
-      <c r="AZ92" s="2"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="44"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="44"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="44"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="44"/>
+      <c r="AH92" s="44"/>
+      <c r="AI92" s="44"/>
+      <c r="AJ92" s="44"/>
+      <c r="AK92" s="44"/>
+      <c r="AL92" s="44"/>
+      <c r="AM92" s="44"/>
+      <c r="AN92" s="44"/>
+      <c r="AO92" s="44"/>
+      <c r="AP92" s="44"/>
+      <c r="AQ92" s="32"/>
+      <c r="AR92" s="32"/>
+      <c r="AS92" s="32"/>
+      <c r="AT92" s="32"/>
+      <c r="AU92" s="32"/>
+      <c r="AV92" s="32"/>
+      <c r="AW92" s="32"/>
+      <c r="AX92" s="32"/>
+      <c r="AY92" s="32"/>
+      <c r="AZ92" s="32"/>
     </row>
     <row r="93" spans="1:52" ht="13.5" customHeight="1">
       <c r="A93" s="6"/>
@@ -55495,97 +55638,771 @@
       <c r="AY996" s="2"/>
       <c r="AZ996" s="2"/>
     </row>
+    <row r="997" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A997" s="6"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="3"/>
+      <c r="D997" s="4"/>
+      <c r="E997" s="4"/>
+      <c r="F997" s="4"/>
+      <c r="G997" s="2"/>
+      <c r="H997" s="2"/>
+      <c r="I997" s="2"/>
+      <c r="J997" s="2"/>
+      <c r="K997" s="2"/>
+      <c r="L997" s="2"/>
+      <c r="M997" s="2"/>
+      <c r="N997" s="2"/>
+      <c r="O997" s="2"/>
+      <c r="P997" s="2"/>
+      <c r="Q997" s="2"/>
+      <c r="R997" s="2"/>
+      <c r="S997" s="2"/>
+      <c r="T997" s="2"/>
+      <c r="U997" s="2"/>
+      <c r="V997" s="2"/>
+      <c r="W997" s="2"/>
+      <c r="X997" s="2"/>
+      <c r="Y997" s="2"/>
+      <c r="Z997" s="2"/>
+      <c r="AA997" s="2"/>
+      <c r="AB997" s="2"/>
+      <c r="AC997" s="2"/>
+      <c r="AD997" s="2"/>
+      <c r="AE997" s="2"/>
+      <c r="AF997" s="2"/>
+      <c r="AG997" s="2"/>
+      <c r="AH997" s="2"/>
+      <c r="AI997" s="2"/>
+      <c r="AJ997" s="2"/>
+      <c r="AK997" s="2"/>
+      <c r="AL997" s="2"/>
+      <c r="AM997" s="2"/>
+      <c r="AN997" s="2"/>
+      <c r="AO997" s="2"/>
+      <c r="AP997" s="2"/>
+      <c r="AQ997" s="2"/>
+      <c r="AR997" s="2"/>
+      <c r="AS997" s="2"/>
+      <c r="AT997" s="2"/>
+      <c r="AU997" s="2"/>
+      <c r="AV997" s="2"/>
+      <c r="AW997" s="2"/>
+      <c r="AX997" s="2"/>
+      <c r="AY997" s="2"/>
+      <c r="AZ997" s="2"/>
+    </row>
+    <row r="998" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A998" s="6"/>
+      <c r="B998" s="2"/>
+      <c r="C998" s="3"/>
+      <c r="D998" s="4"/>
+      <c r="E998" s="4"/>
+      <c r="F998" s="4"/>
+      <c r="G998" s="2"/>
+      <c r="H998" s="2"/>
+      <c r="I998" s="2"/>
+      <c r="J998" s="2"/>
+      <c r="K998" s="2"/>
+      <c r="L998" s="2"/>
+      <c r="M998" s="2"/>
+      <c r="N998" s="2"/>
+      <c r="O998" s="2"/>
+      <c r="P998" s="2"/>
+      <c r="Q998" s="2"/>
+      <c r="R998" s="2"/>
+      <c r="S998" s="2"/>
+      <c r="T998" s="2"/>
+      <c r="U998" s="2"/>
+      <c r="V998" s="2"/>
+      <c r="W998" s="2"/>
+      <c r="X998" s="2"/>
+      <c r="Y998" s="2"/>
+      <c r="Z998" s="2"/>
+      <c r="AA998" s="2"/>
+      <c r="AB998" s="2"/>
+      <c r="AC998" s="2"/>
+      <c r="AD998" s="2"/>
+      <c r="AE998" s="2"/>
+      <c r="AF998" s="2"/>
+      <c r="AG998" s="2"/>
+      <c r="AH998" s="2"/>
+      <c r="AI998" s="2"/>
+      <c r="AJ998" s="2"/>
+      <c r="AK998" s="2"/>
+      <c r="AL998" s="2"/>
+      <c r="AM998" s="2"/>
+      <c r="AN998" s="2"/>
+      <c r="AO998" s="2"/>
+      <c r="AP998" s="2"/>
+      <c r="AQ998" s="2"/>
+      <c r="AR998" s="2"/>
+      <c r="AS998" s="2"/>
+      <c r="AT998" s="2"/>
+      <c r="AU998" s="2"/>
+      <c r="AV998" s="2"/>
+      <c r="AW998" s="2"/>
+      <c r="AX998" s="2"/>
+      <c r="AY998" s="2"/>
+      <c r="AZ998" s="2"/>
+    </row>
+    <row r="999" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A999" s="6"/>
+      <c r="B999" s="2"/>
+      <c r="C999" s="3"/>
+      <c r="D999" s="4"/>
+      <c r="E999" s="4"/>
+      <c r="F999" s="4"/>
+      <c r="G999" s="2"/>
+      <c r="H999" s="2"/>
+      <c r="I999" s="2"/>
+      <c r="J999" s="2"/>
+      <c r="K999" s="2"/>
+      <c r="L999" s="2"/>
+      <c r="M999" s="2"/>
+      <c r="N999" s="2"/>
+      <c r="O999" s="2"/>
+      <c r="P999" s="2"/>
+      <c r="Q999" s="2"/>
+      <c r="R999" s="2"/>
+      <c r="S999" s="2"/>
+      <c r="T999" s="2"/>
+      <c r="U999" s="2"/>
+      <c r="V999" s="2"/>
+      <c r="W999" s="2"/>
+      <c r="X999" s="2"/>
+      <c r="Y999" s="2"/>
+      <c r="Z999" s="2"/>
+      <c r="AA999" s="2"/>
+      <c r="AB999" s="2"/>
+      <c r="AC999" s="2"/>
+      <c r="AD999" s="2"/>
+      <c r="AE999" s="2"/>
+      <c r="AF999" s="2"/>
+      <c r="AG999" s="2"/>
+      <c r="AH999" s="2"/>
+      <c r="AI999" s="2"/>
+      <c r="AJ999" s="2"/>
+      <c r="AK999" s="2"/>
+      <c r="AL999" s="2"/>
+      <c r="AM999" s="2"/>
+      <c r="AN999" s="2"/>
+      <c r="AO999" s="2"/>
+      <c r="AP999" s="2"/>
+      <c r="AQ999" s="2"/>
+      <c r="AR999" s="2"/>
+      <c r="AS999" s="2"/>
+      <c r="AT999" s="2"/>
+      <c r="AU999" s="2"/>
+      <c r="AV999" s="2"/>
+      <c r="AW999" s="2"/>
+      <c r="AX999" s="2"/>
+      <c r="AY999" s="2"/>
+      <c r="AZ999" s="2"/>
+    </row>
+    <row r="1000" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1000" s="6"/>
+      <c r="B1000" s="2"/>
+      <c r="C1000" s="3"/>
+      <c r="D1000" s="4"/>
+      <c r="E1000" s="4"/>
+      <c r="F1000" s="4"/>
+      <c r="G1000" s="2"/>
+      <c r="H1000" s="2"/>
+      <c r="I1000" s="2"/>
+      <c r="J1000" s="2"/>
+      <c r="K1000" s="2"/>
+      <c r="L1000" s="2"/>
+      <c r="M1000" s="2"/>
+      <c r="N1000" s="2"/>
+      <c r="O1000" s="2"/>
+      <c r="P1000" s="2"/>
+      <c r="Q1000" s="2"/>
+      <c r="R1000" s="2"/>
+      <c r="S1000" s="2"/>
+      <c r="T1000" s="2"/>
+      <c r="U1000" s="2"/>
+      <c r="V1000" s="2"/>
+      <c r="W1000" s="2"/>
+      <c r="X1000" s="2"/>
+      <c r="Y1000" s="2"/>
+      <c r="Z1000" s="2"/>
+      <c r="AA1000" s="2"/>
+      <c r="AB1000" s="2"/>
+      <c r="AC1000" s="2"/>
+      <c r="AD1000" s="2"/>
+      <c r="AE1000" s="2"/>
+      <c r="AF1000" s="2"/>
+      <c r="AG1000" s="2"/>
+      <c r="AH1000" s="2"/>
+      <c r="AI1000" s="2"/>
+      <c r="AJ1000" s="2"/>
+      <c r="AK1000" s="2"/>
+      <c r="AL1000" s="2"/>
+      <c r="AM1000" s="2"/>
+      <c r="AN1000" s="2"/>
+      <c r="AO1000" s="2"/>
+      <c r="AP1000" s="2"/>
+      <c r="AQ1000" s="2"/>
+      <c r="AR1000" s="2"/>
+      <c r="AS1000" s="2"/>
+      <c r="AT1000" s="2"/>
+      <c r="AU1000" s="2"/>
+      <c r="AV1000" s="2"/>
+      <c r="AW1000" s="2"/>
+      <c r="AX1000" s="2"/>
+      <c r="AY1000" s="2"/>
+      <c r="AZ1000" s="2"/>
+    </row>
+    <row r="1001" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1001" s="6"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="4"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+      <c r="AB1001" s="2"/>
+      <c r="AC1001" s="2"/>
+      <c r="AD1001" s="2"/>
+      <c r="AE1001" s="2"/>
+      <c r="AF1001" s="2"/>
+      <c r="AG1001" s="2"/>
+      <c r="AH1001" s="2"/>
+      <c r="AI1001" s="2"/>
+      <c r="AJ1001" s="2"/>
+      <c r="AK1001" s="2"/>
+      <c r="AL1001" s="2"/>
+      <c r="AM1001" s="2"/>
+      <c r="AN1001" s="2"/>
+      <c r="AO1001" s="2"/>
+      <c r="AP1001" s="2"/>
+      <c r="AQ1001" s="2"/>
+      <c r="AR1001" s="2"/>
+      <c r="AS1001" s="2"/>
+      <c r="AT1001" s="2"/>
+      <c r="AU1001" s="2"/>
+      <c r="AV1001" s="2"/>
+      <c r="AW1001" s="2"/>
+      <c r="AX1001" s="2"/>
+      <c r="AY1001" s="2"/>
+      <c r="AZ1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1002" s="6"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
+      <c r="AB1002" s="2"/>
+      <c r="AC1002" s="2"/>
+      <c r="AD1002" s="2"/>
+      <c r="AE1002" s="2"/>
+      <c r="AF1002" s="2"/>
+      <c r="AG1002" s="2"/>
+      <c r="AH1002" s="2"/>
+      <c r="AI1002" s="2"/>
+      <c r="AJ1002" s="2"/>
+      <c r="AK1002" s="2"/>
+      <c r="AL1002" s="2"/>
+      <c r="AM1002" s="2"/>
+      <c r="AN1002" s="2"/>
+      <c r="AO1002" s="2"/>
+      <c r="AP1002" s="2"/>
+      <c r="AQ1002" s="2"/>
+      <c r="AR1002" s="2"/>
+      <c r="AS1002" s="2"/>
+      <c r="AT1002" s="2"/>
+      <c r="AU1002" s="2"/>
+      <c r="AV1002" s="2"/>
+      <c r="AW1002" s="2"/>
+      <c r="AX1002" s="2"/>
+      <c r="AY1002" s="2"/>
+      <c r="AZ1002" s="2"/>
+    </row>
+    <row r="1003" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1003" s="6"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="3"/>
+      <c r="D1003" s="4"/>
+      <c r="E1003" s="4"/>
+      <c r="F1003" s="4"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+      <c r="AA1003" s="2"/>
+      <c r="AB1003" s="2"/>
+      <c r="AC1003" s="2"/>
+      <c r="AD1003" s="2"/>
+      <c r="AE1003" s="2"/>
+      <c r="AF1003" s="2"/>
+      <c r="AG1003" s="2"/>
+      <c r="AH1003" s="2"/>
+      <c r="AI1003" s="2"/>
+      <c r="AJ1003" s="2"/>
+      <c r="AK1003" s="2"/>
+      <c r="AL1003" s="2"/>
+      <c r="AM1003" s="2"/>
+      <c r="AN1003" s="2"/>
+      <c r="AO1003" s="2"/>
+      <c r="AP1003" s="2"/>
+      <c r="AQ1003" s="2"/>
+      <c r="AR1003" s="2"/>
+      <c r="AS1003" s="2"/>
+      <c r="AT1003" s="2"/>
+      <c r="AU1003" s="2"/>
+      <c r="AV1003" s="2"/>
+      <c r="AW1003" s="2"/>
+      <c r="AX1003" s="2"/>
+      <c r="AY1003" s="2"/>
+      <c r="AZ1003" s="2"/>
+    </row>
+    <row r="1004" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1004" s="6"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="3"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
+      <c r="AB1004" s="2"/>
+      <c r="AC1004" s="2"/>
+      <c r="AD1004" s="2"/>
+      <c r="AE1004" s="2"/>
+      <c r="AF1004" s="2"/>
+      <c r="AG1004" s="2"/>
+      <c r="AH1004" s="2"/>
+      <c r="AI1004" s="2"/>
+      <c r="AJ1004" s="2"/>
+      <c r="AK1004" s="2"/>
+      <c r="AL1004" s="2"/>
+      <c r="AM1004" s="2"/>
+      <c r="AN1004" s="2"/>
+      <c r="AO1004" s="2"/>
+      <c r="AP1004" s="2"/>
+      <c r="AQ1004" s="2"/>
+      <c r="AR1004" s="2"/>
+      <c r="AS1004" s="2"/>
+      <c r="AT1004" s="2"/>
+      <c r="AU1004" s="2"/>
+      <c r="AV1004" s="2"/>
+      <c r="AW1004" s="2"/>
+      <c r="AX1004" s="2"/>
+      <c r="AY1004" s="2"/>
+      <c r="AZ1004" s="2"/>
+    </row>
+    <row r="1005" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1005" s="6"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="3"/>
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="4"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+      <c r="AA1005" s="2"/>
+      <c r="AB1005" s="2"/>
+      <c r="AC1005" s="2"/>
+      <c r="AD1005" s="2"/>
+      <c r="AE1005" s="2"/>
+      <c r="AF1005" s="2"/>
+      <c r="AG1005" s="2"/>
+      <c r="AH1005" s="2"/>
+      <c r="AI1005" s="2"/>
+      <c r="AJ1005" s="2"/>
+      <c r="AK1005" s="2"/>
+      <c r="AL1005" s="2"/>
+      <c r="AM1005" s="2"/>
+      <c r="AN1005" s="2"/>
+      <c r="AO1005" s="2"/>
+      <c r="AP1005" s="2"/>
+      <c r="AQ1005" s="2"/>
+      <c r="AR1005" s="2"/>
+      <c r="AS1005" s="2"/>
+      <c r="AT1005" s="2"/>
+      <c r="AU1005" s="2"/>
+      <c r="AV1005" s="2"/>
+      <c r="AW1005" s="2"/>
+      <c r="AX1005" s="2"/>
+      <c r="AY1005" s="2"/>
+      <c r="AZ1005" s="2"/>
+    </row>
+    <row r="1006" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1006" s="6"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="3"/>
+      <c r="D1006" s="4"/>
+      <c r="E1006" s="4"/>
+      <c r="F1006" s="4"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+      <c r="AA1006" s="2"/>
+      <c r="AB1006" s="2"/>
+      <c r="AC1006" s="2"/>
+      <c r="AD1006" s="2"/>
+      <c r="AE1006" s="2"/>
+      <c r="AF1006" s="2"/>
+      <c r="AG1006" s="2"/>
+      <c r="AH1006" s="2"/>
+      <c r="AI1006" s="2"/>
+      <c r="AJ1006" s="2"/>
+      <c r="AK1006" s="2"/>
+      <c r="AL1006" s="2"/>
+      <c r="AM1006" s="2"/>
+      <c r="AN1006" s="2"/>
+      <c r="AO1006" s="2"/>
+      <c r="AP1006" s="2"/>
+      <c r="AQ1006" s="2"/>
+      <c r="AR1006" s="2"/>
+      <c r="AS1006" s="2"/>
+      <c r="AT1006" s="2"/>
+      <c r="AU1006" s="2"/>
+      <c r="AV1006" s="2"/>
+      <c r="AW1006" s="2"/>
+      <c r="AX1006" s="2"/>
+      <c r="AY1006" s="2"/>
+      <c r="AZ1006" s="2"/>
+    </row>
+    <row r="1007" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1007" s="6"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="3"/>
+      <c r="D1007" s="4"/>
+      <c r="E1007" s="4"/>
+      <c r="F1007" s="4"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
+      <c r="AB1007" s="2"/>
+      <c r="AC1007" s="2"/>
+      <c r="AD1007" s="2"/>
+      <c r="AE1007" s="2"/>
+      <c r="AF1007" s="2"/>
+      <c r="AG1007" s="2"/>
+      <c r="AH1007" s="2"/>
+      <c r="AI1007" s="2"/>
+      <c r="AJ1007" s="2"/>
+      <c r="AK1007" s="2"/>
+      <c r="AL1007" s="2"/>
+      <c r="AM1007" s="2"/>
+      <c r="AN1007" s="2"/>
+      <c r="AO1007" s="2"/>
+      <c r="AP1007" s="2"/>
+      <c r="AQ1007" s="2"/>
+      <c r="AR1007" s="2"/>
+      <c r="AS1007" s="2"/>
+      <c r="AT1007" s="2"/>
+      <c r="AU1007" s="2"/>
+      <c r="AV1007" s="2"/>
+      <c r="AW1007" s="2"/>
+      <c r="AX1007" s="2"/>
+      <c r="AY1007" s="2"/>
+      <c r="AZ1007" s="2"/>
+    </row>
+    <row r="1008" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1008" s="6"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="3"/>
+      <c r="D1008" s="4"/>
+      <c r="E1008" s="4"/>
+      <c r="F1008" s="4"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+      <c r="AA1008" s="2"/>
+      <c r="AB1008" s="2"/>
+      <c r="AC1008" s="2"/>
+      <c r="AD1008" s="2"/>
+      <c r="AE1008" s="2"/>
+      <c r="AF1008" s="2"/>
+      <c r="AG1008" s="2"/>
+      <c r="AH1008" s="2"/>
+      <c r="AI1008" s="2"/>
+      <c r="AJ1008" s="2"/>
+      <c r="AK1008" s="2"/>
+      <c r="AL1008" s="2"/>
+      <c r="AM1008" s="2"/>
+      <c r="AN1008" s="2"/>
+      <c r="AO1008" s="2"/>
+      <c r="AP1008" s="2"/>
+      <c r="AQ1008" s="2"/>
+      <c r="AR1008" s="2"/>
+      <c r="AS1008" s="2"/>
+      <c r="AT1008" s="2"/>
+      <c r="AU1008" s="2"/>
+      <c r="AV1008" s="2"/>
+      <c r="AW1008" s="2"/>
+      <c r="AX1008" s="2"/>
+      <c r="AY1008" s="2"/>
+      <c r="AZ1008" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="215">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
+  <mergeCells count="245">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AE3:AP4"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -55610,112 +56427,116 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="S3:AD4"/>
     <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="AE3:AP4"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E25 E27 E29 E31 E33 E35 E38 E40 E42 E47 E49 E51 E53 E55 E57 E60 E62 E64 E66 E68 E70 E73 E75 E77 E79 E44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E25 E27 E29 E31 E33 E35 E46 E48 E50 E59 E61 E63 E65 E67 E69 E72 E74 E76 E78 E80 E82 E85 E87 E89 E91 E52 E37 E39 E41 E43 E54 E56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未着手,作成中,作成完了,レビュー中,レビュー完了,FIX"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
+++ b/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368EFB0B-7DA0-469C-9546-53A820D4F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E0EE9-F7EC-45CE-A610-801E6F7644B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,16 +253,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>削除画面JSP、Servlet作成</t>
-    <rPh sb="0" eb="4">
-      <t>サクジョガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>レビュー後取り込み</t>
     <rPh sb="4" eb="5">
       <t>ゴ</t>
@@ -272,6 +262,16 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除画面JSP、Servlet作成　</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -286,7 +286,7 @@
     <numFmt numFmtId="178" formatCode="[$-411]yyyy&quot;年&quot;mm&quot;月&quot;"/>
     <numFmt numFmtId="179" formatCode="0&quot; &quot;;[Red]&quot;(&quot;0&quot;)&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -341,6 +341,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -902,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1113,69 +1121,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1144,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,10 +1432,10 @@
   <dimension ref="A1:AZ1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1545,58 +1559,58 @@
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="80">
+      <c r="G3" s="85">
         <v>45629</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="80">
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="85">
         <v>45630</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="80">
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="85">
         <v>45631</v>
       </c>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="82"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="87"/>
       <c r="AQ3" s="52"/>
       <c r="AR3" s="52"/>
       <c r="AS3" s="52"/>
@@ -1609,56 +1623,56 @@
       <c r="AZ3" s="52"/>
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="86" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="85"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="90"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
@@ -1671,84 +1685,84 @@
       <c r="AZ4" s="10"/>
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="75">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="83">
         <v>3</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75">
+      <c r="H5" s="84"/>
+      <c r="I5" s="83">
         <v>4</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="75">
+      <c r="J5" s="84"/>
+      <c r="K5" s="83">
         <v>5</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="75">
+      <c r="L5" s="84"/>
+      <c r="M5" s="83">
         <v>6</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="75">
+      <c r="N5" s="84"/>
+      <c r="O5" s="83">
         <v>7</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75">
+      <c r="P5" s="84"/>
+      <c r="Q5" s="83">
         <v>8</v>
       </c>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75">
+      <c r="R5" s="84"/>
+      <c r="S5" s="83">
         <v>9</v>
       </c>
-      <c r="T5" s="76"/>
-      <c r="U5" s="75">
+      <c r="T5" s="84"/>
+      <c r="U5" s="83">
         <v>10</v>
       </c>
-      <c r="V5" s="76"/>
-      <c r="W5" s="75">
+      <c r="V5" s="84"/>
+      <c r="W5" s="83">
         <v>11</v>
       </c>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="75">
+      <c r="X5" s="84"/>
+      <c r="Y5" s="83">
         <v>12</v>
       </c>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="75">
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="83">
         <v>13</v>
       </c>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="75">
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="83">
         <v>14</v>
       </c>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="75">
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="83">
         <v>15</v>
       </c>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="75">
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="83">
         <v>16</v>
       </c>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="75">
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="83">
         <v>17</v>
       </c>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="75">
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="83">
         <v>18</v>
       </c>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="75">
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="83">
         <v>19</v>
       </c>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="75">
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="83">
         <v>20</v>
       </c>
-      <c r="AP5" s="76"/>
+      <c r="AP5" s="84"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
@@ -1761,84 +1775,84 @@
       <c r="AZ5" s="10"/>
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="75" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="75" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="75" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="75" t="s">
+      <c r="P6" s="84"/>
+      <c r="Q6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="75" t="s">
+      <c r="R6" s="84"/>
+      <c r="S6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="76"/>
-      <c r="U6" s="75" t="s">
+      <c r="T6" s="84"/>
+      <c r="U6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="76"/>
-      <c r="W6" s="75" t="s">
+      <c r="V6" s="84"/>
+      <c r="W6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="75" t="s">
+      <c r="X6" s="84"/>
+      <c r="Y6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="75" t="s">
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="75" t="s">
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="75" t="s">
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="75" t="s">
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="75" t="s">
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="75" t="s">
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="75" t="s">
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="75" t="s">
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="76"/>
+      <c r="AP6" s="84"/>
     </row>
     <row r="7" spans="1:52" ht="12" customHeight="1">
       <c r="A7" s="13" t="s">
@@ -1897,15 +1911,15 @@
       <c r="AZ7" s="20"/>
     </row>
     <row r="8" spans="1:52" ht="12" customHeight="1">
-      <c r="A8" s="70">
+      <c r="A8" s="78">
         <v>1</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
@@ -1957,11 +1971,11 @@
       <c r="AZ8" s="27"/>
     </row>
     <row r="9" spans="1:52" ht="12" customHeight="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="28" t="s">
         <v>14</v>
       </c>
@@ -2013,15 +2027,15 @@
       <c r="AZ9" s="32"/>
     </row>
     <row r="10" spans="1:52" ht="12" customHeight="1">
-      <c r="A10" s="70">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="72"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="33" t="s">
         <v>13</v>
       </c>
@@ -2073,11 +2087,11 @@
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" ht="12" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="37" t="s">
         <v>14</v>
       </c>
@@ -2129,15 +2143,15 @@
       <c r="AZ11" s="41"/>
     </row>
     <row r="12" spans="1:52" ht="12" customHeight="1">
-      <c r="A12" s="70">
+      <c r="A12" s="78">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2189,11 +2203,11 @@
       <c r="AZ12" s="27"/>
     </row>
     <row r="13" spans="1:52" ht="12" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="42" t="s">
         <v>14</v>
       </c>
@@ -2245,15 +2259,15 @@
       <c r="AZ13" s="32"/>
     </row>
     <row r="14" spans="1:52" ht="12" customHeight="1">
-      <c r="A14" s="70">
+      <c r="A14" s="78">
         <v>4</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="33" t="s">
         <v>13</v>
       </c>
@@ -2305,11 +2319,11 @@
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" ht="12" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="37" t="s">
         <v>14</v>
       </c>
@@ -2361,15 +2375,15 @@
       <c r="AZ15" s="41"/>
     </row>
     <row r="16" spans="1:52" ht="12" customHeight="1">
-      <c r="A16" s="70">
+      <c r="A16" s="78">
         <v>5</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2421,11 +2435,11 @@
       <c r="AZ16" s="27"/>
     </row>
     <row r="17" spans="1:52" ht="12" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="42" t="s">
         <v>14</v>
       </c>
@@ -2477,15 +2491,15 @@
       <c r="AZ17" s="46"/>
     </row>
     <row r="18" spans="1:52" ht="12" customHeight="1">
-      <c r="A18" s="70">
+      <c r="A18" s="78">
         <v>6</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="72"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="33" t="s">
         <v>13</v>
       </c>
@@ -2537,11 +2551,11 @@
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" ht="12" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2593,15 +2607,15 @@
       <c r="AZ19" s="46"/>
     </row>
     <row r="20" spans="1:52" ht="12" customHeight="1">
-      <c r="A20" s="70">
+      <c r="A20" s="78">
         <v>7</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="33" t="s">
         <v>13</v>
       </c>
@@ -2653,11 +2667,11 @@
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" ht="12" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="28" t="s">
         <v>14</v>
       </c>
@@ -2709,15 +2723,15 @@
       <c r="AZ21" s="46"/>
     </row>
     <row r="22" spans="1:52" ht="12" customHeight="1">
-      <c r="A22" s="70">
+      <c r="A22" s="78">
         <v>8</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2769,11 +2783,11 @@
       <c r="AZ22" s="27"/>
     </row>
     <row r="23" spans="1:52" ht="12" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
@@ -2881,17 +2895,17 @@
       <c r="AZ24" s="20"/>
     </row>
     <row r="25" spans="1:52" ht="12" customHeight="1">
-      <c r="A25" s="70">
+      <c r="A25" s="78">
         <v>1</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="21" t="s">
         <v>13</v>
       </c>
@@ -2943,11 +2957,11 @@
       <c r="AZ25" s="27"/>
     </row>
     <row r="26" spans="1:52" ht="12" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="28" t="s">
         <v>14</v>
       </c>
@@ -2999,17 +3013,17 @@
       <c r="AZ26" s="32"/>
     </row>
     <row r="27" spans="1:52" ht="12" customHeight="1">
-      <c r="A27" s="70">
+      <c r="A27" s="78">
         <v>2</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="72"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="33" t="s">
         <v>13</v>
       </c>
@@ -3061,11 +3075,11 @@
       <c r="AZ27" s="11"/>
     </row>
     <row r="28" spans="1:52" ht="12" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="37" t="s">
         <v>14</v>
       </c>
@@ -3117,17 +3131,17 @@
       <c r="AZ28" s="41"/>
     </row>
     <row r="29" spans="1:52" ht="12" customHeight="1">
-      <c r="A29" s="70">
+      <c r="A29" s="78">
         <v>3</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72" t="s">
+      <c r="C29" s="80"/>
+      <c r="D29" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="72"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="21" t="s">
         <v>13</v>
       </c>
@@ -3179,11 +3193,11 @@
       <c r="AZ29" s="27"/>
     </row>
     <row r="30" spans="1:52" ht="12" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="42" t="s">
         <v>14</v>
       </c>
@@ -3235,17 +3249,17 @@
       <c r="AZ30" s="32"/>
     </row>
     <row r="31" spans="1:52" ht="12" customHeight="1">
-      <c r="A31" s="70">
+      <c r="A31" s="78">
         <v>4</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="72"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="33" t="s">
         <v>13</v>
       </c>
@@ -3297,11 +3311,11 @@
       <c r="AZ31" s="11"/>
     </row>
     <row r="32" spans="1:52" ht="12" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="37" t="s">
         <v>14</v>
       </c>
@@ -3353,17 +3367,17 @@
       <c r="AZ32" s="41"/>
     </row>
     <row r="33" spans="1:52" ht="12" customHeight="1">
-      <c r="A33" s="70">
+      <c r="A33" s="78">
         <v>5</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72" t="s">
+      <c r="C33" s="80"/>
+      <c r="D33" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="72"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="21" t="s">
         <v>13</v>
       </c>
@@ -3415,11 +3429,11 @@
       <c r="AZ33" s="27"/>
     </row>
     <row r="34" spans="1:52" ht="12" customHeight="1">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="42" t="s">
         <v>14</v>
       </c>
@@ -3471,17 +3485,17 @@
       <c r="AZ34" s="46"/>
     </row>
     <row r="35" spans="1:52" ht="12" customHeight="1">
-      <c r="A35" s="70">
+      <c r="A35" s="78">
         <v>6</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="72"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="33" t="s">
         <v>13</v>
       </c>
@@ -3533,11 +3547,11 @@
       <c r="AZ35" s="11"/>
     </row>
     <row r="36" spans="1:52" ht="12" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="37" t="s">
         <v>14</v>
       </c>
@@ -3589,17 +3603,17 @@
       <c r="AZ36" s="12"/>
     </row>
     <row r="37" spans="1:52" ht="12" customHeight="1">
-      <c r="A37" s="70">
+      <c r="A37" s="78">
         <v>7</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="80"/>
       <c r="F37" s="33" t="s">
         <v>13</v>
       </c>
@@ -3607,8 +3621,8 @@
       <c r="H37" s="34"/>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="56"/>
       <c r="N37" s="53"/>
       <c r="O37" s="34"/>
@@ -3651,11 +3665,11 @@
       <c r="AZ37" s="11"/>
     </row>
     <row r="38" spans="1:52" ht="12" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="37" t="s">
         <v>14</v>
       </c>
@@ -3663,9 +3677,9 @@
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
       <c r="N38" s="68"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
@@ -3707,17 +3721,17 @@
       <c r="AZ38" s="12"/>
     </row>
     <row r="39" spans="1:52" ht="12" customHeight="1">
-      <c r="A39" s="70">
+      <c r="A39" s="78">
         <v>8</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="80"/>
       <c r="F39" s="33" t="s">
         <v>13</v>
       </c>
@@ -3725,8 +3739,8 @@
       <c r="H39" s="34"/>
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
       <c r="M39" s="56"/>
       <c r="N39" s="53"/>
       <c r="O39" s="34"/>
@@ -3769,11 +3783,11 @@
       <c r="AZ39" s="11"/>
     </row>
     <row r="40" spans="1:52" ht="12" customHeight="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="37" t="s">
         <v>14</v>
       </c>
@@ -3781,9 +3795,9 @@
       <c r="H40" s="48"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
       <c r="N40" s="68"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
@@ -3825,24 +3839,24 @@
       <c r="AZ40" s="12"/>
     </row>
     <row r="41" spans="1:52" ht="12" customHeight="1">
-      <c r="A41" s="70">
+      <c r="A41" s="78">
         <v>1</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72" t="s">
+      <c r="C41" s="80"/>
+      <c r="D41" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="93"/>
+      <c r="G41" s="72"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="24"/>
@@ -3887,18 +3901,18 @@
       <c r="AZ41" s="27"/>
     </row>
     <row r="42" spans="1:52" ht="12" customHeight="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="94"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="95"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
@@ -3943,24 +3957,24 @@
       <c r="AZ42" s="32"/>
     </row>
     <row r="43" spans="1:52" ht="12" customHeight="1">
-      <c r="A43" s="70">
+      <c r="A43" s="78">
         <v>1</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72" t="s">
+      <c r="C43" s="80"/>
+      <c r="D43" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="72"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="93"/>
+      <c r="G43" s="72"/>
       <c r="H43" s="69"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="24"/>
@@ -4005,18 +4019,18 @@
       <c r="AZ43" s="27"/>
     </row>
     <row r="44" spans="1:52" ht="12" customHeight="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="94"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="95"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="74"/>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
@@ -4117,17 +4131,17 @@
       <c r="AZ45" s="20"/>
     </row>
     <row r="46" spans="1:52" ht="12" customHeight="1">
-      <c r="A46" s="70">
+      <c r="A46" s="78">
         <v>1</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72" t="s">
+      <c r="C46" s="80"/>
+      <c r="D46" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="72"/>
+      <c r="E46" s="80"/>
       <c r="F46" s="21" t="s">
         <v>13</v>
       </c>
@@ -4179,11 +4193,11 @@
       <c r="AZ46" s="27"/>
     </row>
     <row r="47" spans="1:52" ht="12" customHeight="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
       <c r="F47" s="28" t="s">
         <v>14</v>
       </c>
@@ -4199,8 +4213,8 @@
       <c r="P47" s="30"/>
       <c r="Q47" s="30"/>
       <c r="R47" s="31"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="30"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="99"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
       <c r="W47" s="30"/>
@@ -4235,17 +4249,17 @@
       <c r="AZ47" s="32"/>
     </row>
     <row r="48" spans="1:52" ht="12" customHeight="1">
-      <c r="A48" s="70">
+      <c r="A48" s="78">
         <v>2</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72" t="s">
+      <c r="C48" s="80"/>
+      <c r="D48" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="33" t="s">
         <v>13</v>
       </c>
@@ -4297,11 +4311,11 @@
       <c r="AZ48" s="11"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="37" t="s">
         <v>14</v>
       </c>
@@ -4318,7 +4332,7 @@
       <c r="Q49" s="39"/>
       <c r="R49" s="40"/>
       <c r="S49" s="38"/>
-      <c r="T49" s="39"/>
+      <c r="T49" s="54"/>
       <c r="U49" s="39"/>
       <c r="V49" s="39"/>
       <c r="W49" s="39"/>
@@ -4353,17 +4367,17 @@
       <c r="AZ49" s="41"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
-      <c r="A50" s="70">
+      <c r="A50" s="78">
         <v>3</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72" t="s">
+      <c r="C50" s="80"/>
+      <c r="D50" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="72"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="21" t="s">
         <v>13</v>
       </c>
@@ -4415,11 +4429,11 @@
       <c r="AZ50" s="27"/>
     </row>
     <row r="51" spans="1:52" ht="12" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="42" t="s">
         <v>14</v>
       </c>
@@ -4436,7 +4450,7 @@
       <c r="Q51" s="44"/>
       <c r="R51" s="45"/>
       <c r="S51" s="43"/>
-      <c r="T51" s="44"/>
+      <c r="T51" s="65"/>
       <c r="U51" s="44"/>
       <c r="V51" s="44"/>
       <c r="W51" s="44"/>
@@ -4444,7 +4458,7 @@
       <c r="Y51" s="44"/>
       <c r="Z51" s="44"/>
       <c r="AA51" s="44"/>
-      <c r="AB51" s="98"/>
+      <c r="AB51" s="77"/>
       <c r="AC51" s="44"/>
       <c r="AD51" s="44"/>
       <c r="AE51" s="44"/>
@@ -4471,17 +4485,17 @@
       <c r="AZ51" s="32"/>
     </row>
     <row r="52" spans="1:52" ht="12" customHeight="1">
-      <c r="A52" s="70">
+      <c r="A52" s="78">
         <v>4</v>
       </c>
-      <c r="B52" s="72" t="s">
-        <v>38</v>
+      <c r="B52" s="100" t="s">
+        <v>39</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72" t="s">
+      <c r="C52" s="80"/>
+      <c r="D52" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="72"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="21" t="s">
         <v>13</v>
       </c>
@@ -4533,11 +4547,11 @@
       <c r="AZ52" s="27"/>
     </row>
     <row r="53" spans="1:52" ht="12" customHeight="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="42" t="s">
         <v>14</v>
       </c>
@@ -4554,7 +4568,7 @@
       <c r="Q53" s="30"/>
       <c r="R53" s="31"/>
       <c r="S53" s="29"/>
-      <c r="T53" s="30"/>
+      <c r="T53" s="74"/>
       <c r="U53" s="30"/>
       <c r="V53" s="30"/>
       <c r="W53" s="30"/>
@@ -4562,7 +4576,7 @@
       <c r="Y53" s="30"/>
       <c r="Z53" s="30"/>
       <c r="AA53" s="30"/>
-      <c r="AB53" s="95"/>
+      <c r="AB53" s="74"/>
       <c r="AC53" s="30"/>
       <c r="AD53" s="30"/>
       <c r="AE53" s="30"/>
@@ -4589,17 +4603,17 @@
       <c r="AZ53" s="46"/>
     </row>
     <row r="54" spans="1:52" ht="12" customHeight="1">
-      <c r="A54" s="70">
+      <c r="A54" s="78">
         <v>5</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72" t="s">
+      <c r="C54" s="80"/>
+      <c r="D54" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="72"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="21" t="s">
         <v>13</v>
       </c>
@@ -4615,8 +4629,8 @@
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
       <c r="R54" s="51"/>
-      <c r="S54" s="97"/>
-      <c r="T54" s="91"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="70"/>
       <c r="U54" s="23"/>
       <c r="V54" s="23"/>
       <c r="W54" s="23"/>
@@ -4651,11 +4665,11 @@
       <c r="AZ54" s="27"/>
     </row>
     <row r="55" spans="1:52" ht="12" customHeight="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="28" t="s">
         <v>14</v>
       </c>
@@ -4671,8 +4685,8 @@
       <c r="P55" s="30"/>
       <c r="Q55" s="30"/>
       <c r="R55" s="31"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="95"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="74"/>
       <c r="U55" s="30"/>
       <c r="V55" s="30"/>
       <c r="W55" s="30"/>
@@ -4707,17 +4721,17 @@
       <c r="AZ55" s="32"/>
     </row>
     <row r="56" spans="1:52" ht="12" customHeight="1">
-      <c r="A56" s="70">
+      <c r="A56" s="78">
         <v>6</v>
       </c>
-      <c r="B56" s="72" t="s">
-        <v>39</v>
+      <c r="B56" s="80" t="s">
+        <v>38</v>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72" t="s">
+      <c r="C56" s="80"/>
+      <c r="D56" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="72"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="21" t="s">
         <v>13</v>
       </c>
@@ -4733,8 +4747,8 @@
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
       <c r="R56" s="51"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="91"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="70"/>
       <c r="U56" s="23"/>
       <c r="V56" s="23"/>
       <c r="W56" s="23"/>
@@ -4769,11 +4783,11 @@
       <c r="AZ56" s="27"/>
     </row>
     <row r="57" spans="1:52" ht="12" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="28" t="s">
         <v>14</v>
       </c>
@@ -4789,8 +4803,8 @@
       <c r="P57" s="30"/>
       <c r="Q57" s="30"/>
       <c r="R57" s="31"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="95"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="74"/>
       <c r="U57" s="30"/>
       <c r="V57" s="30"/>
       <c r="W57" s="30"/>
@@ -4881,15 +4895,15 @@
       <c r="AZ58" s="20"/>
     </row>
     <row r="59" spans="1:52" ht="12" customHeight="1">
-      <c r="A59" s="70">
+      <c r="A59" s="78">
         <v>1</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="21" t="s">
         <v>13</v>
       </c>
@@ -4941,11 +4955,11 @@
       <c r="AZ59" s="27"/>
     </row>
     <row r="60" spans="1:52" ht="12" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
       <c r="F60" s="28" t="s">
         <v>14</v>
       </c>
@@ -4997,15 +5011,15 @@
       <c r="AZ60" s="32"/>
     </row>
     <row r="61" spans="1:52" ht="12" customHeight="1">
-      <c r="A61" s="70">
+      <c r="A61" s="78">
         <v>2</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="33" t="s">
         <v>13</v>
       </c>
@@ -5057,11 +5071,11 @@
       <c r="AZ61" s="11"/>
     </row>
     <row r="62" spans="1:52" ht="12" customHeight="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="37" t="s">
         <v>14</v>
       </c>
@@ -5113,15 +5127,15 @@
       <c r="AZ62" s="41"/>
     </row>
     <row r="63" spans="1:52" ht="12" customHeight="1">
-      <c r="A63" s="70">
+      <c r="A63" s="78">
         <v>3</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
       <c r="F63" s="21" t="s">
         <v>13</v>
       </c>
@@ -5173,11 +5187,11 @@
       <c r="AZ63" s="27"/>
     </row>
     <row r="64" spans="1:52" ht="12" customHeight="1">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
       <c r="F64" s="42" t="s">
         <v>14</v>
       </c>
@@ -5229,15 +5243,15 @@
       <c r="AZ64" s="32"/>
     </row>
     <row r="65" spans="1:52" ht="12" customHeight="1">
-      <c r="A65" s="70">
+      <c r="A65" s="78">
         <v>4</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="33" t="s">
         <v>13</v>
       </c>
@@ -5289,11 +5303,11 @@
       <c r="AZ65" s="11"/>
     </row>
     <row r="66" spans="1:52" ht="12" customHeight="1">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
       <c r="F66" s="37" t="s">
         <v>14</v>
       </c>
@@ -5345,13 +5359,13 @@
       <c r="AZ66" s="41"/>
     </row>
     <row r="67" spans="1:52" ht="12" customHeight="1">
-      <c r="A67" s="70">
+      <c r="A67" s="78">
         <v>5</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -5403,11 +5417,11 @@
       <c r="AZ67" s="27"/>
     </row>
     <row r="68" spans="1:52" ht="12" customHeight="1">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
       <c r="F68" s="42" t="s">
         <v>14</v>
       </c>
@@ -5459,13 +5473,13 @@
       <c r="AZ68" s="46"/>
     </row>
     <row r="69" spans="1:52" ht="12" customHeight="1">
-      <c r="A69" s="70">
+      <c r="A69" s="78">
         <v>6</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
       <c r="F69" s="33" t="s">
         <v>13</v>
       </c>
@@ -5517,11 +5531,11 @@
       <c r="AZ69" s="11"/>
     </row>
     <row r="70" spans="1:52" ht="12" customHeight="1">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
       <c r="F70" s="37" t="s">
         <v>14</v>
       </c>
@@ -5629,13 +5643,13 @@
       <c r="AZ71" s="20"/>
     </row>
     <row r="72" spans="1:52" ht="12" customHeight="1">
-      <c r="A72" s="70">
+      <c r="A72" s="78">
         <v>1</v>
       </c>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
       <c r="F72" s="21" t="s">
         <v>13</v>
       </c>
@@ -5687,11 +5701,11 @@
       <c r="AZ72" s="27"/>
     </row>
     <row r="73" spans="1:52" ht="12" customHeight="1">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
       <c r="F73" s="28" t="s">
         <v>14</v>
       </c>
@@ -5743,13 +5757,13 @@
       <c r="AZ73" s="32"/>
     </row>
     <row r="74" spans="1:52" ht="12" customHeight="1">
-      <c r="A74" s="70">
+      <c r="A74" s="78">
         <v>2</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
       <c r="F74" s="33" t="s">
         <v>13</v>
       </c>
@@ -5801,11 +5815,11 @@
       <c r="AZ74" s="11"/>
     </row>
     <row r="75" spans="1:52" ht="12" customHeight="1">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
       <c r="F75" s="37" t="s">
         <v>14</v>
       </c>
@@ -5857,13 +5871,13 @@
       <c r="AZ75" s="41"/>
     </row>
     <row r="76" spans="1:52" ht="12" customHeight="1">
-      <c r="A76" s="70">
+      <c r="A76" s="78">
         <v>3</v>
       </c>
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -5915,11 +5929,11 @@
       <c r="AZ76" s="27"/>
     </row>
     <row r="77" spans="1:52" ht="12" customHeight="1">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
       <c r="F77" s="42" t="s">
         <v>14</v>
       </c>
@@ -5971,13 +5985,13 @@
       <c r="AZ77" s="32"/>
     </row>
     <row r="78" spans="1:52" ht="12" customHeight="1">
-      <c r="A78" s="70">
+      <c r="A78" s="78">
         <v>4</v>
       </c>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
       <c r="F78" s="33" t="s">
         <v>13</v>
       </c>
@@ -6029,11 +6043,11 @@
       <c r="AZ78" s="11"/>
     </row>
     <row r="79" spans="1:52" ht="12" customHeight="1">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
+      <c r="A79" s="79"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
       <c r="F79" s="37" t="s">
         <v>14</v>
       </c>
@@ -6085,13 +6099,13 @@
       <c r="AZ79" s="41"/>
     </row>
     <row r="80" spans="1:52" ht="12" customHeight="1">
-      <c r="A80" s="70">
+      <c r="A80" s="78">
         <v>5</v>
       </c>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -6143,11 +6157,11 @@
       <c r="AZ80" s="27"/>
     </row>
     <row r="81" spans="1:52" ht="12" customHeight="1">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="42" t="s">
         <v>14</v>
       </c>
@@ -6199,13 +6213,13 @@
       <c r="AZ81" s="46"/>
     </row>
     <row r="82" spans="1:52" ht="12" customHeight="1">
-      <c r="A82" s="70">
+      <c r="A82" s="78">
         <v>6</v>
       </c>
-      <c r="B82" s="72"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
       <c r="F82" s="33" t="s">
         <v>13</v>
       </c>
@@ -6257,11 +6271,11 @@
       <c r="AZ82" s="11"/>
     </row>
     <row r="83" spans="1:52" ht="12" customHeight="1">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
+      <c r="A83" s="79"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
       <c r="F83" s="37" t="s">
         <v>14</v>
       </c>
@@ -6367,13 +6381,13 @@
       <c r="AZ84" s="20"/>
     </row>
     <row r="85" spans="1:52" ht="12" customHeight="1">
-      <c r="A85" s="70">
+      <c r="A85" s="78">
         <v>1</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
       <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
@@ -6425,11 +6439,11 @@
       <c r="AZ85" s="27"/>
     </row>
     <row r="86" spans="1:52" ht="12" customHeight="1">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
       <c r="F86" s="28" t="s">
         <v>14</v>
       </c>
@@ -6481,13 +6495,13 @@
       <c r="AZ86" s="32"/>
     </row>
     <row r="87" spans="1:52" ht="12" customHeight="1">
-      <c r="A87" s="70">
+      <c r="A87" s="78">
         <v>2</v>
       </c>
-      <c r="B87" s="72"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
       <c r="F87" s="33" t="s">
         <v>13</v>
       </c>
@@ -6539,11 +6553,11 @@
       <c r="AZ87" s="11"/>
     </row>
     <row r="88" spans="1:52" ht="12" customHeight="1">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
       <c r="F88" s="37" t="s">
         <v>14</v>
       </c>
@@ -6595,13 +6609,13 @@
       <c r="AZ88" s="41"/>
     </row>
     <row r="89" spans="1:52" ht="12" customHeight="1">
-      <c r="A89" s="70">
+      <c r="A89" s="78">
         <v>3</v>
       </c>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -6653,11 +6667,11 @@
       <c r="AZ89" s="27"/>
     </row>
     <row r="90" spans="1:52" ht="12" customHeight="1">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
       <c r="F90" s="42" t="s">
         <v>14</v>
       </c>
@@ -6709,13 +6723,13 @@
       <c r="AZ90" s="32"/>
     </row>
     <row r="91" spans="1:52" ht="12" customHeight="1">
-      <c r="A91" s="70">
+      <c r="A91" s="78">
         <v>4</v>
       </c>
-      <c r="B91" s="72"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="33" t="s">
         <v>13</v>
       </c>
@@ -6767,11 +6781,11 @@
       <c r="AZ91" s="11"/>
     </row>
     <row r="92" spans="1:52" ht="12" customHeight="1">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
       <c r="F92" s="42" t="s">
         <v>14</v>
       </c>
@@ -56288,24 +56302,203 @@
     </row>
   </sheetData>
   <mergeCells count="245">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="G3:R4"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="S3:AD4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="AE3:AP4"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AM6:AN6"/>
@@ -56330,209 +56523,30 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AE3:AP4"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:R4"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="S3:AD4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A66"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
+++ b/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E0EE9-F7EC-45CE-A610-801E6F7644B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8736AD95-1F09-460D-AFD2-B880FBB6B830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,26 +1145,38 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1184,15 +1196,6 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1207,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1435,7 +1435,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52:E53"/>
+      <selection pane="bottomRight" activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1559,58 +1559,58 @@
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="88" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="85">
+      <c r="G3" s="89">
         <v>45629</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="85">
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="89">
         <v>45630</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="85">
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="89">
         <v>45631</v>
       </c>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="87"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="91"/>
       <c r="AQ3" s="52"/>
       <c r="AR3" s="52"/>
       <c r="AS3" s="52"/>
@@ -1623,56 +1623,56 @@
       <c r="AZ3" s="52"/>
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="94" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="94"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
@@ -1685,84 +1685,84 @@
       <c r="AZ4" s="10"/>
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="83">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="84">
         <v>3</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="83">
+      <c r="H5" s="85"/>
+      <c r="I5" s="84">
         <v>4</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="83">
+      <c r="J5" s="85"/>
+      <c r="K5" s="84">
         <v>5</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="83">
+      <c r="L5" s="85"/>
+      <c r="M5" s="84">
         <v>6</v>
       </c>
-      <c r="N5" s="84"/>
-      <c r="O5" s="83">
+      <c r="N5" s="85"/>
+      <c r="O5" s="84">
         <v>7</v>
       </c>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="83">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="84">
         <v>8</v>
       </c>
-      <c r="R5" s="84"/>
-      <c r="S5" s="83">
+      <c r="R5" s="85"/>
+      <c r="S5" s="84">
         <v>9</v>
       </c>
-      <c r="T5" s="84"/>
-      <c r="U5" s="83">
+      <c r="T5" s="85"/>
+      <c r="U5" s="84">
         <v>10</v>
       </c>
-      <c r="V5" s="84"/>
-      <c r="W5" s="83">
+      <c r="V5" s="85"/>
+      <c r="W5" s="84">
         <v>11</v>
       </c>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="83">
+      <c r="X5" s="85"/>
+      <c r="Y5" s="84">
         <v>12</v>
       </c>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="83">
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="84">
         <v>13</v>
       </c>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="83">
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="84">
         <v>14</v>
       </c>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="83">
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="84">
         <v>15</v>
       </c>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="83">
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="84">
         <v>16</v>
       </c>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="83">
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="84">
         <v>17</v>
       </c>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="83">
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="84">
         <v>18</v>
       </c>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="83">
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="84">
         <v>19</v>
       </c>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="83">
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="84">
         <v>20</v>
       </c>
-      <c r="AP5" s="84"/>
+      <c r="AP5" s="85"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
@@ -1775,84 +1775,84 @@
       <c r="AZ5" s="10"/>
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="83" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="83" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="83" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="83" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="83" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="83" t="s">
+      <c r="P6" s="85"/>
+      <c r="Q6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="84"/>
-      <c r="S6" s="83" t="s">
+      <c r="R6" s="85"/>
+      <c r="S6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="84"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="85"/>
+      <c r="U6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="84"/>
-      <c r="W6" s="83" t="s">
+      <c r="V6" s="85"/>
+      <c r="W6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="83" t="s">
+      <c r="X6" s="85"/>
+      <c r="Y6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="83" t="s">
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="83" t="s">
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="83" t="s">
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="83" t="s">
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="83" t="s">
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="83" t="s">
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="83" t="s">
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="83" t="s">
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="84"/>
+      <c r="AP6" s="85"/>
     </row>
     <row r="7" spans="1:52" ht="12" customHeight="1">
       <c r="A7" s="13" t="s">
@@ -1911,15 +1911,15 @@
       <c r="AZ7" s="20"/>
     </row>
     <row r="8" spans="1:52" ht="12" customHeight="1">
-      <c r="A8" s="78">
+      <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
@@ -1971,11 +1971,11 @@
       <c r="AZ8" s="27"/>
     </row>
     <row r="9" spans="1:52" ht="12" customHeight="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="28" t="s">
         <v>14</v>
       </c>
@@ -2027,15 +2027,15 @@
       <c r="AZ9" s="32"/>
     </row>
     <row r="10" spans="1:52" ht="12" customHeight="1">
-      <c r="A10" s="78">
+      <c r="A10" s="81">
         <v>2</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="33" t="s">
         <v>13</v>
       </c>
@@ -2087,11 +2087,11 @@
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" ht="12" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="37" t="s">
         <v>14</v>
       </c>
@@ -2143,15 +2143,15 @@
       <c r="AZ11" s="41"/>
     </row>
     <row r="12" spans="1:52" ht="12" customHeight="1">
-      <c r="A12" s="78">
+      <c r="A12" s="81">
         <v>3</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2203,11 +2203,11 @@
       <c r="AZ12" s="27"/>
     </row>
     <row r="13" spans="1:52" ht="12" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="42" t="s">
         <v>14</v>
       </c>
@@ -2259,15 +2259,15 @@
       <c r="AZ13" s="32"/>
     </row>
     <row r="14" spans="1:52" ht="12" customHeight="1">
-      <c r="A14" s="78">
+      <c r="A14" s="81">
         <v>4</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="33" t="s">
         <v>13</v>
       </c>
@@ -2319,11 +2319,11 @@
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" ht="12" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="37" t="s">
         <v>14</v>
       </c>
@@ -2375,15 +2375,15 @@
       <c r="AZ15" s="41"/>
     </row>
     <row r="16" spans="1:52" ht="12" customHeight="1">
-      <c r="A16" s="78">
+      <c r="A16" s="81">
         <v>5</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2435,11 +2435,11 @@
       <c r="AZ16" s="27"/>
     </row>
     <row r="17" spans="1:52" ht="12" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="42" t="s">
         <v>14</v>
       </c>
@@ -2491,15 +2491,15 @@
       <c r="AZ17" s="46"/>
     </row>
     <row r="18" spans="1:52" ht="12" customHeight="1">
-      <c r="A18" s="78">
+      <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="80"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="33" t="s">
         <v>13</v>
       </c>
@@ -2551,11 +2551,11 @@
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" ht="12" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2607,15 +2607,15 @@
       <c r="AZ19" s="46"/>
     </row>
     <row r="20" spans="1:52" ht="12" customHeight="1">
-      <c r="A20" s="78">
+      <c r="A20" s="81">
         <v>7</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="80"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="33" t="s">
         <v>13</v>
       </c>
@@ -2667,11 +2667,11 @@
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" ht="12" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="28" t="s">
         <v>14</v>
       </c>
@@ -2723,15 +2723,15 @@
       <c r="AZ21" s="46"/>
     </row>
     <row r="22" spans="1:52" ht="12" customHeight="1">
-      <c r="A22" s="78">
+      <c r="A22" s="81">
         <v>8</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2783,11 +2783,11 @@
       <c r="AZ22" s="27"/>
     </row>
     <row r="23" spans="1:52" ht="12" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
@@ -2895,17 +2895,17 @@
       <c r="AZ24" s="20"/>
     </row>
     <row r="25" spans="1:52" ht="12" customHeight="1">
-      <c r="A25" s="78">
+      <c r="A25" s="81">
         <v>1</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="80"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="21" t="s">
         <v>13</v>
       </c>
@@ -2957,11 +2957,11 @@
       <c r="AZ25" s="27"/>
     </row>
     <row r="26" spans="1:52" ht="12" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="28" t="s">
         <v>14</v>
       </c>
@@ -3013,17 +3013,17 @@
       <c r="AZ26" s="32"/>
     </row>
     <row r="27" spans="1:52" ht="12" customHeight="1">
-      <c r="A27" s="78">
+      <c r="A27" s="81">
         <v>2</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="33" t="s">
         <v>13</v>
       </c>
@@ -3075,11 +3075,11 @@
       <c r="AZ27" s="11"/>
     </row>
     <row r="28" spans="1:52" ht="12" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="37" t="s">
         <v>14</v>
       </c>
@@ -3131,17 +3131,17 @@
       <c r="AZ28" s="41"/>
     </row>
     <row r="29" spans="1:52" ht="12" customHeight="1">
-      <c r="A29" s="78">
+      <c r="A29" s="81">
         <v>3</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80" t="s">
+      <c r="C29" s="79"/>
+      <c r="D29" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="21" t="s">
         <v>13</v>
       </c>
@@ -3193,11 +3193,11 @@
       <c r="AZ29" s="27"/>
     </row>
     <row r="30" spans="1:52" ht="12" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="42" t="s">
         <v>14</v>
       </c>
@@ -3249,17 +3249,17 @@
       <c r="AZ30" s="32"/>
     </row>
     <row r="31" spans="1:52" ht="12" customHeight="1">
-      <c r="A31" s="78">
+      <c r="A31" s="81">
         <v>4</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80" t="s">
+      <c r="C31" s="79"/>
+      <c r="D31" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="33" t="s">
         <v>13</v>
       </c>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="32" spans="1:52" ht="12" customHeight="1">
       <c r="A32" s="82"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="37" t="s">
         <v>14</v>
       </c>
@@ -3367,17 +3367,17 @@
       <c r="AZ32" s="41"/>
     </row>
     <row r="33" spans="1:52" ht="12" customHeight="1">
-      <c r="A33" s="78">
+      <c r="A33" s="81">
         <v>5</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="21" t="s">
         <v>13</v>
       </c>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="34" spans="1:52" ht="12" customHeight="1">
       <c r="A34" s="82"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
       <c r="F34" s="42" t="s">
         <v>14</v>
       </c>
@@ -3485,17 +3485,17 @@
       <c r="AZ34" s="46"/>
     </row>
     <row r="35" spans="1:52" ht="12" customHeight="1">
-      <c r="A35" s="78">
+      <c r="A35" s="81">
         <v>6</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="80"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="33" t="s">
         <v>13</v>
       </c>
@@ -3547,11 +3547,11 @@
       <c r="AZ35" s="11"/>
     </row>
     <row r="36" spans="1:52" ht="12" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="37" t="s">
         <v>14</v>
       </c>
@@ -3603,17 +3603,17 @@
       <c r="AZ36" s="12"/>
     </row>
     <row r="37" spans="1:52" ht="12" customHeight="1">
-      <c r="A37" s="78">
+      <c r="A37" s="81">
         <v>7</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80" t="s">
+      <c r="C37" s="79"/>
+      <c r="D37" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="33" t="s">
         <v>13</v>
       </c>
@@ -3665,11 +3665,11 @@
       <c r="AZ37" s="11"/>
     </row>
     <row r="38" spans="1:52" ht="12" customHeight="1">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="37" t="s">
         <v>14</v>
       </c>
@@ -3721,17 +3721,17 @@
       <c r="AZ38" s="12"/>
     </row>
     <row r="39" spans="1:52" ht="12" customHeight="1">
-      <c r="A39" s="78">
+      <c r="A39" s="81">
         <v>8</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80" t="s">
+      <c r="C39" s="79"/>
+      <c r="D39" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="80"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="33" t="s">
         <v>13</v>
       </c>
@@ -3783,11 +3783,11 @@
       <c r="AZ39" s="11"/>
     </row>
     <row r="40" spans="1:52" ht="12" customHeight="1">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
       <c r="F40" s="37" t="s">
         <v>14</v>
       </c>
@@ -3839,17 +3839,17 @@
       <c r="AZ40" s="12"/>
     </row>
     <row r="41" spans="1:52" ht="12" customHeight="1">
-      <c r="A41" s="78">
+      <c r="A41" s="81">
         <v>1</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="80"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="21" t="s">
         <v>13</v>
       </c>
@@ -3901,11 +3901,11 @@
       <c r="AZ41" s="27"/>
     </row>
     <row r="42" spans="1:52" ht="12" customHeight="1">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
       <c r="F42" s="28" t="s">
         <v>14</v>
       </c>
@@ -3957,17 +3957,17 @@
       <c r="AZ42" s="32"/>
     </row>
     <row r="43" spans="1:52" ht="12" customHeight="1">
-      <c r="A43" s="78">
+      <c r="A43" s="81">
         <v>1</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80" t="s">
+      <c r="C43" s="79"/>
+      <c r="D43" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="80"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="21" t="s">
         <v>13</v>
       </c>
@@ -4019,11 +4019,11 @@
       <c r="AZ43" s="27"/>
     </row>
     <row r="44" spans="1:52" ht="12" customHeight="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="28" t="s">
         <v>14</v>
       </c>
@@ -4131,17 +4131,17 @@
       <c r="AZ45" s="20"/>
     </row>
     <row r="46" spans="1:52" ht="12" customHeight="1">
-      <c r="A46" s="78">
+      <c r="A46" s="81">
         <v>1</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80" t="s">
+      <c r="C46" s="79"/>
+      <c r="D46" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="80"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="21" t="s">
         <v>13</v>
       </c>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="47" spans="1:52" ht="12" customHeight="1">
       <c r="A47" s="82"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="28" t="s">
         <v>14</v>
       </c>
@@ -4214,7 +4214,7 @@
       <c r="Q47" s="30"/>
       <c r="R47" s="31"/>
       <c r="S47" s="62"/>
-      <c r="T47" s="99"/>
+      <c r="T47" s="78"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
       <c r="W47" s="30"/>
@@ -4249,17 +4249,17 @@
       <c r="AZ47" s="32"/>
     </row>
     <row r="48" spans="1:52" ht="12" customHeight="1">
-      <c r="A48" s="78">
+      <c r="A48" s="81">
         <v>2</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="80"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="33" t="s">
         <v>13</v>
       </c>
@@ -4311,11 +4311,11 @@
       <c r="AZ48" s="11"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="37" t="s">
         <v>14</v>
       </c>
@@ -4333,8 +4333,8 @@
       <c r="R49" s="40"/>
       <c r="S49" s="38"/>
       <c r="T49" s="54"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
       <c r="Y49" s="39"/>
@@ -4367,17 +4367,17 @@
       <c r="AZ49" s="41"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
-      <c r="A50" s="78">
+      <c r="A50" s="81">
         <v>3</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="80"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="21" t="s">
         <v>13</v>
       </c>
@@ -4429,11 +4429,11 @@
       <c r="AZ50" s="27"/>
     </row>
     <row r="51" spans="1:52" ht="12" customHeight="1">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="42" t="s">
         <v>14</v>
       </c>
@@ -4451,8 +4451,8 @@
       <c r="R51" s="45"/>
       <c r="S51" s="43"/>
       <c r="T51" s="65"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
+      <c r="U51" s="65"/>
+      <c r="V51" s="65"/>
       <c r="W51" s="44"/>
       <c r="X51" s="44"/>
       <c r="Y51" s="44"/>
@@ -4485,17 +4485,17 @@
       <c r="AZ51" s="32"/>
     </row>
     <row r="52" spans="1:52" ht="12" customHeight="1">
-      <c r="A52" s="78">
+      <c r="A52" s="81">
         <v>4</v>
       </c>
       <c r="B52" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80" t="s">
+      <c r="C52" s="79"/>
+      <c r="D52" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="80"/>
+      <c r="E52" s="79"/>
       <c r="F52" s="21" t="s">
         <v>13</v>
       </c>
@@ -4547,11 +4547,11 @@
       <c r="AZ52" s="27"/>
     </row>
     <row r="53" spans="1:52" ht="12" customHeight="1">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="42" t="s">
         <v>14</v>
       </c>
@@ -4603,17 +4603,17 @@
       <c r="AZ53" s="46"/>
     </row>
     <row r="54" spans="1:52" ht="12" customHeight="1">
-      <c r="A54" s="78">
+      <c r="A54" s="81">
         <v>5</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80" t="s">
+      <c r="C54" s="79"/>
+      <c r="D54" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="80"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="21" t="s">
         <v>13</v>
       </c>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="55" spans="1:52" ht="12" customHeight="1">
       <c r="A55" s="82"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
       <c r="F55" s="28" t="s">
         <v>14</v>
       </c>
@@ -4721,17 +4721,17 @@
       <c r="AZ55" s="32"/>
     </row>
     <row r="56" spans="1:52" ht="12" customHeight="1">
-      <c r="A56" s="78">
+      <c r="A56" s="81">
         <v>6</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80" t="s">
+      <c r="C56" s="79"/>
+      <c r="D56" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="80"/>
+      <c r="E56" s="79"/>
       <c r="F56" s="21" t="s">
         <v>13</v>
       </c>
@@ -4783,11 +4783,11 @@
       <c r="AZ56" s="27"/>
     </row>
     <row r="57" spans="1:52" ht="12" customHeight="1">
-      <c r="A57" s="79"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
       <c r="F57" s="28" t="s">
         <v>14</v>
       </c>
@@ -4895,15 +4895,15 @@
       <c r="AZ58" s="20"/>
     </row>
     <row r="59" spans="1:52" ht="12" customHeight="1">
-      <c r="A59" s="78">
+      <c r="A59" s="81">
         <v>1</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
       <c r="F59" s="21" t="s">
         <v>13</v>
       </c>
@@ -4955,11 +4955,11 @@
       <c r="AZ59" s="27"/>
     </row>
     <row r="60" spans="1:52" ht="12" customHeight="1">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="28" t="s">
         <v>14</v>
       </c>
@@ -5011,15 +5011,15 @@
       <c r="AZ60" s="32"/>
     </row>
     <row r="61" spans="1:52" ht="12" customHeight="1">
-      <c r="A61" s="78">
+      <c r="A61" s="81">
         <v>2</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
       <c r="F61" s="33" t="s">
         <v>13</v>
       </c>
@@ -5071,11 +5071,11 @@
       <c r="AZ61" s="11"/>
     </row>
     <row r="62" spans="1:52" ht="12" customHeight="1">
-      <c r="A62" s="79"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="37" t="s">
         <v>14</v>
       </c>
@@ -5127,15 +5127,15 @@
       <c r="AZ62" s="41"/>
     </row>
     <row r="63" spans="1:52" ht="12" customHeight="1">
-      <c r="A63" s="78">
+      <c r="A63" s="81">
         <v>3</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
       <c r="F63" s="21" t="s">
         <v>13</v>
       </c>
@@ -5187,11 +5187,11 @@
       <c r="AZ63" s="27"/>
     </row>
     <row r="64" spans="1:52" ht="12" customHeight="1">
-      <c r="A64" s="79"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
       <c r="F64" s="42" t="s">
         <v>14</v>
       </c>
@@ -5243,15 +5243,15 @@
       <c r="AZ64" s="32"/>
     </row>
     <row r="65" spans="1:52" ht="12" customHeight="1">
-      <c r="A65" s="78">
+      <c r="A65" s="81">
         <v>4</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="33" t="s">
         <v>13</v>
       </c>
@@ -5303,11 +5303,11 @@
       <c r="AZ65" s="11"/>
     </row>
     <row r="66" spans="1:52" ht="12" customHeight="1">
-      <c r="A66" s="79"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
+      <c r="A66" s="80"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
       <c r="F66" s="37" t="s">
         <v>14</v>
       </c>
@@ -5359,13 +5359,13 @@
       <c r="AZ66" s="41"/>
     </row>
     <row r="67" spans="1:52" ht="12" customHeight="1">
-      <c r="A67" s="78">
+      <c r="A67" s="81">
         <v>5</v>
       </c>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -5417,11 +5417,11 @@
       <c r="AZ67" s="27"/>
     </row>
     <row r="68" spans="1:52" ht="12" customHeight="1">
-      <c r="A68" s="79"/>
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
+      <c r="A68" s="80"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
       <c r="F68" s="42" t="s">
         <v>14</v>
       </c>
@@ -5473,13 +5473,13 @@
       <c r="AZ68" s="46"/>
     </row>
     <row r="69" spans="1:52" ht="12" customHeight="1">
-      <c r="A69" s="78">
+      <c r="A69" s="81">
         <v>6</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
       <c r="F69" s="33" t="s">
         <v>13</v>
       </c>
@@ -5531,11 +5531,11 @@
       <c r="AZ69" s="11"/>
     </row>
     <row r="70" spans="1:52" ht="12" customHeight="1">
-      <c r="A70" s="79"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
+      <c r="A70" s="80"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
       <c r="F70" s="37" t="s">
         <v>14</v>
       </c>
@@ -5643,13 +5643,13 @@
       <c r="AZ71" s="20"/>
     </row>
     <row r="72" spans="1:52" ht="12" customHeight="1">
-      <c r="A72" s="78">
+      <c r="A72" s="81">
         <v>1</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="21" t="s">
         <v>13</v>
       </c>
@@ -5701,11 +5701,11 @@
       <c r="AZ72" s="27"/>
     </row>
     <row r="73" spans="1:52" ht="12" customHeight="1">
-      <c r="A73" s="79"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
       <c r="F73" s="28" t="s">
         <v>14</v>
       </c>
@@ -5757,13 +5757,13 @@
       <c r="AZ73" s="32"/>
     </row>
     <row r="74" spans="1:52" ht="12" customHeight="1">
-      <c r="A74" s="78">
+      <c r="A74" s="81">
         <v>2</v>
       </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
       <c r="F74" s="33" t="s">
         <v>13</v>
       </c>
@@ -5815,11 +5815,11 @@
       <c r="AZ74" s="11"/>
     </row>
     <row r="75" spans="1:52" ht="12" customHeight="1">
-      <c r="A75" s="79"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
+      <c r="A75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
       <c r="F75" s="37" t="s">
         <v>14</v>
       </c>
@@ -5871,13 +5871,13 @@
       <c r="AZ75" s="41"/>
     </row>
     <row r="76" spans="1:52" ht="12" customHeight="1">
-      <c r="A76" s="78">
+      <c r="A76" s="81">
         <v>3</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -5929,11 +5929,11 @@
       <c r="AZ76" s="27"/>
     </row>
     <row r="77" spans="1:52" ht="12" customHeight="1">
-      <c r="A77" s="79"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
+      <c r="A77" s="80"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
       <c r="F77" s="42" t="s">
         <v>14</v>
       </c>
@@ -5985,13 +5985,13 @@
       <c r="AZ77" s="32"/>
     </row>
     <row r="78" spans="1:52" ht="12" customHeight="1">
-      <c r="A78" s="78">
+      <c r="A78" s="81">
         <v>4</v>
       </c>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
       <c r="F78" s="33" t="s">
         <v>13</v>
       </c>
@@ -6043,11 +6043,11 @@
       <c r="AZ78" s="11"/>
     </row>
     <row r="79" spans="1:52" ht="12" customHeight="1">
-      <c r="A79" s="79"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
+      <c r="A79" s="80"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
       <c r="F79" s="37" t="s">
         <v>14</v>
       </c>
@@ -6099,13 +6099,13 @@
       <c r="AZ79" s="41"/>
     </row>
     <row r="80" spans="1:52" ht="12" customHeight="1">
-      <c r="A80" s="78">
+      <c r="A80" s="81">
         <v>5</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -6157,11 +6157,11 @@
       <c r="AZ80" s="27"/>
     </row>
     <row r="81" spans="1:52" ht="12" customHeight="1">
-      <c r="A81" s="79"/>
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
+      <c r="A81" s="80"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
       <c r="F81" s="42" t="s">
         <v>14</v>
       </c>
@@ -6213,13 +6213,13 @@
       <c r="AZ81" s="46"/>
     </row>
     <row r="82" spans="1:52" ht="12" customHeight="1">
-      <c r="A82" s="78">
+      <c r="A82" s="81">
         <v>6</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
       <c r="F82" s="33" t="s">
         <v>13</v>
       </c>
@@ -6271,11 +6271,11 @@
       <c r="AZ82" s="11"/>
     </row>
     <row r="83" spans="1:52" ht="12" customHeight="1">
-      <c r="A83" s="79"/>
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
       <c r="F83" s="37" t="s">
         <v>14</v>
       </c>
@@ -6381,13 +6381,13 @@
       <c r="AZ84" s="20"/>
     </row>
     <row r="85" spans="1:52" ht="12" customHeight="1">
-      <c r="A85" s="78">
+      <c r="A85" s="81">
         <v>1</v>
       </c>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
       <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
@@ -6439,11 +6439,11 @@
       <c r="AZ85" s="27"/>
     </row>
     <row r="86" spans="1:52" ht="12" customHeight="1">
-      <c r="A86" s="79"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="79"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
       <c r="F86" s="28" t="s">
         <v>14</v>
       </c>
@@ -6495,13 +6495,13 @@
       <c r="AZ86" s="32"/>
     </row>
     <row r="87" spans="1:52" ht="12" customHeight="1">
-      <c r="A87" s="78">
+      <c r="A87" s="81">
         <v>2</v>
       </c>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
       <c r="F87" s="33" t="s">
         <v>13</v>
       </c>
@@ -6553,11 +6553,11 @@
       <c r="AZ87" s="11"/>
     </row>
     <row r="88" spans="1:52" ht="12" customHeight="1">
-      <c r="A88" s="79"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
+      <c r="A88" s="80"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
       <c r="F88" s="37" t="s">
         <v>14</v>
       </c>
@@ -6609,13 +6609,13 @@
       <c r="AZ88" s="41"/>
     </row>
     <row r="89" spans="1:52" ht="12" customHeight="1">
-      <c r="A89" s="78">
+      <c r="A89" s="81">
         <v>3</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -6667,11 +6667,11 @@
       <c r="AZ89" s="27"/>
     </row>
     <row r="90" spans="1:52" ht="12" customHeight="1">
-      <c r="A90" s="79"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
+      <c r="A90" s="80"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
       <c r="F90" s="42" t="s">
         <v>14</v>
       </c>
@@ -6723,13 +6723,13 @@
       <c r="AZ90" s="32"/>
     </row>
     <row r="91" spans="1:52" ht="12" customHeight="1">
-      <c r="A91" s="78">
+      <c r="A91" s="81">
         <v>4</v>
       </c>
-      <c r="B91" s="80"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
       <c r="F91" s="33" t="s">
         <v>13</v>
       </c>
@@ -6781,11 +6781,11 @@
       <c r="AZ91" s="11"/>
     </row>
     <row r="92" spans="1:52" ht="12" customHeight="1">
-      <c r="A92" s="79"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="79"/>
+      <c r="A92" s="80"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
       <c r="F92" s="42" t="s">
         <v>14</v>
       </c>
@@ -56302,44 +56302,188 @@
     </row>
   </sheetData>
   <mergeCells count="245">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="AE3:AP4"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="G3:R4"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="S3:AD4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -56364,189 +56508,45 @@
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:R4"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="S3:AD4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="AE3:AP4"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
+++ b/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8736AD95-1F09-460D-AFD2-B880FBB6B830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AEFCBF-8233-4F61-B1B9-500487CF824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1142,9 +1142,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,26 +1154,17 @@
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1196,6 +1184,18 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,10 +1429,10 @@
   <dimension ref="A1:AZ1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V51" sqref="V51"/>
+      <selection pane="bottomRight" activeCell="Y63" sqref="Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1559,58 +1556,58 @@
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="94" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="89">
+      <c r="G3" s="85">
         <v>45629</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="89">
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="85">
         <v>45630</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="89">
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="85">
         <v>45631</v>
       </c>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="91"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="87"/>
       <c r="AQ3" s="52"/>
       <c r="AR3" s="52"/>
       <c r="AS3" s="52"/>
@@ -1623,12 +1620,12 @@
       <c r="AZ3" s="52"/>
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="92" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="99" t="s">
@@ -1637,42 +1634,42 @@
       <c r="F4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="94"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="90"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
@@ -1685,84 +1682,84 @@
       <c r="AZ4" s="10"/>
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="97"/>
-      <c r="G5" s="84">
+      <c r="G5" s="83">
         <v>3</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="84">
+      <c r="H5" s="84"/>
+      <c r="I5" s="83">
         <v>4</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="84">
+      <c r="J5" s="84"/>
+      <c r="K5" s="83">
         <v>5</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="84">
+      <c r="L5" s="84"/>
+      <c r="M5" s="83">
         <v>6</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="84">
+      <c r="N5" s="84"/>
+      <c r="O5" s="83">
         <v>7</v>
       </c>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="84">
+      <c r="P5" s="84"/>
+      <c r="Q5" s="83">
         <v>8</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="84">
+      <c r="R5" s="84"/>
+      <c r="S5" s="83">
         <v>9</v>
       </c>
-      <c r="T5" s="85"/>
-      <c r="U5" s="84">
+      <c r="T5" s="84"/>
+      <c r="U5" s="83">
         <v>10</v>
       </c>
-      <c r="V5" s="85"/>
-      <c r="W5" s="84">
+      <c r="V5" s="84"/>
+      <c r="W5" s="83">
         <v>11</v>
       </c>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="84">
+      <c r="X5" s="84"/>
+      <c r="Y5" s="83">
         <v>12</v>
       </c>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="84">
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="83">
         <v>13</v>
       </c>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="84">
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="83">
         <v>14</v>
       </c>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="84">
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="83">
         <v>15</v>
       </c>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="84">
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="83">
         <v>16</v>
       </c>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="84">
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="83">
         <v>17</v>
       </c>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="84">
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="83">
         <v>18</v>
       </c>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="84">
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="83">
         <v>19</v>
       </c>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="84">
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="83">
         <v>20</v>
       </c>
-      <c r="AP5" s="85"/>
+      <c r="AP5" s="84"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
@@ -1775,84 +1772,84 @@
       <c r="AZ5" s="10"/>
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="98"/>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="84" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="84" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="84" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="84" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="84" t="s">
+      <c r="P6" s="84"/>
+      <c r="Q6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="85"/>
-      <c r="S6" s="84" t="s">
+      <c r="R6" s="84"/>
+      <c r="S6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="85"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="84"/>
+      <c r="U6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="85"/>
-      <c r="W6" s="84" t="s">
+      <c r="V6" s="84"/>
+      <c r="W6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="84" t="s">
+      <c r="X6" s="84"/>
+      <c r="Y6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="84" t="s">
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="84" t="s">
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="84" t="s">
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="84" t="s">
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="84" t="s">
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="84" t="s">
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="84" t="s">
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="84" t="s">
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="85"/>
+      <c r="AP6" s="84"/>
     </row>
     <row r="7" spans="1:52" ht="12" customHeight="1">
       <c r="A7" s="13" t="s">
@@ -1911,15 +1908,15 @@
       <c r="AZ7" s="20"/>
     </row>
     <row r="8" spans="1:52" ht="12" customHeight="1">
-      <c r="A8" s="81">
+      <c r="A8" s="80">
         <v>1</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="79"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
@@ -1971,11 +1968,11 @@
       <c r="AZ8" s="27"/>
     </row>
     <row r="9" spans="1:52" ht="12" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="28" t="s">
         <v>14</v>
       </c>
@@ -2027,15 +2024,15 @@
       <c r="AZ9" s="32"/>
     </row>
     <row r="10" spans="1:52" ht="12" customHeight="1">
-      <c r="A10" s="81">
+      <c r="A10" s="80">
         <v>2</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="79"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="33" t="s">
         <v>13</v>
       </c>
@@ -2087,11 +2084,11 @@
       <c r="AZ10" s="11"/>
     </row>
     <row r="11" spans="1:52" ht="12" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="37" t="s">
         <v>14</v>
       </c>
@@ -2143,15 +2140,15 @@
       <c r="AZ11" s="41"/>
     </row>
     <row r="12" spans="1:52" ht="12" customHeight="1">
-      <c r="A12" s="81">
+      <c r="A12" s="80">
         <v>3</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="79"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2203,11 +2200,11 @@
       <c r="AZ12" s="27"/>
     </row>
     <row r="13" spans="1:52" ht="12" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="42" t="s">
         <v>14</v>
       </c>
@@ -2259,15 +2256,15 @@
       <c r="AZ13" s="32"/>
     </row>
     <row r="14" spans="1:52" ht="12" customHeight="1">
-      <c r="A14" s="81">
+      <c r="A14" s="80">
         <v>4</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="33" t="s">
         <v>13</v>
       </c>
@@ -2319,11 +2316,11 @@
       <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" ht="12" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="37" t="s">
         <v>14</v>
       </c>
@@ -2375,15 +2372,15 @@
       <c r="AZ15" s="41"/>
     </row>
     <row r="16" spans="1:52" ht="12" customHeight="1">
-      <c r="A16" s="81">
+      <c r="A16" s="80">
         <v>5</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="79"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2435,11 +2432,11 @@
       <c r="AZ16" s="27"/>
     </row>
     <row r="17" spans="1:52" ht="12" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="42" t="s">
         <v>14</v>
       </c>
@@ -2491,15 +2488,15 @@
       <c r="AZ17" s="46"/>
     </row>
     <row r="18" spans="1:52" ht="12" customHeight="1">
-      <c r="A18" s="81">
+      <c r="A18" s="80">
         <v>6</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="79"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="33" t="s">
         <v>13</v>
       </c>
@@ -2551,11 +2548,11 @@
       <c r="AZ18" s="11"/>
     </row>
     <row r="19" spans="1:52" ht="12" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2607,15 +2604,15 @@
       <c r="AZ19" s="46"/>
     </row>
     <row r="20" spans="1:52" ht="12" customHeight="1">
-      <c r="A20" s="81">
+      <c r="A20" s="80">
         <v>7</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="79"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="33" t="s">
         <v>13</v>
       </c>
@@ -2667,11 +2664,11 @@
       <c r="AZ20" s="11"/>
     </row>
     <row r="21" spans="1:52" ht="12" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="28" t="s">
         <v>14</v>
       </c>
@@ -2723,15 +2720,15 @@
       <c r="AZ21" s="46"/>
     </row>
     <row r="22" spans="1:52" ht="12" customHeight="1">
-      <c r="A22" s="81">
+      <c r="A22" s="80">
         <v>8</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="79"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2783,11 +2780,11 @@
       <c r="AZ22" s="27"/>
     </row>
     <row r="23" spans="1:52" ht="12" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
@@ -2895,17 +2892,17 @@
       <c r="AZ24" s="20"/>
     </row>
     <row r="25" spans="1:52" ht="12" customHeight="1">
-      <c r="A25" s="81">
+      <c r="A25" s="80">
         <v>1</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79" t="s">
+      <c r="C25" s="78"/>
+      <c r="D25" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="79"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="21" t="s">
         <v>13</v>
       </c>
@@ -2957,11 +2954,11 @@
       <c r="AZ25" s="27"/>
     </row>
     <row r="26" spans="1:52" ht="12" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="28" t="s">
         <v>14</v>
       </c>
@@ -3013,17 +3010,17 @@
       <c r="AZ26" s="32"/>
     </row>
     <row r="27" spans="1:52" ht="12" customHeight="1">
-      <c r="A27" s="81">
+      <c r="A27" s="80">
         <v>2</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79" t="s">
+      <c r="C27" s="78"/>
+      <c r="D27" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="79"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="33" t="s">
         <v>13</v>
       </c>
@@ -3075,11 +3072,11 @@
       <c r="AZ27" s="11"/>
     </row>
     <row r="28" spans="1:52" ht="12" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="37" t="s">
         <v>14</v>
       </c>
@@ -3131,17 +3128,17 @@
       <c r="AZ28" s="41"/>
     </row>
     <row r="29" spans="1:52" ht="12" customHeight="1">
-      <c r="A29" s="81">
+      <c r="A29" s="80">
         <v>3</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79" t="s">
+      <c r="C29" s="78"/>
+      <c r="D29" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="79"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="21" t="s">
         <v>13</v>
       </c>
@@ -3193,11 +3190,11 @@
       <c r="AZ29" s="27"/>
     </row>
     <row r="30" spans="1:52" ht="12" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="42" t="s">
         <v>14</v>
       </c>
@@ -3249,17 +3246,17 @@
       <c r="AZ30" s="32"/>
     </row>
     <row r="31" spans="1:52" ht="12" customHeight="1">
-      <c r="A31" s="81">
+      <c r="A31" s="80">
         <v>4</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79" t="s">
+      <c r="C31" s="78"/>
+      <c r="D31" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="79"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="33" t="s">
         <v>13</v>
       </c>
@@ -3312,10 +3309,10 @@
     </row>
     <row r="32" spans="1:52" ht="12" customHeight="1">
       <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="37" t="s">
         <v>14</v>
       </c>
@@ -3367,17 +3364,17 @@
       <c r="AZ32" s="41"/>
     </row>
     <row r="33" spans="1:52" ht="12" customHeight="1">
-      <c r="A33" s="81">
+      <c r="A33" s="80">
         <v>5</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79" t="s">
+      <c r="C33" s="78"/>
+      <c r="D33" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="79"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="21" t="s">
         <v>13</v>
       </c>
@@ -3430,10 +3427,10 @@
     </row>
     <row r="34" spans="1:52" ht="12" customHeight="1">
       <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="42" t="s">
         <v>14</v>
       </c>
@@ -3485,17 +3482,17 @@
       <c r="AZ34" s="46"/>
     </row>
     <row r="35" spans="1:52" ht="12" customHeight="1">
-      <c r="A35" s="81">
+      <c r="A35" s="80">
         <v>6</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="79"/>
+      <c r="E35" s="78"/>
       <c r="F35" s="33" t="s">
         <v>13</v>
       </c>
@@ -3547,11 +3544,11 @@
       <c r="AZ35" s="11"/>
     </row>
     <row r="36" spans="1:52" ht="12" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="37" t="s">
         <v>14</v>
       </c>
@@ -3603,17 +3600,17 @@
       <c r="AZ36" s="12"/>
     </row>
     <row r="37" spans="1:52" ht="12" customHeight="1">
-      <c r="A37" s="81">
+      <c r="A37" s="80">
         <v>7</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="79"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="33" t="s">
         <v>13</v>
       </c>
@@ -3665,11 +3662,11 @@
       <c r="AZ37" s="11"/>
     </row>
     <row r="38" spans="1:52" ht="12" customHeight="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="37" t="s">
         <v>14</v>
       </c>
@@ -3721,17 +3718,17 @@
       <c r="AZ38" s="12"/>
     </row>
     <row r="39" spans="1:52" ht="12" customHeight="1">
-      <c r="A39" s="81">
+      <c r="A39" s="80">
         <v>8</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="78"/>
+      <c r="D39" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="79"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="33" t="s">
         <v>13</v>
       </c>
@@ -3783,11 +3780,11 @@
       <c r="AZ39" s="11"/>
     </row>
     <row r="40" spans="1:52" ht="12" customHeight="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="37" t="s">
         <v>14</v>
       </c>
@@ -3839,17 +3836,17 @@
       <c r="AZ40" s="12"/>
     </row>
     <row r="41" spans="1:52" ht="12" customHeight="1">
-      <c r="A41" s="81">
+      <c r="A41" s="80">
         <v>1</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="79"/>
+      <c r="E41" s="78"/>
       <c r="F41" s="21" t="s">
         <v>13</v>
       </c>
@@ -3901,11 +3898,11 @@
       <c r="AZ41" s="27"/>
     </row>
     <row r="42" spans="1:52" ht="12" customHeight="1">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="28" t="s">
         <v>14</v>
       </c>
@@ -3957,17 +3954,17 @@
       <c r="AZ42" s="32"/>
     </row>
     <row r="43" spans="1:52" ht="12" customHeight="1">
-      <c r="A43" s="81">
+      <c r="A43" s="80">
         <v>1</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="79"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="21" t="s">
         <v>13</v>
       </c>
@@ -4019,11 +4016,11 @@
       <c r="AZ43" s="27"/>
     </row>
     <row r="44" spans="1:52" ht="12" customHeight="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="28" t="s">
         <v>14</v>
       </c>
@@ -4131,17 +4128,17 @@
       <c r="AZ45" s="20"/>
     </row>
     <row r="46" spans="1:52" ht="12" customHeight="1">
-      <c r="A46" s="81">
+      <c r="A46" s="80">
         <v>1</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="79"/>
+      <c r="E46" s="78"/>
       <c r="F46" s="21" t="s">
         <v>13</v>
       </c>
@@ -4194,10 +4191,10 @@
     </row>
     <row r="47" spans="1:52" ht="12" customHeight="1">
       <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
       <c r="F47" s="28" t="s">
         <v>14</v>
       </c>
@@ -4214,7 +4211,7 @@
       <c r="Q47" s="30"/>
       <c r="R47" s="31"/>
       <c r="S47" s="62"/>
-      <c r="T47" s="78"/>
+      <c r="T47" s="77"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
       <c r="W47" s="30"/>
@@ -4249,17 +4246,17 @@
       <c r="AZ47" s="32"/>
     </row>
     <row r="48" spans="1:52" ht="12" customHeight="1">
-      <c r="A48" s="81">
+      <c r="A48" s="80">
         <v>2</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79" t="s">
+      <c r="C48" s="78"/>
+      <c r="D48" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="79"/>
+      <c r="E48" s="78"/>
       <c r="F48" s="33" t="s">
         <v>13</v>
       </c>
@@ -4311,11 +4308,11 @@
       <c r="AZ48" s="11"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="37" t="s">
         <v>14</v>
       </c>
@@ -4335,12 +4332,12 @@
       <c r="T49" s="54"/>
       <c r="U49" s="54"/>
       <c r="V49" s="54"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54"/>
       <c r="AC49" s="39"/>
       <c r="AD49" s="39"/>
       <c r="AE49" s="39"/>
@@ -4367,17 +4364,17 @@
       <c r="AZ49" s="41"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
-      <c r="A50" s="81">
+      <c r="A50" s="80">
         <v>3</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79" t="s">
+      <c r="C50" s="78"/>
+      <c r="D50" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="79"/>
+      <c r="E50" s="78"/>
       <c r="F50" s="21" t="s">
         <v>13</v>
       </c>
@@ -4429,11 +4426,11 @@
       <c r="AZ50" s="27"/>
     </row>
     <row r="51" spans="1:52" ht="12" customHeight="1">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="42" t="s">
         <v>14</v>
       </c>
@@ -4453,12 +4450,12 @@
       <c r="T51" s="65"/>
       <c r="U51" s="65"/>
       <c r="V51" s="65"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="77"/>
+      <c r="W51" s="65"/>
+      <c r="X51" s="65"/>
+      <c r="Y51" s="65"/>
+      <c r="Z51" s="65"/>
+      <c r="AA51" s="65"/>
+      <c r="AB51" s="65"/>
       <c r="AC51" s="44"/>
       <c r="AD51" s="44"/>
       <c r="AE51" s="44"/>
@@ -4485,17 +4482,17 @@
       <c r="AZ51" s="32"/>
     </row>
     <row r="52" spans="1:52" ht="12" customHeight="1">
-      <c r="A52" s="81">
+      <c r="A52" s="80">
         <v>4</v>
       </c>
-      <c r="B52" s="100" t="s">
+      <c r="B52" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79" t="s">
+      <c r="C52" s="78"/>
+      <c r="D52" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="79"/>
+      <c r="E52" s="78"/>
       <c r="F52" s="21" t="s">
         <v>13</v>
       </c>
@@ -4547,11 +4544,11 @@
       <c r="AZ52" s="27"/>
     </row>
     <row r="53" spans="1:52" ht="12" customHeight="1">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="42" t="s">
         <v>14</v>
       </c>
@@ -4603,17 +4600,17 @@
       <c r="AZ53" s="46"/>
     </row>
     <row r="54" spans="1:52" ht="12" customHeight="1">
-      <c r="A54" s="81">
+      <c r="A54" s="80">
         <v>5</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79" t="s">
+      <c r="C54" s="78"/>
+      <c r="D54" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="79"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="21" t="s">
         <v>13</v>
       </c>
@@ -4666,10 +4663,10 @@
     </row>
     <row r="55" spans="1:52" ht="12" customHeight="1">
       <c r="A55" s="82"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="28" t="s">
         <v>14</v>
       </c>
@@ -4699,8 +4696,8 @@
       <c r="AD55" s="30"/>
       <c r="AE55" s="30"/>
       <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="63"/>
       <c r="AI55" s="30"/>
       <c r="AJ55" s="30"/>
       <c r="AK55" s="30"/>
@@ -4721,17 +4718,17 @@
       <c r="AZ55" s="32"/>
     </row>
     <row r="56" spans="1:52" ht="12" customHeight="1">
-      <c r="A56" s="81">
+      <c r="A56" s="80">
         <v>6</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79" t="s">
+      <c r="C56" s="78"/>
+      <c r="D56" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="79"/>
+      <c r="E56" s="78"/>
       <c r="F56" s="21" t="s">
         <v>13</v>
       </c>
@@ -4783,11 +4780,11 @@
       <c r="AZ56" s="27"/>
     </row>
     <row r="57" spans="1:52" ht="12" customHeight="1">
-      <c r="A57" s="80"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="28" t="s">
         <v>14</v>
       </c>
@@ -4817,8 +4814,8 @@
       <c r="AD57" s="30"/>
       <c r="AE57" s="30"/>
       <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30"/>
+      <c r="AG57" s="63"/>
+      <c r="AH57" s="63"/>
       <c r="AI57" s="30"/>
       <c r="AJ57" s="30"/>
       <c r="AK57" s="30"/>
@@ -4895,15 +4892,15 @@
       <c r="AZ58" s="20"/>
     </row>
     <row r="59" spans="1:52" ht="12" customHeight="1">
-      <c r="A59" s="81">
+      <c r="A59" s="80">
         <v>1</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
       <c r="F59" s="21" t="s">
         <v>13</v>
       </c>
@@ -4955,11 +4952,11 @@
       <c r="AZ59" s="27"/>
     </row>
     <row r="60" spans="1:52" ht="12" customHeight="1">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
       <c r="F60" s="28" t="s">
         <v>14</v>
       </c>
@@ -4991,8 +4988,8 @@
       <c r="AF60" s="30"/>
       <c r="AG60" s="30"/>
       <c r="AH60" s="30"/>
-      <c r="AI60" s="30"/>
-      <c r="AJ60" s="30"/>
+      <c r="AI60" s="63"/>
+      <c r="AJ60" s="63"/>
       <c r="AK60" s="30"/>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -5011,15 +5008,15 @@
       <c r="AZ60" s="32"/>
     </row>
     <row r="61" spans="1:52" ht="12" customHeight="1">
-      <c r="A61" s="81">
+      <c r="A61" s="80">
         <v>2</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
       <c r="F61" s="33" t="s">
         <v>13</v>
       </c>
@@ -5071,11 +5068,11 @@
       <c r="AZ61" s="11"/>
     </row>
     <row r="62" spans="1:52" ht="12" customHeight="1">
-      <c r="A62" s="80"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="37" t="s">
         <v>14</v>
       </c>
@@ -5107,9 +5104,9 @@
       <c r="AF62" s="39"/>
       <c r="AG62" s="39"/>
       <c r="AH62" s="39"/>
-      <c r="AI62" s="39"/>
-      <c r="AJ62" s="39"/>
-      <c r="AK62" s="39"/>
+      <c r="AI62" s="54"/>
+      <c r="AJ62" s="54"/>
+      <c r="AK62" s="54"/>
       <c r="AL62" s="39"/>
       <c r="AM62" s="39"/>
       <c r="AN62" s="39"/>
@@ -5127,15 +5124,15 @@
       <c r="AZ62" s="41"/>
     </row>
     <row r="63" spans="1:52" ht="12" customHeight="1">
-      <c r="A63" s="81">
+      <c r="A63" s="80">
         <v>3</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
       <c r="F63" s="21" t="s">
         <v>13</v>
       </c>
@@ -5187,11 +5184,11 @@
       <c r="AZ63" s="27"/>
     </row>
     <row r="64" spans="1:52" ht="12" customHeight="1">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
       <c r="F64" s="42" t="s">
         <v>14</v>
       </c>
@@ -5243,15 +5240,15 @@
       <c r="AZ64" s="32"/>
     </row>
     <row r="65" spans="1:52" ht="12" customHeight="1">
-      <c r="A65" s="81">
+      <c r="A65" s="80">
         <v>4</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
       <c r="F65" s="33" t="s">
         <v>13</v>
       </c>
@@ -5303,11 +5300,11 @@
       <c r="AZ65" s="11"/>
     </row>
     <row r="66" spans="1:52" ht="12" customHeight="1">
-      <c r="A66" s="80"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
       <c r="F66" s="37" t="s">
         <v>14</v>
       </c>
@@ -5359,13 +5356,13 @@
       <c r="AZ66" s="41"/>
     </row>
     <row r="67" spans="1:52" ht="12" customHeight="1">
-      <c r="A67" s="81">
+      <c r="A67" s="80">
         <v>5</v>
       </c>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
       <c r="F67" s="21" t="s">
         <v>13</v>
       </c>
@@ -5417,11 +5414,11 @@
       <c r="AZ67" s="27"/>
     </row>
     <row r="68" spans="1:52" ht="12" customHeight="1">
-      <c r="A68" s="80"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
       <c r="F68" s="42" t="s">
         <v>14</v>
       </c>
@@ -5473,13 +5470,13 @@
       <c r="AZ68" s="46"/>
     </row>
     <row r="69" spans="1:52" ht="12" customHeight="1">
-      <c r="A69" s="81">
+      <c r="A69" s="80">
         <v>6</v>
       </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
       <c r="F69" s="33" t="s">
         <v>13</v>
       </c>
@@ -5531,11 +5528,11 @@
       <c r="AZ69" s="11"/>
     </row>
     <row r="70" spans="1:52" ht="12" customHeight="1">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
       <c r="F70" s="37" t="s">
         <v>14</v>
       </c>
@@ -5643,13 +5640,13 @@
       <c r="AZ71" s="20"/>
     </row>
     <row r="72" spans="1:52" ht="12" customHeight="1">
-      <c r="A72" s="81">
+      <c r="A72" s="80">
         <v>1</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
       <c r="F72" s="21" t="s">
         <v>13</v>
       </c>
@@ -5701,11 +5698,11 @@
       <c r="AZ72" s="27"/>
     </row>
     <row r="73" spans="1:52" ht="12" customHeight="1">
-      <c r="A73" s="80"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
       <c r="F73" s="28" t="s">
         <v>14</v>
       </c>
@@ -5757,13 +5754,13 @@
       <c r="AZ73" s="32"/>
     </row>
     <row r="74" spans="1:52" ht="12" customHeight="1">
-      <c r="A74" s="81">
+      <c r="A74" s="80">
         <v>2</v>
       </c>
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
       <c r="F74" s="33" t="s">
         <v>13</v>
       </c>
@@ -5815,11 +5812,11 @@
       <c r="AZ74" s="11"/>
     </row>
     <row r="75" spans="1:52" ht="12" customHeight="1">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
       <c r="F75" s="37" t="s">
         <v>14</v>
       </c>
@@ -5871,13 +5868,13 @@
       <c r="AZ75" s="41"/>
     </row>
     <row r="76" spans="1:52" ht="12" customHeight="1">
-      <c r="A76" s="81">
+      <c r="A76" s="80">
         <v>3</v>
       </c>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
       <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
@@ -5929,11 +5926,11 @@
       <c r="AZ76" s="27"/>
     </row>
     <row r="77" spans="1:52" ht="12" customHeight="1">
-      <c r="A77" s="80"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
       <c r="F77" s="42" t="s">
         <v>14</v>
       </c>
@@ -5985,13 +5982,13 @@
       <c r="AZ77" s="32"/>
     </row>
     <row r="78" spans="1:52" ht="12" customHeight="1">
-      <c r="A78" s="81">
+      <c r="A78" s="80">
         <v>4</v>
       </c>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
       <c r="F78" s="33" t="s">
         <v>13</v>
       </c>
@@ -6043,11 +6040,11 @@
       <c r="AZ78" s="11"/>
     </row>
     <row r="79" spans="1:52" ht="12" customHeight="1">
-      <c r="A79" s="80"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
+      <c r="A79" s="79"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
       <c r="F79" s="37" t="s">
         <v>14</v>
       </c>
@@ -6099,13 +6096,13 @@
       <c r="AZ79" s="41"/>
     </row>
     <row r="80" spans="1:52" ht="12" customHeight="1">
-      <c r="A80" s="81">
+      <c r="A80" s="80">
         <v>5</v>
       </c>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
       <c r="F80" s="21" t="s">
         <v>13</v>
       </c>
@@ -6157,11 +6154,11 @@
       <c r="AZ80" s="27"/>
     </row>
     <row r="81" spans="1:52" ht="12" customHeight="1">
-      <c r="A81" s="80"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="42" t="s">
         <v>14</v>
       </c>
@@ -6213,13 +6210,13 @@
       <c r="AZ81" s="46"/>
     </row>
     <row r="82" spans="1:52" ht="12" customHeight="1">
-      <c r="A82" s="81">
+      <c r="A82" s="80">
         <v>6</v>
       </c>
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="33" t="s">
         <v>13</v>
       </c>
@@ -6271,11 +6268,11 @@
       <c r="AZ82" s="11"/>
     </row>
     <row r="83" spans="1:52" ht="12" customHeight="1">
-      <c r="A83" s="80"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
+      <c r="A83" s="79"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
       <c r="F83" s="37" t="s">
         <v>14</v>
       </c>
@@ -6381,13 +6378,13 @@
       <c r="AZ84" s="20"/>
     </row>
     <row r="85" spans="1:52" ht="12" customHeight="1">
-      <c r="A85" s="81">
+      <c r="A85" s="80">
         <v>1</v>
       </c>
-      <c r="B85" s="79"/>
-      <c r="C85" s="79"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
       <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
@@ -6439,11 +6436,11 @@
       <c r="AZ85" s="27"/>
     </row>
     <row r="86" spans="1:52" ht="12" customHeight="1">
-      <c r="A86" s="80"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
       <c r="F86" s="28" t="s">
         <v>14</v>
       </c>
@@ -6495,13 +6492,13 @@
       <c r="AZ86" s="32"/>
     </row>
     <row r="87" spans="1:52" ht="12" customHeight="1">
-      <c r="A87" s="81">
+      <c r="A87" s="80">
         <v>2</v>
       </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
       <c r="F87" s="33" t="s">
         <v>13</v>
       </c>
@@ -6553,11 +6550,11 @@
       <c r="AZ87" s="11"/>
     </row>
     <row r="88" spans="1:52" ht="12" customHeight="1">
-      <c r="A88" s="80"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
       <c r="F88" s="37" t="s">
         <v>14</v>
       </c>
@@ -6609,13 +6606,13 @@
       <c r="AZ88" s="41"/>
     </row>
     <row r="89" spans="1:52" ht="12" customHeight="1">
-      <c r="A89" s="81">
+      <c r="A89" s="80">
         <v>3</v>
       </c>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
       <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
@@ -6667,11 +6664,11 @@
       <c r="AZ89" s="27"/>
     </row>
     <row r="90" spans="1:52" ht="12" customHeight="1">
-      <c r="A90" s="80"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
       <c r="F90" s="42" t="s">
         <v>14</v>
       </c>
@@ -6723,13 +6720,13 @@
       <c r="AZ90" s="32"/>
     </row>
     <row r="91" spans="1:52" ht="12" customHeight="1">
-      <c r="A91" s="81">
+      <c r="A91" s="80">
         <v>4</v>
       </c>
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
       <c r="F91" s="33" t="s">
         <v>13</v>
       </c>
@@ -6781,11 +6778,11 @@
       <c r="AZ91" s="11"/>
     </row>
     <row r="92" spans="1:52" ht="12" customHeight="1">
-      <c r="A92" s="80"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
       <c r="F92" s="42" t="s">
         <v>14</v>
       </c>
@@ -56302,6 +56299,227 @@
     </row>
   </sheetData>
   <mergeCells count="245">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="G3:R4"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="S3:AD4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="AE3:AP4"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B8:B9"/>
@@ -56326,227 +56544,6 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="AE3:AP4"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:R4"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="S3:AD4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D63:D64"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
+++ b/進捗管理表/Sakagami/進捗管理表フォーマット1_ProjactX_sakagami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\進捗管理表\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AEFCBF-8233-4F61-B1B9-500487CF824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0C8705-0833-48D8-80D4-189818B9FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,17 +1154,26 @@
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1184,18 +1193,6 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,6 +1207,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,10 +1429,10 @@
   <dimension ref="A1:AZ1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="J50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y63" sqref="Y63"/>
+      <selection pane="bottomRight" activeCell="AO66" sqref="AO66:AP66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1556,58 +1556,58 @@
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="85">
+      <c r="G3" s="88">
         <v>45629</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="85">
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="88">
         <v>45630</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="85">
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="88">
         <v>45631</v>
       </c>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="87"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="90"/>
       <c r="AQ3" s="52"/>
       <c r="AR3" s="52"/>
       <c r="AS3" s="52"/>
@@ -1620,56 +1620,56 @@
       <c r="AZ3" s="52"/>
     </row>
     <row r="4" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="93"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
@@ -1682,12 +1682,12 @@
       <c r="AZ4" s="10"/>
     </row>
     <row r="5" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="97"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="83">
         <v>3</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="98"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="83" t="s">
         <v>26</v>
       </c>
@@ -3308,11 +3308,11 @@
       <c r="AZ31" s="11"/>
     </row>
     <row r="32" spans="1:52" ht="12" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
       <c r="F32" s="37" t="s">
         <v>14</v>
       </c>
@@ -3426,11 +3426,11 @@
       <c r="AZ33" s="27"/>
     </row>
     <row r="34" spans="1:52" ht="12" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="42" t="s">
         <v>14</v>
       </c>
@@ -4190,11 +4190,11 @@
       <c r="AZ46" s="27"/>
     </row>
     <row r="47" spans="1:52" ht="12" customHeight="1">
-      <c r="A47" s="82"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
       <c r="F47" s="28" t="s">
         <v>14</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="A52" s="80">
         <v>4</v>
       </c>
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="99" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="78"/>
@@ -4662,11 +4662,11 @@
       <c r="AZ54" s="27"/>
     </row>
     <row r="55" spans="1:52" ht="12" customHeight="1">
-      <c r="A55" s="82"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="28" t="s">
         <v>14</v>
       </c>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="57" spans="1:52" ht="12" customHeight="1">
       <c r="A57" s="79"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="28" t="s">
         <v>14</v>
       </c>
@@ -5107,8 +5107,8 @@
       <c r="AI62" s="54"/>
       <c r="AJ62" s="54"/>
       <c r="AK62" s="54"/>
-      <c r="AL62" s="39"/>
-      <c r="AM62" s="39"/>
+      <c r="AL62" s="54"/>
+      <c r="AM62" s="54"/>
       <c r="AN62" s="39"/>
       <c r="AO62" s="39"/>
       <c r="AP62" s="39"/>
@@ -5224,8 +5224,8 @@
       <c r="AJ64" s="44"/>
       <c r="AK64" s="44"/>
       <c r="AL64" s="44"/>
-      <c r="AM64" s="44"/>
-      <c r="AN64" s="44"/>
+      <c r="AM64" s="65"/>
+      <c r="AN64" s="65"/>
       <c r="AO64" s="44"/>
       <c r="AP64" s="44"/>
       <c r="AQ64" s="32"/>
@@ -5342,8 +5342,8 @@
       <c r="AL66" s="39"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="39"/>
-      <c r="AO66" s="39"/>
-      <c r="AP66" s="39"/>
+      <c r="AO66" s="58"/>
+      <c r="AP66" s="58"/>
       <c r="AQ66" s="41"/>
       <c r="AR66" s="41"/>
       <c r="AS66" s="41"/>
@@ -56299,6 +56299,227 @@
     </row>
   </sheetData>
   <mergeCells count="245">
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="AE3:AP4"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="G3:R4"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="S3:AD4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
@@ -56323,227 +56544,6 @@
     <mergeCell ref="E67:E68"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:R4"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="S3:AD4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="AE3:AP4"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
